--- a/venv/data.xlsx
+++ b/venv/data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="pamet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -67,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -77,6 +77,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,17 +449,18 @@
   </sheetPr>
   <dimension ref="A1:F912"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A892" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A913" sqref="A913:XFD913"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C947" sqref="C947"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
+    <col width="11.5703125" customWidth="1" style="5" min="1" max="1"/>
     <col width="9.140625" customWidth="1" style="1" min="3" max="3"/>
     <col width="9.140625" customWidth="1" style="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1" s="5">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>mezi</t>
@@ -490,7 +492,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1" s="5">
       <c r="A2" t="inlineStr">
         <is>
           <t>1FT502A-0</t>
@@ -522,7 +524,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" ht="12.75" customHeight="1" s="5">
       <c r="A3" t="inlineStr">
         <is>
           <t>1FT502E-0</t>
@@ -554,7 +556,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" ht="12.75" customHeight="1" s="5">
       <c r="A4" t="inlineStr">
         <is>
           <t>1FT502F-0</t>
@@ -586,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" ht="12.75" customHeight="1" s="5">
       <c r="A5" t="inlineStr">
         <is>
           <t>1FT502A-1</t>
@@ -618,7 +620,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" ht="12.75" customHeight="1" s="5">
       <c r="A6" t="inlineStr">
         <is>
           <t>1FT502E-1</t>
@@ -650,7 +652,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" s="5">
       <c r="A7" t="inlineStr">
         <is>
           <t>1FT502F-1</t>
@@ -682,7 +684,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" ht="12.75" customHeight="1" s="5">
       <c r="A8" t="inlineStr">
         <is>
           <t>1FT503A-0</t>
@@ -714,7 +716,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" ht="12.75" customHeight="1" s="5">
       <c r="A9" t="inlineStr">
         <is>
           <t>1FT503E-0</t>
@@ -746,7 +748,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" ht="12.75" customHeight="1" s="5">
       <c r="A10" t="inlineStr">
         <is>
           <t>1FT503F-0</t>
@@ -778,7 +780,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" ht="12.75" customHeight="1" s="5">
       <c r="A11" t="inlineStr">
         <is>
           <t>1FT503A-1</t>
@@ -810,7 +812,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" ht="12.75" customHeight="1" s="5">
       <c r="A12" t="inlineStr">
         <is>
           <t>1FT503E-1</t>
@@ -842,7 +844,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" ht="12.75" customHeight="1" s="5">
       <c r="A13" t="inlineStr">
         <is>
           <t>1FT503F-1</t>
@@ -874,7 +876,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" ht="12.75" customHeight="1" s="5">
       <c r="A14" t="inlineStr">
         <is>
           <t>1FT504A-0</t>
@@ -906,7 +908,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" ht="12.75" customHeight="1" s="5">
       <c r="A15" t="inlineStr">
         <is>
           <t>1FT504E-0</t>
@@ -938,7 +940,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" ht="12.75" customHeight="1" s="5">
       <c r="A16" t="inlineStr">
         <is>
           <t>1FT504F-0</t>
@@ -970,7 +972,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" ht="12.75" customHeight="1" s="5">
       <c r="A17" t="inlineStr">
         <is>
           <t>1FT504A-1</t>
@@ -1002,7 +1004,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" ht="12.75" customHeight="1" s="5">
       <c r="A18" t="inlineStr">
         <is>
           <t>1FT504E-1</t>
@@ -1034,7 +1036,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" ht="12.75" customHeight="1" s="5">
       <c r="A19" t="inlineStr">
         <is>
           <t>1FT504F-1</t>
@@ -1066,7 +1068,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" ht="12.75" customHeight="1" s="5">
       <c r="A20" t="inlineStr">
         <is>
           <t>1FT506A-0</t>
@@ -1098,7 +1100,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" ht="12.75" customHeight="1" s="5">
       <c r="A21" t="inlineStr">
         <is>
           <t>1FT506E-0</t>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" ht="12.75" customHeight="1" s="5">
       <c r="A22" t="inlineStr">
         <is>
           <t>1FT506F-0</t>
@@ -1162,7 +1164,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" ht="12.75" customHeight="1" s="5">
       <c r="A23" t="inlineStr">
         <is>
           <t>1FT506A-1</t>
@@ -1194,7 +1196,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" ht="12.75" customHeight="1" s="5">
       <c r="A24" t="inlineStr">
         <is>
           <t>1FT506E-1</t>
@@ -1226,7 +1228,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" ht="12.75" customHeight="1" s="5">
       <c r="A25" t="inlineStr">
         <is>
           <t>1FT506F-1</t>
@@ -1258,7 +1260,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" ht="12.75" customHeight="1" s="5">
       <c r="A26" t="inlineStr">
         <is>
           <t>1FT507A-0</t>
@@ -1290,7 +1292,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" ht="12.75" customHeight="1" s="5">
       <c r="A27" t="inlineStr">
         <is>
           <t>1FT507E-0</t>
@@ -1322,7 +1324,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" ht="12.75" customHeight="1" s="5">
       <c r="A28" t="inlineStr">
         <is>
           <t>1FT507F-0</t>
@@ -1354,7 +1356,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" ht="12.75" customHeight="1" s="5">
       <c r="A29" t="inlineStr">
         <is>
           <t>1FT507A-1</t>
@@ -1386,7 +1388,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" ht="12.75" customHeight="1" s="5">
       <c r="A30" t="inlineStr">
         <is>
           <t>1FT507E-1</t>
@@ -1418,7 +1420,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" ht="12.75" customHeight="1" s="5">
       <c r="A31" t="inlineStr">
         <is>
           <t>1FT507F-1</t>
@@ -1450,7 +1452,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" ht="12.75" customHeight="1" s="5">
       <c r="A32" t="inlineStr">
         <is>
           <t>1FT510A-0</t>
@@ -1482,7 +1484,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" ht="12.75" customHeight="1" s="5">
       <c r="A33" t="inlineStr">
         <is>
           <t>1FT510E-0</t>
@@ -1514,7 +1516,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" ht="12.75" customHeight="1" s="5">
       <c r="A34" t="inlineStr">
         <is>
           <t>1FT510F-0</t>
@@ -1546,7 +1548,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" ht="12.75" customHeight="1" s="5">
       <c r="A35" t="inlineStr">
         <is>
           <t>1FT510A-1</t>
@@ -1578,7 +1580,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" ht="12.75" customHeight="1" s="5">
       <c r="A36" t="inlineStr">
         <is>
           <t>1FT510E-1</t>
@@ -1610,7 +1612,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" ht="12.75" customHeight="1" s="5">
       <c r="A37" t="inlineStr">
         <is>
           <t>1FT510F-1</t>
@@ -1642,7 +1644,7 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" ht="12.75" customHeight="1" s="5">
       <c r="A38" t="inlineStr">
         <is>
           <t>1FT602A-1</t>
@@ -1674,7 +1676,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" ht="12.75" customHeight="1" s="5">
       <c r="A39" t="inlineStr">
         <is>
           <t>1FT602D-1</t>
@@ -1706,7 +1708,7 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" ht="12.75" customHeight="1" s="5">
       <c r="A40" t="inlineStr">
         <is>
           <t>1FT602E-1</t>
@@ -1738,7 +1740,7 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" ht="12.75" customHeight="1" s="5">
       <c r="A41" t="inlineStr">
         <is>
           <t>1FT602F-1</t>
@@ -1770,7 +1772,7 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" ht="12.75" customHeight="1" s="5">
       <c r="A42" t="inlineStr">
         <is>
           <t>1FT602H-1</t>
@@ -1802,7 +1804,7 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" ht="12.75" customHeight="1" s="5">
       <c r="A43" t="inlineStr">
         <is>
           <t>1FT602L-1</t>
@@ -1834,7 +1836,7 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" ht="12.75" customHeight="1" s="5">
       <c r="A44" t="inlineStr">
         <is>
           <t>1FT602S-1</t>
@@ -1866,7 +1868,7 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" ht="12.75" customHeight="1" s="5">
       <c r="A45" t="inlineStr">
         <is>
           <t>1FT602U-1</t>
@@ -1898,7 +1900,7 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" ht="12.75" customHeight="1" s="5">
       <c r="A46" t="inlineStr">
         <is>
           <t>1FT602T-1</t>
@@ -1930,7 +1932,7 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" ht="12.75" customHeight="1" s="5">
       <c r="A47" t="inlineStr">
         <is>
           <t>1FT602P-1</t>
@@ -1962,7 +1964,7 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" ht="12.75" customHeight="1" s="5">
       <c r="A48" t="inlineStr">
         <is>
           <t>1FT602A-4</t>
@@ -1994,7 +1996,7 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" ht="12.75" customHeight="1" s="5">
       <c r="A49" t="inlineStr">
         <is>
           <t>1FT602D-4</t>
@@ -2026,7 +2028,7 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" ht="12.75" customHeight="1" s="5">
       <c r="A50" t="inlineStr">
         <is>
           <t>1FT602E-4</t>
@@ -2058,7 +2060,7 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" ht="12.75" customHeight="1" s="5">
       <c r="A51" t="inlineStr">
         <is>
           <t>1FT602F-4</t>
@@ -2090,7 +2092,7 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" ht="12.75" customHeight="1" s="5">
       <c r="A52" t="inlineStr">
         <is>
           <t>1FT602H-4</t>
@@ -2122,7 +2124,7 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" ht="12.75" customHeight="1" s="5">
       <c r="A53" t="inlineStr">
         <is>
           <t>1FT602L-4</t>
@@ -2154,7 +2156,7 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" ht="12.75" customHeight="1" s="5">
       <c r="A54" t="inlineStr">
         <is>
           <t>1FT602S-4</t>
@@ -2186,7 +2188,7 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" ht="12.75" customHeight="1" s="5">
       <c r="A55" t="inlineStr">
         <is>
           <t>1FT602U-4</t>
@@ -2218,7 +2220,7 @@
         </is>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" ht="12.75" customHeight="1" s="5">
       <c r="A56" t="inlineStr">
         <is>
           <t>1FT602T-4</t>
@@ -2250,7 +2252,7 @@
         </is>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" ht="12.75" customHeight="1" s="5">
       <c r="A57" t="inlineStr">
         <is>
           <t>1FT602P-4</t>
@@ -2282,7 +2284,7 @@
         </is>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" ht="12.75" customHeight="1" s="5">
       <c r="A58" t="inlineStr">
         <is>
           <t>1FT602A-6</t>
@@ -2314,7 +2316,7 @@
         </is>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" ht="12.75" customHeight="1" s="5">
       <c r="A59" t="inlineStr">
         <is>
           <t>1FT602D-6</t>
@@ -2346,7 +2348,7 @@
         </is>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" ht="12.75" customHeight="1" s="5">
       <c r="A60" t="inlineStr">
         <is>
           <t>1FT602E-6</t>
@@ -2378,7 +2380,7 @@
         </is>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" ht="12.75" customHeight="1" s="5">
       <c r="A61" t="inlineStr">
         <is>
           <t>1FT602F-6</t>
@@ -2410,7 +2412,7 @@
         </is>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" ht="12.75" customHeight="1" s="5">
       <c r="A62" t="inlineStr">
         <is>
           <t>1FT602H-6</t>
@@ -2442,7 +2444,7 @@
         </is>
       </c>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" ht="12.75" customHeight="1" s="5">
       <c r="A63" t="inlineStr">
         <is>
           <t>1FT602L-6</t>
@@ -2474,7 +2476,7 @@
         </is>
       </c>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" ht="12.75" customHeight="1" s="5">
       <c r="A64" t="inlineStr">
         <is>
           <t>1FT602S-6</t>
@@ -2506,7 +2508,7 @@
         </is>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" ht="12.75" customHeight="1" s="5">
       <c r="A65" t="inlineStr">
         <is>
           <t>1FT602U-6</t>
@@ -2538,7 +2540,7 @@
         </is>
       </c>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" ht="12.75" customHeight="1" s="5">
       <c r="A66" t="inlineStr">
         <is>
           <t>1FT602T-6</t>
@@ -2570,7 +2572,7 @@
         </is>
       </c>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" ht="12.75" customHeight="1" s="5">
       <c r="A67" t="inlineStr">
         <is>
           <t>1FT602P-6</t>
@@ -2602,7 +2604,7 @@
         </is>
       </c>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" ht="12.75" customHeight="1" s="5">
       <c r="A68" t="inlineStr">
         <is>
           <t>1FT602A-8</t>
@@ -2634,7 +2636,7 @@
         </is>
       </c>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" ht="12.75" customHeight="1" s="5">
       <c r="A69" t="inlineStr">
         <is>
           <t>1FT602D-8</t>
@@ -2666,7 +2668,7 @@
         </is>
       </c>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" ht="12.75" customHeight="1" s="5">
       <c r="A70" t="inlineStr">
         <is>
           <t>1FT602E-8</t>
@@ -2698,7 +2700,7 @@
         </is>
       </c>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" ht="12.75" customHeight="1" s="5">
       <c r="A71" t="inlineStr">
         <is>
           <t>1FT602F-8</t>
@@ -2730,7 +2732,7 @@
         </is>
       </c>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" ht="12.75" customHeight="1" s="5">
       <c r="A72" t="inlineStr">
         <is>
           <t>1FT602H-8</t>
@@ -2762,7 +2764,7 @@
         </is>
       </c>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" ht="12.75" customHeight="1" s="5">
       <c r="A73" t="inlineStr">
         <is>
           <t>1FT602L-8</t>
@@ -2794,7 +2796,7 @@
         </is>
       </c>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" ht="12.75" customHeight="1" s="5">
       <c r="A74" t="inlineStr">
         <is>
           <t>1FT602S-8</t>
@@ -2826,7 +2828,7 @@
         </is>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" ht="12.75" customHeight="1" s="5">
       <c r="A75" t="inlineStr">
         <is>
           <t>1FT602U-8</t>
@@ -2858,7 +2860,7 @@
         </is>
       </c>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" ht="12.75" customHeight="1" s="5">
       <c r="A76" t="inlineStr">
         <is>
           <t>1FT602T-8</t>
@@ -2890,7 +2892,7 @@
         </is>
       </c>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" ht="12.75" customHeight="1" s="5">
       <c r="A77" t="inlineStr">
         <is>
           <t>1FT602P-8</t>
@@ -2922,7 +2924,7 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" ht="12.75" customHeight="1" s="5">
       <c r="A78" t="inlineStr">
         <is>
           <t>1FT603A-1</t>
@@ -2954,7 +2956,7 @@
         </is>
       </c>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" ht="12.75" customHeight="1" s="5">
       <c r="A79" t="inlineStr">
         <is>
           <t>1FT603D-1</t>
@@ -2986,7 +2988,7 @@
         </is>
       </c>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" ht="12.75" customHeight="1" s="5">
       <c r="A80" t="inlineStr">
         <is>
           <t>1FT603E-1</t>
@@ -3018,7 +3020,7 @@
         </is>
       </c>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" ht="12.75" customHeight="1" s="5">
       <c r="A81" t="inlineStr">
         <is>
           <t>1FT603F-1</t>
@@ -3050,7 +3052,7 @@
         </is>
       </c>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" ht="12.75" customHeight="1" s="5">
       <c r="A82" t="inlineStr">
         <is>
           <t>1FT603H-1</t>
@@ -3082,7 +3084,7 @@
         </is>
       </c>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" ht="12.75" customHeight="1" s="5">
       <c r="A83" t="inlineStr">
         <is>
           <t>1FT603L-1</t>
@@ -3114,7 +3116,7 @@
         </is>
       </c>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" ht="12.75" customHeight="1" s="5">
       <c r="A84" t="inlineStr">
         <is>
           <t>1FT603S-1</t>
@@ -3146,7 +3148,7 @@
         </is>
       </c>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" ht="12.75" customHeight="1" s="5">
       <c r="A85" t="inlineStr">
         <is>
           <t>1FT603U-1</t>
@@ -3178,7 +3180,7 @@
         </is>
       </c>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" ht="12.75" customHeight="1" s="5">
       <c r="A86" t="inlineStr">
         <is>
           <t>1FT603T-1</t>
@@ -3210,7 +3212,7 @@
         </is>
       </c>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" ht="12.75" customHeight="1" s="5">
       <c r="A87" t="inlineStr">
         <is>
           <t>1FT603P-1</t>
@@ -3242,7 +3244,7 @@
         </is>
       </c>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" ht="12.75" customHeight="1" s="5">
       <c r="A88" t="inlineStr">
         <is>
           <t>1FT603A-4</t>
@@ -3274,7 +3276,7 @@
         </is>
       </c>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" ht="12.75" customHeight="1" s="5">
       <c r="A89" t="inlineStr">
         <is>
           <t>1FT603D-4</t>
@@ -3306,7 +3308,7 @@
         </is>
       </c>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" ht="12.75" customHeight="1" s="5">
       <c r="A90" t="inlineStr">
         <is>
           <t>1FT603E-4</t>
@@ -3338,7 +3340,7 @@
         </is>
       </c>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" ht="12.75" customHeight="1" s="5">
       <c r="A91" t="inlineStr">
         <is>
           <t>1FT603F-4</t>
@@ -3370,7 +3372,7 @@
         </is>
       </c>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" ht="12.75" customHeight="1" s="5">
       <c r="A92" t="inlineStr">
         <is>
           <t>1FT603H-4</t>
@@ -3402,7 +3404,7 @@
         </is>
       </c>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" ht="12.75" customHeight="1" s="5">
       <c r="A93" t="inlineStr">
         <is>
           <t>1FT603L-4</t>
@@ -3434,7 +3436,7 @@
         </is>
       </c>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" ht="12.75" customHeight="1" s="5">
       <c r="A94" t="inlineStr">
         <is>
           <t>1FT603S-4</t>
@@ -3466,7 +3468,7 @@
         </is>
       </c>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" ht="12.75" customHeight="1" s="5">
       <c r="A95" t="inlineStr">
         <is>
           <t>1FT603U-4</t>
@@ -3498,7 +3500,7 @@
         </is>
       </c>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" ht="12.75" customHeight="1" s="5">
       <c r="A96" t="inlineStr">
         <is>
           <t>1FT603T-4</t>
@@ -3530,7 +3532,7 @@
         </is>
       </c>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" ht="12.75" customHeight="1" s="5">
       <c r="A97" t="inlineStr">
         <is>
           <t>1FT603P-4</t>
@@ -3562,7 +3564,7 @@
         </is>
       </c>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" ht="12.75" customHeight="1" s="5">
       <c r="A98" t="inlineStr">
         <is>
           <t>1FT603A-6</t>
@@ -3594,7 +3596,7 @@
         </is>
       </c>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" ht="12.75" customHeight="1" s="5">
       <c r="A99" t="inlineStr">
         <is>
           <t>1FT603D-6</t>
@@ -3626,7 +3628,7 @@
         </is>
       </c>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" ht="12.75" customHeight="1" s="5">
       <c r="A100" t="inlineStr">
         <is>
           <t>1FT603E-6</t>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" ht="12.75" customHeight="1" s="5">
       <c r="A101" t="inlineStr">
         <is>
           <t>1FT603F-6</t>
@@ -3690,7 +3692,7 @@
         </is>
       </c>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" ht="12.75" customHeight="1" s="5">
       <c r="A102" t="inlineStr">
         <is>
           <t>1FT603H-6</t>
@@ -3722,7 +3724,7 @@
         </is>
       </c>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" ht="12.75" customHeight="1" s="5">
       <c r="A103" t="inlineStr">
         <is>
           <t>1FT603L-6</t>
@@ -3754,7 +3756,7 @@
         </is>
       </c>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" ht="12.75" customHeight="1" s="5">
       <c r="A104" t="inlineStr">
         <is>
           <t>1FT603S-6</t>
@@ -3786,7 +3788,7 @@
         </is>
       </c>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" ht="12.75" customHeight="1" s="5">
       <c r="A105" t="inlineStr">
         <is>
           <t>1FT603U-6</t>
@@ -3818,7 +3820,7 @@
         </is>
       </c>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" ht="12.75" customHeight="1" s="5">
       <c r="A106" t="inlineStr">
         <is>
           <t>1FT603T-6</t>
@@ -3850,7 +3852,7 @@
         </is>
       </c>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" ht="12.75" customHeight="1" s="5">
       <c r="A107" t="inlineStr">
         <is>
           <t>1FT603P-6</t>
@@ -3882,7 +3884,7 @@
         </is>
       </c>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" ht="12.75" customHeight="1" s="5">
       <c r="A108" t="inlineStr">
         <is>
           <t>1FT603A-8</t>
@@ -3914,7 +3916,7 @@
         </is>
       </c>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" ht="12.75" customHeight="1" s="5">
       <c r="A109" t="inlineStr">
         <is>
           <t>1FT603D-8</t>
@@ -3946,7 +3948,7 @@
         </is>
       </c>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" ht="12.75" customHeight="1" s="5">
       <c r="A110" t="inlineStr">
         <is>
           <t>1FT603E-8</t>
@@ -3978,7 +3980,7 @@
         </is>
       </c>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" ht="12.75" customHeight="1" s="5">
       <c r="A111" t="inlineStr">
         <is>
           <t>1FT603F-8</t>
@@ -4010,7 +4012,7 @@
         </is>
       </c>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" ht="12.75" customHeight="1" s="5">
       <c r="A112" t="inlineStr">
         <is>
           <t>1FT603H-8</t>
@@ -4042,7 +4044,7 @@
         </is>
       </c>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" ht="12.75" customHeight="1" s="5">
       <c r="A113" t="inlineStr">
         <is>
           <t>1FT603L-8</t>
@@ -4074,7 +4076,7 @@
         </is>
       </c>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" ht="12.75" customHeight="1" s="5">
       <c r="A114" t="inlineStr">
         <is>
           <t>1FT603S-8</t>
@@ -4106,7 +4108,7 @@
         </is>
       </c>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" ht="12.75" customHeight="1" s="5">
       <c r="A115" t="inlineStr">
         <is>
           <t>1FT603U-8</t>
@@ -4138,7 +4140,7 @@
         </is>
       </c>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" ht="12.75" customHeight="1" s="5">
       <c r="A116" t="inlineStr">
         <is>
           <t>1FT603T-8</t>
@@ -4170,7 +4172,7 @@
         </is>
       </c>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" ht="12.75" customHeight="1" s="5">
       <c r="A117" t="inlineStr">
         <is>
           <t>1FT603P-8</t>
@@ -4202,7 +4204,7 @@
         </is>
       </c>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" ht="12.75" customHeight="1" s="5">
       <c r="A118" t="inlineStr">
         <is>
           <t>1FT604A-1</t>
@@ -4234,7 +4236,7 @@
         </is>
       </c>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" ht="12.75" customHeight="1" s="5">
       <c r="A119" t="inlineStr">
         <is>
           <t>1FT604D-1</t>
@@ -4266,7 +4268,7 @@
         </is>
       </c>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" ht="12.75" customHeight="1" s="5">
       <c r="A120" t="inlineStr">
         <is>
           <t>1FT604E-1</t>
@@ -4298,7 +4300,7 @@
         </is>
       </c>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" ht="12.75" customHeight="1" s="5">
       <c r="A121" t="inlineStr">
         <is>
           <t>1FT604F-1</t>
@@ -4330,7 +4332,7 @@
         </is>
       </c>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" ht="12.75" customHeight="1" s="5">
       <c r="A122" t="inlineStr">
         <is>
           <t>1FT604H-1</t>
@@ -4362,7 +4364,7 @@
         </is>
       </c>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" ht="12.75" customHeight="1" s="5">
       <c r="A123" t="inlineStr">
         <is>
           <t>1FT604L-1</t>
@@ -4394,7 +4396,7 @@
         </is>
       </c>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" ht="12.75" customHeight="1" s="5">
       <c r="A124" t="inlineStr">
         <is>
           <t>1FT604S-1</t>
@@ -4426,7 +4428,7 @@
         </is>
       </c>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" ht="12.75" customHeight="1" s="5">
       <c r="A125" t="inlineStr">
         <is>
           <t>1FT604U-1</t>
@@ -4458,7 +4460,7 @@
         </is>
       </c>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" ht="12.75" customHeight="1" s="5">
       <c r="A126" t="inlineStr">
         <is>
           <t>1FT604T-1</t>
@@ -4490,7 +4492,7 @@
         </is>
       </c>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" ht="12.75" customHeight="1" s="5">
       <c r="A127" t="inlineStr">
         <is>
           <t>1FT604P-1</t>
@@ -4522,7 +4524,7 @@
         </is>
       </c>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" ht="12.75" customHeight="1" s="5">
       <c r="A128" t="inlineStr">
         <is>
           <t>1FT604A-4</t>
@@ -4554,7 +4556,7 @@
         </is>
       </c>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" ht="12.75" customHeight="1" s="5">
       <c r="A129" t="inlineStr">
         <is>
           <t>1FT604D-4</t>
@@ -4586,7 +4588,7 @@
         </is>
       </c>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" ht="12.75" customHeight="1" s="5">
       <c r="A130" t="inlineStr">
         <is>
           <t>1FT604E-4</t>
@@ -4618,7 +4620,7 @@
         </is>
       </c>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" ht="12.75" customHeight="1" s="5">
       <c r="A131" t="inlineStr">
         <is>
           <t>1FT604F-4</t>
@@ -4650,7 +4652,7 @@
         </is>
       </c>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" ht="12.75" customHeight="1" s="5">
       <c r="A132" t="inlineStr">
         <is>
           <t>1FT604H-4</t>
@@ -4682,7 +4684,7 @@
         </is>
       </c>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" ht="12.75" customHeight="1" s="5">
       <c r="A133" t="inlineStr">
         <is>
           <t>1FT604L-4</t>
@@ -4714,7 +4716,7 @@
         </is>
       </c>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" ht="12.75" customHeight="1" s="5">
       <c r="A134" t="inlineStr">
         <is>
           <t>1FT604S-4</t>
@@ -4746,7 +4748,7 @@
         </is>
       </c>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" ht="12.75" customHeight="1" s="5">
       <c r="A135" t="inlineStr">
         <is>
           <t>1FT604U-4</t>
@@ -4778,7 +4780,7 @@
         </is>
       </c>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" ht="12.75" customHeight="1" s="5">
       <c r="A136" t="inlineStr">
         <is>
           <t>1FT604T-4</t>
@@ -4810,7 +4812,7 @@
         </is>
       </c>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" ht="12.75" customHeight="1" s="5">
       <c r="A137" t="inlineStr">
         <is>
           <t>1FT604P-4</t>
@@ -4842,7 +4844,7 @@
         </is>
       </c>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" ht="12.75" customHeight="1" s="5">
       <c r="A138" t="inlineStr">
         <is>
           <t>1FT604A-6</t>
@@ -4874,7 +4876,7 @@
         </is>
       </c>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" ht="12.75" customHeight="1" s="5">
       <c r="A139" t="inlineStr">
         <is>
           <t>1FT604D-6</t>
@@ -4906,7 +4908,7 @@
         </is>
       </c>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" ht="12.75" customHeight="1" s="5">
       <c r="A140" t="inlineStr">
         <is>
           <t>1FT604E-6</t>
@@ -4938,7 +4940,7 @@
         </is>
       </c>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" ht="12.75" customHeight="1" s="5">
       <c r="A141" t="inlineStr">
         <is>
           <t>1FT604F-6</t>
@@ -4970,7 +4972,7 @@
         </is>
       </c>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" ht="12.75" customHeight="1" s="5">
       <c r="A142" t="inlineStr">
         <is>
           <t>1FT604H-6</t>
@@ -5002,7 +5004,7 @@
         </is>
       </c>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" ht="12.75" customHeight="1" s="5">
       <c r="A143" t="inlineStr">
         <is>
           <t>1FT604L-6</t>
@@ -5034,7 +5036,7 @@
         </is>
       </c>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" ht="12.75" customHeight="1" s="5">
       <c r="A144" t="inlineStr">
         <is>
           <t>1FT604S-6</t>
@@ -5066,7 +5068,7 @@
         </is>
       </c>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
+    <row r="145" ht="12.75" customHeight="1" s="5">
       <c r="A145" t="inlineStr">
         <is>
           <t>1FT604U-6</t>
@@ -5098,7 +5100,7 @@
         </is>
       </c>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
+    <row r="146" ht="12.75" customHeight="1" s="5">
       <c r="A146" t="inlineStr">
         <is>
           <t>1FT604T-6</t>
@@ -5119,9 +5121,9 @@
           <t>leden 2006</t>
         </is>
       </c>
-      <c r="E146" s="5" t="n"/>
-    </row>
-    <row r="147" ht="12.75" customHeight="1">
+      <c r="E146" s="6" t="n"/>
+    </row>
+    <row r="147" ht="12.75" customHeight="1" s="5">
       <c r="A147" t="inlineStr">
         <is>
           <t>1FT604P-6</t>
@@ -5142,9 +5144,18 @@
           <t>únor 2006</t>
         </is>
       </c>
-      <c r="E147" s="5" t="n"/>
-    </row>
-    <row r="148" ht="12.75" customHeight="1">
+      <c r="E147" s="1" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>leden 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" ht="12.75" customHeight="1" s="5">
       <c r="A148" t="inlineStr">
         <is>
           <t>1FT604A-8</t>
@@ -5165,9 +5176,18 @@
           <t>březen 2006</t>
         </is>
       </c>
-      <c r="E148" s="5" t="n"/>
-    </row>
-    <row r="149" ht="12.75" customHeight="1">
+      <c r="E148" s="1" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>únor 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="12.75" customHeight="1" s="5">
       <c r="A149" t="inlineStr">
         <is>
           <t>1FT604D-8</t>
@@ -5188,9 +5208,18 @@
           <t>duben 2006</t>
         </is>
       </c>
-      <c r="E149" s="5" t="n"/>
-    </row>
-    <row r="150" ht="12.75" customHeight="1">
+      <c r="E149" s="1" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>březen 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="12.75" customHeight="1" s="5">
       <c r="A150" t="inlineStr">
         <is>
           <t>1FT604E-8</t>
@@ -5211,9 +5240,18 @@
           <t>květen 2006</t>
         </is>
       </c>
-      <c r="E150" s="5" t="n"/>
-    </row>
-    <row r="151" ht="12.75" customHeight="1">
+      <c r="E150" s="1" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>duben 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="12.75" customHeight="1" s="5">
       <c r="A151" t="inlineStr">
         <is>
           <t>1FT604F-8</t>
@@ -5234,9 +5272,18 @@
           <t>červen 2006</t>
         </is>
       </c>
-      <c r="E151" s="5" t="n"/>
-    </row>
-    <row r="152" ht="12.75" customHeight="1">
+      <c r="E151" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>květen 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" ht="12.75" customHeight="1" s="5">
       <c r="A152" t="inlineStr">
         <is>
           <t>1FT604H-8</t>
@@ -5257,9 +5304,18 @@
           <t>červenec 2006</t>
         </is>
       </c>
-      <c r="E152" s="5" t="n"/>
-    </row>
-    <row r="153" ht="12.75" customHeight="1">
+      <c r="E152" s="1" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>červen 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" ht="12.75" customHeight="1" s="5">
       <c r="A153" t="inlineStr">
         <is>
           <t>1FT604L-8</t>
@@ -5280,9 +5336,18 @@
           <t>srpen 2006</t>
         </is>
       </c>
-      <c r="E153" s="5" t="n"/>
-    </row>
-    <row r="154" ht="12.75" customHeight="1">
+      <c r="E153" s="1" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>červenec 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" ht="12.75" customHeight="1" s="5">
       <c r="A154" t="inlineStr">
         <is>
           <t>1FT604S-8</t>
@@ -5303,9 +5368,18 @@
           <t>září 2006</t>
         </is>
       </c>
-      <c r="E154" s="5" t="n"/>
-    </row>
-    <row r="155" ht="12.75" customHeight="1">
+      <c r="E154" s="1" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>srpen 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" ht="12.75" customHeight="1" s="5">
       <c r="A155" t="inlineStr">
         <is>
           <t>1FT604U-8</t>
@@ -5326,9 +5400,18 @@
           <t>říjen 2006</t>
         </is>
       </c>
-      <c r="E155" s="5" t="n"/>
-    </row>
-    <row r="156" ht="12.75" customHeight="1">
+      <c r="E155" s="1" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>září 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" ht="12.75" customHeight="1" s="5">
       <c r="A156" t="inlineStr">
         <is>
           <t>1FT604T-8</t>
@@ -5349,9 +5432,18 @@
           <t>listopad 2006</t>
         </is>
       </c>
-      <c r="E156" s="5" t="n"/>
-    </row>
-    <row r="157" ht="12.75" customHeight="1">
+      <c r="E156" s="1" t="inlineStr">
+        <is>
+          <t>DO</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>říjen 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="157" ht="12.75" customHeight="1" s="5">
       <c r="A157" t="inlineStr">
         <is>
           <t>1FT604P-8</t>
@@ -5372,9 +5464,18 @@
           <t>prosinec 2006</t>
         </is>
       </c>
-      <c r="E157" s="5" t="n"/>
-    </row>
-    <row r="158" ht="12.75" customHeight="1">
+      <c r="E157" s="1" t="inlineStr">
+        <is>
+          <t>DN</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>listopad 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" ht="12.75" customHeight="1" s="5">
       <c r="A158" t="inlineStr">
         <is>
           <t>1FT606A-1</t>
@@ -5395,9 +5496,18 @@
           <t>leden 2007</t>
         </is>
       </c>
-      <c r="E158" s="5" t="n"/>
-    </row>
-    <row r="159" ht="12.75" customHeight="1">
+      <c r="E158" s="1" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>prosinec 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="159" ht="12.75" customHeight="1" s="5">
       <c r="A159" t="inlineStr">
         <is>
           <t>1FT606D-1</t>
@@ -5418,9 +5528,9 @@
           <t>únor 2007</t>
         </is>
       </c>
-      <c r="E159" s="5" t="n"/>
-    </row>
-    <row r="160" ht="12.75" customHeight="1">
+      <c r="E159" s="6" t="n"/>
+    </row>
+    <row r="160" ht="12.75" customHeight="1" s="5">
       <c r="A160" t="inlineStr">
         <is>
           <t>1FT606E-1</t>
@@ -5441,9 +5551,9 @@
           <t>březen 2007</t>
         </is>
       </c>
-      <c r="E160" s="5" t="n"/>
-    </row>
-    <row r="161" ht="12.75" customHeight="1">
+      <c r="E160" s="6" t="n"/>
+    </row>
+    <row r="161" ht="12.75" customHeight="1" s="5">
       <c r="A161" t="inlineStr">
         <is>
           <t>1FT606F-1</t>
@@ -5464,9 +5574,9 @@
           <t>duben 2007</t>
         </is>
       </c>
-      <c r="E161" s="5" t="n"/>
-    </row>
-    <row r="162" ht="12.75" customHeight="1">
+      <c r="E161" s="6" t="n"/>
+    </row>
+    <row r="162" ht="12.75" customHeight="1" s="5">
       <c r="A162" t="inlineStr">
         <is>
           <t>1FT606H-1</t>
@@ -5487,9 +5597,9 @@
           <t>květen 2007</t>
         </is>
       </c>
-      <c r="E162" s="5" t="n"/>
-    </row>
-    <row r="163" ht="12.75" customHeight="1">
+      <c r="E162" s="6" t="n"/>
+    </row>
+    <row r="163" ht="12.75" customHeight="1" s="5">
       <c r="A163" t="inlineStr">
         <is>
           <t>1FT606L-1</t>
@@ -5510,9 +5620,9 @@
           <t>červen 2007</t>
         </is>
       </c>
-      <c r="E163" s="5" t="n"/>
-    </row>
-    <row r="164" ht="12.75" customHeight="1">
+      <c r="E163" s="6" t="n"/>
+    </row>
+    <row r="164" ht="12.75" customHeight="1" s="5">
       <c r="A164" t="inlineStr">
         <is>
           <t>1FT606S-1</t>
@@ -5533,9 +5643,9 @@
           <t>červenec 2007</t>
         </is>
       </c>
-      <c r="E164" s="5" t="n"/>
-    </row>
-    <row r="165" ht="12.75" customHeight="1">
+      <c r="E164" s="6" t="n"/>
+    </row>
+    <row r="165" ht="12.75" customHeight="1" s="5">
       <c r="A165" t="inlineStr">
         <is>
           <t>1FT606U-1</t>
@@ -5556,9 +5666,9 @@
           <t>srpen 2007</t>
         </is>
       </c>
-      <c r="E165" s="5" t="n"/>
-    </row>
-    <row r="166" ht="12.75" customHeight="1">
+      <c r="E165" s="6" t="n"/>
+    </row>
+    <row r="166" ht="12.75" customHeight="1" s="5">
       <c r="A166" t="inlineStr">
         <is>
           <t>1FT606T-1</t>
@@ -5579,9 +5689,9 @@
           <t>září 2007</t>
         </is>
       </c>
-      <c r="E166" s="5" t="n"/>
-    </row>
-    <row r="167" ht="12.75" customHeight="1">
+      <c r="E166" s="6" t="n"/>
+    </row>
+    <row r="167" ht="12.75" customHeight="1" s="5">
       <c r="A167" t="inlineStr">
         <is>
           <t>1FT606P-1</t>
@@ -5602,9 +5712,9 @@
           <t>říjen 2007</t>
         </is>
       </c>
-      <c r="E167" s="5" t="n"/>
-    </row>
-    <row r="168" ht="12.75" customHeight="1">
+      <c r="E167" s="6" t="n"/>
+    </row>
+    <row r="168" ht="12.75" customHeight="1" s="5">
       <c r="A168" t="inlineStr">
         <is>
           <t>1FT606A-4</t>
@@ -5625,9 +5735,9 @@
           <t>listopad 2007</t>
         </is>
       </c>
-      <c r="E168" s="5" t="n"/>
-    </row>
-    <row r="169" ht="12.75" customHeight="1">
+      <c r="E168" s="6" t="n"/>
+    </row>
+    <row r="169" ht="12.75" customHeight="1" s="5">
       <c r="A169" t="inlineStr">
         <is>
           <t>1FT606D-4</t>
@@ -5648,9 +5758,9 @@
           <t>prosinec 2007</t>
         </is>
       </c>
-      <c r="E169" s="5" t="n"/>
-    </row>
-    <row r="170" ht="12.75" customHeight="1">
+      <c r="E169" s="6" t="n"/>
+    </row>
+    <row r="170" ht="12.75" customHeight="1" s="5">
       <c r="A170" t="inlineStr">
         <is>
           <t>1FT606E-4</t>
@@ -5671,9 +5781,9 @@
           <t>leden 2008</t>
         </is>
       </c>
-      <c r="E170" s="5" t="n"/>
-    </row>
-    <row r="171" ht="12.75" customHeight="1">
+      <c r="E170" s="6" t="n"/>
+    </row>
+    <row r="171" ht="12.75" customHeight="1" s="5">
       <c r="A171" t="inlineStr">
         <is>
           <t>1FT606F-4</t>
@@ -5694,9 +5804,9 @@
           <t>únor 2008</t>
         </is>
       </c>
-      <c r="E171" s="5" t="n"/>
-    </row>
-    <row r="172" ht="12.75" customHeight="1">
+      <c r="E171" s="6" t="n"/>
+    </row>
+    <row r="172" ht="12.75" customHeight="1" s="5">
       <c r="A172" t="inlineStr">
         <is>
           <t>1FT606H-4</t>
@@ -5717,9 +5827,9 @@
           <t>březen 2008</t>
         </is>
       </c>
-      <c r="E172" s="5" t="n"/>
-    </row>
-    <row r="173" ht="12.75" customHeight="1">
+      <c r="E172" s="6" t="n"/>
+    </row>
+    <row r="173" ht="12.75" customHeight="1" s="5">
       <c r="A173" t="inlineStr">
         <is>
           <t>1FT606L-4</t>
@@ -5740,9 +5850,9 @@
           <t>duben 2008</t>
         </is>
       </c>
-      <c r="E173" s="5" t="n"/>
-    </row>
-    <row r="174" ht="12.75" customHeight="1">
+      <c r="E173" s="6" t="n"/>
+    </row>
+    <row r="174" ht="12.75" customHeight="1" s="5">
       <c r="A174" t="inlineStr">
         <is>
           <t>1FT606S-4</t>
@@ -5763,9 +5873,9 @@
           <t>květen 2008</t>
         </is>
       </c>
-      <c r="E174" s="5" t="n"/>
-    </row>
-    <row r="175" ht="12.75" customHeight="1">
+      <c r="E174" s="6" t="n"/>
+    </row>
+    <row r="175" ht="12.75" customHeight="1" s="5">
       <c r="A175" t="inlineStr">
         <is>
           <t>1FT606U-4</t>
@@ -5786,9 +5896,9 @@
           <t>červen 2008</t>
         </is>
       </c>
-      <c r="E175" s="5" t="n"/>
-    </row>
-    <row r="176" ht="12.75" customHeight="1">
+      <c r="E175" s="6" t="n"/>
+    </row>
+    <row r="176" ht="12.75" customHeight="1" s="5">
       <c r="A176" t="inlineStr">
         <is>
           <t>1FT606T-4</t>
@@ -5809,9 +5919,9 @@
           <t>červenec 2008</t>
         </is>
       </c>
-      <c r="E176" s="5" t="n"/>
-    </row>
-    <row r="177" ht="12.75" customHeight="1">
+      <c r="E176" s="6" t="n"/>
+    </row>
+    <row r="177" ht="12.75" customHeight="1" s="5">
       <c r="A177" t="inlineStr">
         <is>
           <t>1FT606P-4</t>
@@ -5832,9 +5942,9 @@
           <t>srpen 2008</t>
         </is>
       </c>
-      <c r="E177" s="5" t="n"/>
-    </row>
-    <row r="178" ht="12.75" customHeight="1">
+      <c r="E177" s="6" t="n"/>
+    </row>
+    <row r="178" ht="12.75" customHeight="1" s="5">
       <c r="A178" t="inlineStr">
         <is>
           <t>1FT606A-6</t>
@@ -5855,9 +5965,9 @@
           <t>září 2008</t>
         </is>
       </c>
-      <c r="E178" s="5" t="n"/>
-    </row>
-    <row r="179" ht="12.75" customHeight="1">
+      <c r="E178" s="6" t="n"/>
+    </row>
+    <row r="179" ht="12.75" customHeight="1" s="5">
       <c r="A179" t="inlineStr">
         <is>
           <t>1FT606D-6</t>
@@ -5878,9 +5988,9 @@
           <t>říjen 2008</t>
         </is>
       </c>
-      <c r="E179" s="5" t="n"/>
-    </row>
-    <row r="180" ht="12.75" customHeight="1">
+      <c r="E179" s="6" t="n"/>
+    </row>
+    <row r="180" ht="12.75" customHeight="1" s="5">
       <c r="A180" t="inlineStr">
         <is>
           <t>1FT606E-6</t>
@@ -5901,9 +6011,9 @@
           <t>listopad 2008</t>
         </is>
       </c>
-      <c r="E180" s="5" t="n"/>
-    </row>
-    <row r="181" ht="12.75" customHeight="1">
+      <c r="E180" s="6" t="n"/>
+    </row>
+    <row r="181" ht="12.75" customHeight="1" s="5">
       <c r="A181" t="inlineStr">
         <is>
           <t>1FT606F-6</t>
@@ -5924,9 +6034,9 @@
           <t>prosinec 2008</t>
         </is>
       </c>
-      <c r="E181" s="5" t="n"/>
-    </row>
-    <row r="182" ht="12.75" customHeight="1">
+      <c r="E181" s="6" t="n"/>
+    </row>
+    <row r="182" ht="12.75" customHeight="1" s="5">
       <c r="A182" t="inlineStr">
         <is>
           <t>1FT606H-6</t>
@@ -5947,9 +6057,9 @@
           <t>leden 2009</t>
         </is>
       </c>
-      <c r="E182" s="5" t="n"/>
-    </row>
-    <row r="183" ht="12.75" customHeight="1">
+      <c r="E182" s="6" t="n"/>
+    </row>
+    <row r="183" ht="12.75" customHeight="1" s="5">
       <c r="A183" t="inlineStr">
         <is>
           <t>1FT606L-6</t>
@@ -5970,9 +6080,9 @@
           <t>únor 2009</t>
         </is>
       </c>
-      <c r="E183" s="5" t="n"/>
-    </row>
-    <row r="184" ht="12.75" customHeight="1">
+      <c r="E183" s="6" t="n"/>
+    </row>
+    <row r="184" ht="12.75" customHeight="1" s="5">
       <c r="A184" t="inlineStr">
         <is>
           <t>1FT606S-6</t>
@@ -5993,9 +6103,9 @@
           <t>březen 2009</t>
         </is>
       </c>
-      <c r="E184" s="5" t="n"/>
-    </row>
-    <row r="185" ht="12.75" customHeight="1">
+      <c r="E184" s="6" t="n"/>
+    </row>
+    <row r="185" ht="12.75" customHeight="1" s="5">
       <c r="A185" t="inlineStr">
         <is>
           <t>1FT606U-6</t>
@@ -6016,9 +6126,9 @@
           <t>duben 2009</t>
         </is>
       </c>
-      <c r="E185" s="5" t="n"/>
-    </row>
-    <row r="186" ht="12.75" customHeight="1">
+      <c r="E185" s="6" t="n"/>
+    </row>
+    <row r="186" ht="12.75" customHeight="1" s="5">
       <c r="A186" t="inlineStr">
         <is>
           <t>1FT606T-6</t>
@@ -6039,9 +6149,9 @@
           <t>květen 2009</t>
         </is>
       </c>
-      <c r="E186" s="5" t="n"/>
-    </row>
-    <row r="187" ht="12.75" customHeight="1">
+      <c r="E186" s="6" t="n"/>
+    </row>
+    <row r="187" ht="12.75" customHeight="1" s="5">
       <c r="A187" t="inlineStr">
         <is>
           <t>1FT606P-6</t>
@@ -6062,9 +6172,9 @@
           <t>červen 2009</t>
         </is>
       </c>
-      <c r="E187" s="5" t="n"/>
-    </row>
-    <row r="188" ht="12.75" customHeight="1">
+      <c r="E187" s="6" t="n"/>
+    </row>
+    <row r="188" ht="12.75" customHeight="1" s="5">
       <c r="A188" t="inlineStr">
         <is>
           <t>1FT606A-8</t>
@@ -6085,9 +6195,9 @@
           <t>červenec 2009</t>
         </is>
       </c>
-      <c r="E188" s="5" t="n"/>
-    </row>
-    <row r="189" ht="12.75" customHeight="1">
+      <c r="E188" s="6" t="n"/>
+    </row>
+    <row r="189" ht="12.75" customHeight="1" s="5">
       <c r="A189" t="inlineStr">
         <is>
           <t>1FT606D-8</t>
@@ -6108,9 +6218,9 @@
           <t>srpen 2009</t>
         </is>
       </c>
-      <c r="E189" s="5" t="n"/>
-    </row>
-    <row r="190" ht="12.75" customHeight="1">
+      <c r="E189" s="6" t="n"/>
+    </row>
+    <row r="190" ht="12.75" customHeight="1" s="5">
       <c r="A190" t="inlineStr">
         <is>
           <t>1FT606E-8</t>
@@ -6131,9 +6241,9 @@
           <t>září 2009</t>
         </is>
       </c>
-      <c r="E190" s="5" t="n"/>
-    </row>
-    <row r="191" ht="12.75" customHeight="1">
+      <c r="E190" s="6" t="n"/>
+    </row>
+    <row r="191" ht="12.75" customHeight="1" s="5">
       <c r="A191" t="inlineStr">
         <is>
           <t>1FT606F-8</t>
@@ -6154,9 +6264,9 @@
           <t>říjen 2009</t>
         </is>
       </c>
-      <c r="E191" s="5" t="n"/>
-    </row>
-    <row r="192" ht="12.75" customHeight="1">
+      <c r="E191" s="6" t="n"/>
+    </row>
+    <row r="192" ht="12.75" customHeight="1" s="5">
       <c r="A192" t="inlineStr">
         <is>
           <t>1FT606H-8</t>
@@ -6177,9 +6287,9 @@
           <t>listopad 2009</t>
         </is>
       </c>
-      <c r="E192" s="5" t="n"/>
-    </row>
-    <row r="193" ht="12.75" customHeight="1">
+      <c r="E192" s="6" t="n"/>
+    </row>
+    <row r="193" ht="12.75" customHeight="1" s="5">
       <c r="A193" t="inlineStr">
         <is>
           <t>1FT606L-8</t>
@@ -6200,9 +6310,9 @@
           <t>prosinec 2009</t>
         </is>
       </c>
-      <c r="E193" s="5" t="n"/>
-    </row>
-    <row r="194" ht="12.75" customHeight="1">
+      <c r="E193" s="6" t="n"/>
+    </row>
+    <row r="194" ht="12.75" customHeight="1" s="5">
       <c r="A194" t="inlineStr">
         <is>
           <t>1FT606S-8</t>
@@ -6223,9 +6333,9 @@
           <t>leden 2010</t>
         </is>
       </c>
-      <c r="E194" s="5" t="n"/>
-    </row>
-    <row r="195" ht="12.75" customHeight="1">
+      <c r="E194" s="6" t="n"/>
+    </row>
+    <row r="195" ht="12.75" customHeight="1" s="5">
       <c r="A195" t="inlineStr">
         <is>
           <t>1FT606U-8</t>
@@ -6246,9 +6356,9 @@
           <t>únor 2010</t>
         </is>
       </c>
-      <c r="E195" s="5" t="n"/>
-    </row>
-    <row r="196" ht="12.75" customHeight="1">
+      <c r="E195" s="6" t="n"/>
+    </row>
+    <row r="196" ht="12.75" customHeight="1" s="5">
       <c r="A196" t="inlineStr">
         <is>
           <t>1FT606T-8</t>
@@ -6269,9 +6379,9 @@
           <t>březen 2010</t>
         </is>
       </c>
-      <c r="E196" s="5" t="n"/>
-    </row>
-    <row r="197" ht="12.75" customHeight="1">
+      <c r="E196" s="6" t="n"/>
+    </row>
+    <row r="197" ht="12.75" customHeight="1" s="5">
       <c r="A197" t="inlineStr">
         <is>
           <t>1FT606P-8</t>
@@ -6292,9 +6402,9 @@
           <t>duben 2010</t>
         </is>
       </c>
-      <c r="E197" s="5" t="n"/>
-    </row>
-    <row r="198" ht="12.75" customHeight="1">
+      <c r="E197" s="6" t="n"/>
+    </row>
+    <row r="198" ht="12.75" customHeight="1" s="5">
       <c r="A198" t="inlineStr">
         <is>
           <t>1FT608A-1</t>
@@ -6315,9 +6425,9 @@
           <t>květen 2010</t>
         </is>
       </c>
-      <c r="E198" s="5" t="n"/>
-    </row>
-    <row r="199" ht="12.75" customHeight="1">
+      <c r="E198" s="6" t="n"/>
+    </row>
+    <row r="199" ht="12.75" customHeight="1" s="5">
       <c r="A199" t="inlineStr">
         <is>
           <t>1FT608D-1</t>
@@ -6338,9 +6448,9 @@
           <t>červen 2010</t>
         </is>
       </c>
-      <c r="E199" s="5" t="n"/>
-    </row>
-    <row r="200" ht="12.75" customHeight="1">
+      <c r="E199" s="6" t="n"/>
+    </row>
+    <row r="200" ht="12.75" customHeight="1" s="5">
       <c r="A200" t="inlineStr">
         <is>
           <t>1FT608E-1</t>
@@ -6361,9 +6471,9 @@
           <t>červenec 2010</t>
         </is>
       </c>
-      <c r="E200" s="5" t="n"/>
-    </row>
-    <row r="201" ht="12.75" customHeight="1">
+      <c r="E200" s="6" t="n"/>
+    </row>
+    <row r="201" ht="12.75" customHeight="1" s="5">
       <c r="A201" t="inlineStr">
         <is>
           <t>1FT608F-1</t>
@@ -6384,9 +6494,9 @@
           <t>srpen 2010</t>
         </is>
       </c>
-      <c r="E201" s="5" t="n"/>
-    </row>
-    <row r="202" ht="12.75" customHeight="1">
+      <c r="E201" s="6" t="n"/>
+    </row>
+    <row r="202" ht="12.75" customHeight="1" s="5">
       <c r="A202" t="inlineStr">
         <is>
           <t>1FT608H-1</t>
@@ -6407,9 +6517,9 @@
           <t>září 2010</t>
         </is>
       </c>
-      <c r="E202" s="5" t="n"/>
-    </row>
-    <row r="203" ht="12.75" customHeight="1">
+      <c r="E202" s="6" t="n"/>
+    </row>
+    <row r="203" ht="12.75" customHeight="1" s="5">
       <c r="A203" t="inlineStr">
         <is>
           <t>1FT608L-1</t>
@@ -6430,9 +6540,9 @@
           <t>říjen 2010</t>
         </is>
       </c>
-      <c r="E203" s="5" t="n"/>
-    </row>
-    <row r="204" ht="12.75" customHeight="1">
+      <c r="E203" s="6" t="n"/>
+    </row>
+    <row r="204" ht="12.75" customHeight="1" s="5">
       <c r="A204" t="inlineStr">
         <is>
           <t>1FT608S-1</t>
@@ -6453,9 +6563,9 @@
           <t>listopad 2010</t>
         </is>
       </c>
-      <c r="E204" s="5" t="n"/>
-    </row>
-    <row r="205" ht="12.75" customHeight="1">
+      <c r="E204" s="6" t="n"/>
+    </row>
+    <row r="205" ht="12.75" customHeight="1" s="5">
       <c r="A205" t="inlineStr">
         <is>
           <t>1FT608U-1</t>
@@ -6476,9 +6586,9 @@
           <t>prosinec 2010</t>
         </is>
       </c>
-      <c r="E205" s="5" t="n"/>
-    </row>
-    <row r="206" ht="12.75" customHeight="1">
+      <c r="E205" s="6" t="n"/>
+    </row>
+    <row r="206" ht="12.75" customHeight="1" s="5">
       <c r="A206" t="inlineStr">
         <is>
           <t>1FT608T-1</t>
@@ -6499,9 +6609,9 @@
           <t>leden 2011</t>
         </is>
       </c>
-      <c r="E206" s="5" t="n"/>
-    </row>
-    <row r="207" ht="12.75" customHeight="1">
+      <c r="E206" s="6" t="n"/>
+    </row>
+    <row r="207" ht="12.75" customHeight="1" s="5">
       <c r="A207" t="inlineStr">
         <is>
           <t>1FT608P-1</t>
@@ -6522,9 +6632,9 @@
           <t>únor 2011</t>
         </is>
       </c>
-      <c r="E207" s="5" t="n"/>
-    </row>
-    <row r="208" ht="12.75" customHeight="1">
+      <c r="E207" s="6" t="n"/>
+    </row>
+    <row r="208" ht="12.75" customHeight="1" s="5">
       <c r="A208" t="inlineStr">
         <is>
           <t>1FT608A-4</t>
@@ -6545,9 +6655,9 @@
           <t>březen 2011</t>
         </is>
       </c>
-      <c r="E208" s="5" t="n"/>
-    </row>
-    <row r="209" ht="12.75" customHeight="1">
+      <c r="E208" s="6" t="n"/>
+    </row>
+    <row r="209" ht="12.75" customHeight="1" s="5">
       <c r="A209" t="inlineStr">
         <is>
           <t>1FT608D-4</t>
@@ -6568,9 +6678,9 @@
           <t>duben 2011</t>
         </is>
       </c>
-      <c r="E209" s="5" t="n"/>
-    </row>
-    <row r="210" ht="12.75" customHeight="1">
+      <c r="E209" s="6" t="n"/>
+    </row>
+    <row r="210" ht="12.75" customHeight="1" s="5">
       <c r="A210" t="inlineStr">
         <is>
           <t>1FT608E-4</t>
@@ -6591,9 +6701,9 @@
           <t>květen 2011</t>
         </is>
       </c>
-      <c r="E210" s="5" t="n"/>
-    </row>
-    <row r="211" ht="12.75" customHeight="1">
+      <c r="E210" s="6" t="n"/>
+    </row>
+    <row r="211" ht="12.75" customHeight="1" s="5">
       <c r="A211" t="inlineStr">
         <is>
           <t>1FT608F-4</t>
@@ -6614,9 +6724,9 @@
           <t>červen 2011</t>
         </is>
       </c>
-      <c r="E211" s="5" t="n"/>
-    </row>
-    <row r="212" ht="12.75" customHeight="1">
+      <c r="E211" s="6" t="n"/>
+    </row>
+    <row r="212" ht="12.75" customHeight="1" s="5">
       <c r="A212" t="inlineStr">
         <is>
           <t>1FT608H-4</t>
@@ -6637,9 +6747,9 @@
           <t>červenec 2011</t>
         </is>
       </c>
-      <c r="E212" s="5" t="n"/>
-    </row>
-    <row r="213" ht="12.75" customHeight="1">
+      <c r="E212" s="6" t="n"/>
+    </row>
+    <row r="213" ht="12.75" customHeight="1" s="5">
       <c r="A213" t="inlineStr">
         <is>
           <t>1FT608L-4</t>
@@ -6660,9 +6770,9 @@
           <t>srpen 2011</t>
         </is>
       </c>
-      <c r="E213" s="5" t="n"/>
-    </row>
-    <row r="214" ht="12.75" customHeight="1">
+      <c r="E213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.75" customHeight="1" s="5">
       <c r="A214" t="inlineStr">
         <is>
           <t>1FT608S-4</t>
@@ -6683,9 +6793,9 @@
           <t>září 2011</t>
         </is>
       </c>
-      <c r="E214" s="5" t="n"/>
-    </row>
-    <row r="215" ht="12.75" customHeight="1">
+      <c r="E214" s="6" t="n"/>
+    </row>
+    <row r="215" ht="12.75" customHeight="1" s="5">
       <c r="A215" t="inlineStr">
         <is>
           <t>1FT608U-4</t>
@@ -6706,9 +6816,9 @@
           <t>říjen 2011</t>
         </is>
       </c>
-      <c r="E215" s="5" t="n"/>
-    </row>
-    <row r="216" ht="12.75" customHeight="1">
+      <c r="E215" s="6" t="n"/>
+    </row>
+    <row r="216" ht="12.75" customHeight="1" s="5">
       <c r="A216" t="inlineStr">
         <is>
           <t>1FT608T-4</t>
@@ -6729,9 +6839,9 @@
           <t>listopad 2011</t>
         </is>
       </c>
-      <c r="E216" s="5" t="n"/>
-    </row>
-    <row r="217" ht="12.75" customHeight="1">
+      <c r="E216" s="6" t="n"/>
+    </row>
+    <row r="217" ht="12.75" customHeight="1" s="5">
       <c r="A217" t="inlineStr">
         <is>
           <t>1FT608P-4</t>
@@ -6752,9 +6862,9 @@
           <t>prosinec 2011</t>
         </is>
       </c>
-      <c r="E217" s="5" t="n"/>
-    </row>
-    <row r="218" ht="12.75" customHeight="1">
+      <c r="E217" s="6" t="n"/>
+    </row>
+    <row r="218" ht="12.75" customHeight="1" s="5">
       <c r="A218" t="inlineStr">
         <is>
           <t>1FT608A-6</t>
@@ -6775,9 +6885,9 @@
           <t>leden 2012</t>
         </is>
       </c>
-      <c r="E218" s="5" t="n"/>
-    </row>
-    <row r="219" ht="12.75" customHeight="1">
+      <c r="E218" s="6" t="n"/>
+    </row>
+    <row r="219" ht="12.75" customHeight="1" s="5">
       <c r="A219" t="inlineStr">
         <is>
           <t>1FT608D-6</t>
@@ -6798,9 +6908,9 @@
           <t>únor 2012</t>
         </is>
       </c>
-      <c r="E219" s="5" t="n"/>
-    </row>
-    <row r="220" ht="12.75" customHeight="1">
+      <c r="E219" s="6" t="n"/>
+    </row>
+    <row r="220" ht="12.75" customHeight="1" s="5">
       <c r="A220" t="inlineStr">
         <is>
           <t>1FT608E-6</t>
@@ -6821,9 +6931,9 @@
           <t>březen 2012</t>
         </is>
       </c>
-      <c r="E220" s="5" t="n"/>
-    </row>
-    <row r="221" ht="12.75" customHeight="1">
+      <c r="E220" s="6" t="n"/>
+    </row>
+    <row r="221" ht="12.75" customHeight="1" s="5">
       <c r="A221" t="inlineStr">
         <is>
           <t>1FT608F-6</t>
@@ -6844,9 +6954,9 @@
           <t>duben 2012</t>
         </is>
       </c>
-      <c r="E221" s="5" t="n"/>
-    </row>
-    <row r="222" ht="12.75" customHeight="1">
+      <c r="E221" s="6" t="n"/>
+    </row>
+    <row r="222" ht="12.75" customHeight="1" s="5">
       <c r="A222" t="inlineStr">
         <is>
           <t>1FT608H-6</t>
@@ -6867,9 +6977,9 @@
           <t>květen 2012</t>
         </is>
       </c>
-      <c r="E222" s="5" t="n"/>
-    </row>
-    <row r="223" ht="12.75" customHeight="1">
+      <c r="E222" s="6" t="n"/>
+    </row>
+    <row r="223" ht="12.75" customHeight="1" s="5">
       <c r="A223" t="inlineStr">
         <is>
           <t>1FT608L-6</t>
@@ -6890,9 +7000,9 @@
           <t>červen 2012</t>
         </is>
       </c>
-      <c r="E223" s="5" t="n"/>
-    </row>
-    <row r="224" ht="12.75" customHeight="1">
+      <c r="E223" s="6" t="n"/>
+    </row>
+    <row r="224" ht="12.75" customHeight="1" s="5">
       <c r="A224" t="inlineStr">
         <is>
           <t>1FT608S-6</t>
@@ -6913,9 +7023,9 @@
           <t>červenec 2012</t>
         </is>
       </c>
-      <c r="E224" s="5" t="n"/>
-    </row>
-    <row r="225" ht="12.75" customHeight="1">
+      <c r="E224" s="6" t="n"/>
+    </row>
+    <row r="225" ht="12.75" customHeight="1" s="5">
       <c r="A225" t="inlineStr">
         <is>
           <t>1FT608U-6</t>
@@ -6936,9 +7046,9 @@
           <t>srpen 2012</t>
         </is>
       </c>
-      <c r="E225" s="5" t="n"/>
-    </row>
-    <row r="226" ht="12.75" customHeight="1">
+      <c r="E225" s="6" t="n"/>
+    </row>
+    <row r="226" ht="12.75" customHeight="1" s="5">
       <c r="A226" t="inlineStr">
         <is>
           <t>1FT608T-6</t>
@@ -6959,9 +7069,9 @@
           <t>září 2012</t>
         </is>
       </c>
-      <c r="E226" s="5" t="n"/>
-    </row>
-    <row r="227" ht="12.75" customHeight="1">
+      <c r="E226" s="6" t="n"/>
+    </row>
+    <row r="227" ht="12.75" customHeight="1" s="5">
       <c r="A227" t="inlineStr">
         <is>
           <t>1FT608P-6</t>
@@ -6982,9 +7092,9 @@
           <t>říjen 2012</t>
         </is>
       </c>
-      <c r="E227" s="5" t="n"/>
-    </row>
-    <row r="228" ht="12.75" customHeight="1">
+      <c r="E227" s="6" t="n"/>
+    </row>
+    <row r="228" ht="12.75" customHeight="1" s="5">
       <c r="A228" t="inlineStr">
         <is>
           <t>1FT608A-8</t>
@@ -7005,9 +7115,9 @@
           <t>listopad 2012</t>
         </is>
       </c>
-      <c r="E228" s="5" t="n"/>
-    </row>
-    <row r="229" ht="12.75" customHeight="1">
+      <c r="E228" s="6" t="n"/>
+    </row>
+    <row r="229" ht="12.75" customHeight="1" s="5">
       <c r="A229" t="inlineStr">
         <is>
           <t>1FT608D-8</t>
@@ -7028,9 +7138,9 @@
           <t>prosinec 2012</t>
         </is>
       </c>
-      <c r="E229" s="5" t="n"/>
-    </row>
-    <row r="230" ht="12.75" customHeight="1">
+      <c r="E229" s="6" t="n"/>
+    </row>
+    <row r="230" ht="12.75" customHeight="1" s="5">
       <c r="A230" t="inlineStr">
         <is>
           <t>1FT608E-8</t>
@@ -7051,9 +7161,9 @@
           <t>leden 2013</t>
         </is>
       </c>
-      <c r="E230" s="5" t="n"/>
-    </row>
-    <row r="231" ht="12.75" customHeight="1">
+      <c r="E230" s="6" t="n"/>
+    </row>
+    <row r="231" ht="12.75" customHeight="1" s="5">
       <c r="A231" t="inlineStr">
         <is>
           <t>1FT608F-8</t>
@@ -7074,9 +7184,9 @@
           <t>únor 2013</t>
         </is>
       </c>
-      <c r="E231" s="5" t="n"/>
-    </row>
-    <row r="232" ht="12.75" customHeight="1">
+      <c r="E231" s="6" t="n"/>
+    </row>
+    <row r="232" ht="12.75" customHeight="1" s="5">
       <c r="A232" t="inlineStr">
         <is>
           <t>1FT608H-8</t>
@@ -7097,9 +7207,9 @@
           <t>březen 2013</t>
         </is>
       </c>
-      <c r="E232" s="5" t="n"/>
-    </row>
-    <row r="233" ht="12.75" customHeight="1">
+      <c r="E232" s="6" t="n"/>
+    </row>
+    <row r="233" ht="12.75" customHeight="1" s="5">
       <c r="A233" t="inlineStr">
         <is>
           <t>1FT608L-8</t>
@@ -7120,9 +7230,9 @@
           <t>duben 2013</t>
         </is>
       </c>
-      <c r="E233" s="5" t="n"/>
-    </row>
-    <row r="234" ht="12.75" customHeight="1">
+      <c r="E233" s="6" t="n"/>
+    </row>
+    <row r="234" ht="12.75" customHeight="1" s="5">
       <c r="A234" t="inlineStr">
         <is>
           <t>1FT608S-8</t>
@@ -7143,9 +7253,9 @@
           <t>květen 2013</t>
         </is>
       </c>
-      <c r="E234" s="5" t="n"/>
-    </row>
-    <row r="235" ht="12.75" customHeight="1">
+      <c r="E234" s="6" t="n"/>
+    </row>
+    <row r="235" ht="12.75" customHeight="1" s="5">
       <c r="A235" t="inlineStr">
         <is>
           <t>1FT608U-8</t>
@@ -7166,9 +7276,9 @@
           <t>červen 2013</t>
         </is>
       </c>
-      <c r="E235" s="5" t="n"/>
-    </row>
-    <row r="236" ht="12.75" customHeight="1">
+      <c r="E235" s="6" t="n"/>
+    </row>
+    <row r="236" ht="12.75" customHeight="1" s="5">
       <c r="A236" t="inlineStr">
         <is>
           <t>1FT608T-8</t>
@@ -7189,9 +7299,9 @@
           <t>červenec 2013</t>
         </is>
       </c>
-      <c r="E236" s="5" t="n"/>
-    </row>
-    <row r="237" ht="12.75" customHeight="1">
+      <c r="E236" s="6" t="n"/>
+    </row>
+    <row r="237" ht="12.75" customHeight="1" s="5">
       <c r="A237" t="inlineStr">
         <is>
           <t>1FT608P-8</t>
@@ -7212,9 +7322,9 @@
           <t>srpen 2013</t>
         </is>
       </c>
-      <c r="E237" s="5" t="n"/>
-    </row>
-    <row r="238" ht="12.75" customHeight="1">
+      <c r="E237" s="6" t="n"/>
+    </row>
+    <row r="238" ht="12.75" customHeight="1" s="5">
       <c r="A238" t="inlineStr">
         <is>
           <t>1FT610A-1</t>
@@ -7235,9 +7345,9 @@
           <t>září 2013</t>
         </is>
       </c>
-      <c r="E238" s="5" t="n"/>
-    </row>
-    <row r="239" ht="12.75" customHeight="1">
+      <c r="E238" s="6" t="n"/>
+    </row>
+    <row r="239" ht="12.75" customHeight="1" s="5">
       <c r="A239" t="inlineStr">
         <is>
           <t>1FT610D-1</t>
@@ -7258,9 +7368,9 @@
           <t>říjen 2013</t>
         </is>
       </c>
-      <c r="E239" s="5" t="n"/>
-    </row>
-    <row r="240" ht="12.75" customHeight="1">
+      <c r="E239" s="6" t="n"/>
+    </row>
+    <row r="240" ht="12.75" customHeight="1" s="5">
       <c r="A240" t="inlineStr">
         <is>
           <t>1FT610E-1</t>
@@ -7281,9 +7391,9 @@
           <t>listopad 2013</t>
         </is>
       </c>
-      <c r="E240" s="5" t="n"/>
-    </row>
-    <row r="241" ht="12.75" customHeight="1">
+      <c r="E240" s="6" t="n"/>
+    </row>
+    <row r="241" ht="12.75" customHeight="1" s="5">
       <c r="A241" t="inlineStr">
         <is>
           <t>1FT610F-1</t>
@@ -7304,9 +7414,9 @@
           <t>prosinec 2013</t>
         </is>
       </c>
-      <c r="E241" s="5" t="n"/>
-    </row>
-    <row r="242" ht="12.75" customHeight="1">
+      <c r="E241" s="6" t="n"/>
+    </row>
+    <row r="242" ht="12.75" customHeight="1" s="5">
       <c r="A242" t="inlineStr">
         <is>
           <t>1FT610H-1</t>
@@ -7317,9 +7427,9 @@
           <t>EQN 1125</t>
         </is>
       </c>
-      <c r="E242" s="5" t="n"/>
-    </row>
-    <row r="243" ht="12.75" customHeight="1">
+      <c r="E242" s="6" t="n"/>
+    </row>
+    <row r="243" ht="12.75" customHeight="1" s="5">
       <c r="A243" t="inlineStr">
         <is>
           <t>1FT610L-1</t>
@@ -7330,9 +7440,9 @@
           <t>EQN 1125 smi</t>
         </is>
       </c>
-      <c r="E243" s="5" t="n"/>
-    </row>
-    <row r="244" ht="12.75" customHeight="1">
+      <c r="E243" s="6" t="n"/>
+    </row>
+    <row r="244" ht="12.75" customHeight="1" s="5">
       <c r="A244" t="inlineStr">
         <is>
           <t>1FT610S-1</t>
@@ -7343,9 +7453,9 @@
           <t>res 4/6/8</t>
         </is>
       </c>
-      <c r="E244" s="5" t="n"/>
-    </row>
-    <row r="245" ht="12.75" customHeight="1">
+      <c r="E244" s="6" t="n"/>
+    </row>
+    <row r="245" ht="12.75" customHeight="1" s="5">
       <c r="A245" t="inlineStr">
         <is>
           <t>1FT610U-1</t>
@@ -7356,9 +7466,9 @@
           <t>res 4/6/8 smi</t>
         </is>
       </c>
-      <c r="E245" s="5" t="n"/>
-    </row>
-    <row r="246" ht="12.75" customHeight="1">
+      <c r="E245" s="6" t="n"/>
+    </row>
+    <row r="246" ht="12.75" customHeight="1" s="5">
       <c r="A246" t="inlineStr">
         <is>
           <t>1FT610T-1</t>
@@ -7369,9 +7479,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E246" s="5" t="n"/>
-    </row>
-    <row r="247" ht="12.75" customHeight="1">
+      <c r="E246" s="6" t="n"/>
+    </row>
+    <row r="247" ht="12.75" customHeight="1" s="5">
       <c r="A247" t="inlineStr">
         <is>
           <t>1FT610P-1</t>
@@ -7382,9 +7492,9 @@
           <t>res 2 smi p=1</t>
         </is>
       </c>
-      <c r="E247" s="5" t="n"/>
-    </row>
-    <row r="248" ht="12.75" customHeight="1">
+      <c r="E247" s="6" t="n"/>
+    </row>
+    <row r="248" ht="12.75" customHeight="1" s="5">
       <c r="A248" t="inlineStr">
         <is>
           <t>1FT610A-4</t>
@@ -7395,9 +7505,9 @@
           <t>ERN</t>
         </is>
       </c>
-      <c r="E248" s="5" t="n"/>
-    </row>
-    <row r="249" ht="12.75" customHeight="1">
+      <c r="E248" s="6" t="n"/>
+    </row>
+    <row r="249" ht="12.75" customHeight="1" s="5">
       <c r="A249" t="inlineStr">
         <is>
           <t>1FT610D-4</t>
@@ -7408,9 +7518,9 @@
           <t>ERN smi</t>
         </is>
       </c>
-      <c r="E249" s="5" t="n"/>
-    </row>
-    <row r="250" ht="12.75" customHeight="1">
+      <c r="E249" s="6" t="n"/>
+    </row>
+    <row r="250" ht="12.75" customHeight="1" s="5">
       <c r="A250" t="inlineStr">
         <is>
           <t>1FT610E-4</t>
@@ -7421,9 +7531,9 @@
           <t>EQN</t>
         </is>
       </c>
-      <c r="E250" s="5" t="n"/>
-    </row>
-    <row r="251" ht="12.75" customHeight="1">
+      <c r="E250" s="6" t="n"/>
+    </row>
+    <row r="251" ht="12.75" customHeight="1" s="5">
       <c r="A251" t="inlineStr">
         <is>
           <t>1FT610F-4</t>
@@ -7434,9 +7544,9 @@
           <t>EQN smi</t>
         </is>
       </c>
-      <c r="E251" s="5" t="n"/>
-    </row>
-    <row r="252" ht="12.75" customHeight="1">
+      <c r="E251" s="6" t="n"/>
+    </row>
+    <row r="252" ht="12.75" customHeight="1" s="5">
       <c r="A252" t="inlineStr">
         <is>
           <t>1FT610H-4</t>
@@ -7447,9 +7557,9 @@
           <t>EQN 1125</t>
         </is>
       </c>
-      <c r="E252" s="5" t="n"/>
-    </row>
-    <row r="253" ht="12.75" customHeight="1">
+      <c r="E252" s="6" t="n"/>
+    </row>
+    <row r="253" ht="12.75" customHeight="1" s="5">
       <c r="A253" t="inlineStr">
         <is>
           <t>1FT610L-4</t>
@@ -7460,9 +7570,9 @@
           <t>EQN 1125 smi</t>
         </is>
       </c>
-      <c r="E253" s="5" t="n"/>
-    </row>
-    <row r="254" ht="12.75" customHeight="1">
+      <c r="E253" s="6" t="n"/>
+    </row>
+    <row r="254" ht="12.75" customHeight="1" s="5">
       <c r="A254" t="inlineStr">
         <is>
           <t>1FT610S-4</t>
@@ -7473,9 +7583,9 @@
           <t>res 4/6/8</t>
         </is>
       </c>
-      <c r="E254" s="5" t="n"/>
-    </row>
-    <row r="255" ht="12.75" customHeight="1">
+      <c r="E254" s="6" t="n"/>
+    </row>
+    <row r="255" ht="12.75" customHeight="1" s="5">
       <c r="A255" t="inlineStr">
         <is>
           <t>1FT610U-4</t>
@@ -7486,9 +7596,9 @@
           <t>res 4/6/8 smi</t>
         </is>
       </c>
-      <c r="E255" s="5" t="n"/>
-    </row>
-    <row r="256" ht="12.75" customHeight="1">
+      <c r="E255" s="6" t="n"/>
+    </row>
+    <row r="256" ht="12.75" customHeight="1" s="5">
       <c r="A256" t="inlineStr">
         <is>
           <t>1FT610T-4</t>
@@ -7499,9 +7609,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E256" s="5" t="n"/>
-    </row>
-    <row r="257" ht="12.75" customHeight="1">
+      <c r="E256" s="6" t="n"/>
+    </row>
+    <row r="257" ht="12.75" customHeight="1" s="5">
       <c r="A257" t="inlineStr">
         <is>
           <t>1FT610P-4</t>
@@ -7512,9 +7622,9 @@
           <t>res 2 smi p=1</t>
         </is>
       </c>
-      <c r="E257" s="5" t="n"/>
-    </row>
-    <row r="258" ht="12.75" customHeight="1">
+      <c r="E257" s="6" t="n"/>
+    </row>
+    <row r="258" ht="12.75" customHeight="1" s="5">
       <c r="A258" t="inlineStr">
         <is>
           <t>1FT610A-6</t>
@@ -7525,9 +7635,9 @@
           <t>ERN</t>
         </is>
       </c>
-      <c r="E258" s="5" t="n"/>
-    </row>
-    <row r="259" ht="12.75" customHeight="1">
+      <c r="E258" s="6" t="n"/>
+    </row>
+    <row r="259" ht="12.75" customHeight="1" s="5">
       <c r="A259" t="inlineStr">
         <is>
           <t>1FT610D-6</t>
@@ -7538,9 +7648,9 @@
           <t>ERN smi</t>
         </is>
       </c>
-      <c r="E259" s="5" t="n"/>
-    </row>
-    <row r="260" ht="12.75" customHeight="1">
+      <c r="E259" s="6" t="n"/>
+    </row>
+    <row r="260" ht="12.75" customHeight="1" s="5">
       <c r="A260" t="inlineStr">
         <is>
           <t>1FT610E-6</t>
@@ -7551,9 +7661,9 @@
           <t>EQN</t>
         </is>
       </c>
-      <c r="E260" s="5" t="n"/>
-    </row>
-    <row r="261" ht="12.75" customHeight="1">
+      <c r="E260" s="6" t="n"/>
+    </row>
+    <row r="261" ht="12.75" customHeight="1" s="5">
       <c r="A261" t="inlineStr">
         <is>
           <t>1FT610F-6</t>
@@ -7564,9 +7674,9 @@
           <t>EQN smi</t>
         </is>
       </c>
-      <c r="E261" s="5" t="n"/>
-    </row>
-    <row r="262" ht="12.75" customHeight="1">
+      <c r="E261" s="6" t="n"/>
+    </row>
+    <row r="262" ht="12.75" customHeight="1" s="5">
       <c r="A262" t="inlineStr">
         <is>
           <t>1FT610H-6</t>
@@ -7577,9 +7687,9 @@
           <t>EQN 1125</t>
         </is>
       </c>
-      <c r="E262" s="5" t="n"/>
-    </row>
-    <row r="263" ht="12.75" customHeight="1">
+      <c r="E262" s="6" t="n"/>
+    </row>
+    <row r="263" ht="12.75" customHeight="1" s="5">
       <c r="A263" t="inlineStr">
         <is>
           <t>1FT610L-6</t>
@@ -7590,9 +7700,9 @@
           <t>EQN 1125 smi</t>
         </is>
       </c>
-      <c r="E263" s="5" t="n"/>
-    </row>
-    <row r="264" ht="12.75" customHeight="1">
+      <c r="E263" s="6" t="n"/>
+    </row>
+    <row r="264" ht="12.75" customHeight="1" s="5">
       <c r="A264" t="inlineStr">
         <is>
           <t>1FT610S-6</t>
@@ -7603,9 +7713,9 @@
           <t>res 4/6/8</t>
         </is>
       </c>
-      <c r="E264" s="5" t="n"/>
-    </row>
-    <row r="265" ht="12.75" customHeight="1">
+      <c r="E264" s="6" t="n"/>
+    </row>
+    <row r="265" ht="12.75" customHeight="1" s="5">
       <c r="A265" t="inlineStr">
         <is>
           <t>1FT610U-6</t>
@@ -7616,9 +7726,9 @@
           <t>res 4/6/8 smi</t>
         </is>
       </c>
-      <c r="E265" s="5" t="n"/>
-    </row>
-    <row r="266" ht="12.75" customHeight="1">
+      <c r="E265" s="6" t="n"/>
+    </row>
+    <row r="266" ht="12.75" customHeight="1" s="5">
       <c r="A266" t="inlineStr">
         <is>
           <t>1FT610T-6</t>
@@ -7629,9 +7739,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E266" s="5" t="n"/>
-    </row>
-    <row r="267" ht="12.75" customHeight="1">
+      <c r="E266" s="6" t="n"/>
+    </row>
+    <row r="267" ht="12.75" customHeight="1" s="5">
       <c r="A267" t="inlineStr">
         <is>
           <t>1FT610P-6</t>
@@ -7642,9 +7752,9 @@
           <t>res 2 smi p=1</t>
         </is>
       </c>
-      <c r="E267" s="5" t="n"/>
-    </row>
-    <row r="268" ht="12.75" customHeight="1">
+      <c r="E267" s="6" t="n"/>
+    </row>
+    <row r="268" ht="12.75" customHeight="1" s="5">
       <c r="A268" t="inlineStr">
         <is>
           <t>1FT610A-8</t>
@@ -7655,9 +7765,9 @@
           <t>ERN</t>
         </is>
       </c>
-      <c r="E268" s="5" t="n"/>
-    </row>
-    <row r="269" ht="12.75" customHeight="1">
+      <c r="E268" s="6" t="n"/>
+    </row>
+    <row r="269" ht="12.75" customHeight="1" s="5">
       <c r="A269" t="inlineStr">
         <is>
           <t>1FT610D-8</t>
@@ -7668,9 +7778,9 @@
           <t>ERN smi</t>
         </is>
       </c>
-      <c r="E269" s="5" t="n"/>
-    </row>
-    <row r="270" ht="12.75" customHeight="1">
+      <c r="E269" s="6" t="n"/>
+    </row>
+    <row r="270" ht="12.75" customHeight="1" s="5">
       <c r="A270" t="inlineStr">
         <is>
           <t>1FT610E-8</t>
@@ -7681,9 +7791,9 @@
           <t>EQN</t>
         </is>
       </c>
-      <c r="E270" s="5" t="n"/>
-    </row>
-    <row r="271" ht="12.75" customHeight="1">
+      <c r="E270" s="6" t="n"/>
+    </row>
+    <row r="271" ht="12.75" customHeight="1" s="5">
       <c r="A271" t="inlineStr">
         <is>
           <t>1FT610F-8</t>
@@ -7694,9 +7804,9 @@
           <t>EQN smi</t>
         </is>
       </c>
-      <c r="E271" s="5" t="n"/>
-    </row>
-    <row r="272" ht="12.75" customHeight="1">
+      <c r="E271" s="6" t="n"/>
+    </row>
+    <row r="272" ht="12.75" customHeight="1" s="5">
       <c r="A272" t="inlineStr">
         <is>
           <t>1FT610H-8</t>
@@ -7707,9 +7817,9 @@
           <t>EQN 1125</t>
         </is>
       </c>
-      <c r="E272" s="5" t="n"/>
-    </row>
-    <row r="273" ht="12.75" customHeight="1">
+      <c r="E272" s="6" t="n"/>
+    </row>
+    <row r="273" ht="12.75" customHeight="1" s="5">
       <c r="A273" t="inlineStr">
         <is>
           <t>1FT610L-8</t>
@@ -7720,9 +7830,9 @@
           <t>EQN 1125 smi</t>
         </is>
       </c>
-      <c r="E273" s="5" t="n"/>
-    </row>
-    <row r="274" ht="12.75" customHeight="1">
+      <c r="E273" s="6" t="n"/>
+    </row>
+    <row r="274" ht="12.75" customHeight="1" s="5">
       <c r="A274" t="inlineStr">
         <is>
           <t>1FT610S-8</t>
@@ -7733,9 +7843,9 @@
           <t>res 4/6/8</t>
         </is>
       </c>
-      <c r="E274" s="5" t="n"/>
-    </row>
-    <row r="275" ht="12.75" customHeight="1">
+      <c r="E274" s="6" t="n"/>
+    </row>
+    <row r="275" ht="12.75" customHeight="1" s="5">
       <c r="A275" t="inlineStr">
         <is>
           <t>1FT610U-8</t>
@@ -7746,9 +7856,9 @@
           <t>res 4/6/8 smi</t>
         </is>
       </c>
-      <c r="E275" s="5" t="n"/>
-    </row>
-    <row r="276" ht="12.75" customHeight="1">
+      <c r="E275" s="6" t="n"/>
+    </row>
+    <row r="276" ht="12.75" customHeight="1" s="5">
       <c r="A276" t="inlineStr">
         <is>
           <t>1FT610T-8</t>
@@ -7759,9 +7869,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E276" s="5" t="n"/>
-    </row>
-    <row r="277" ht="12.75" customHeight="1">
+      <c r="E276" s="6" t="n"/>
+    </row>
+    <row r="277" ht="12.75" customHeight="1" s="5">
       <c r="A277" t="inlineStr">
         <is>
           <t>1FT610P-8</t>
@@ -7772,9 +7882,9 @@
           <t>res 2 smi p=1</t>
         </is>
       </c>
-      <c r="E277" s="5" t="n"/>
-    </row>
-    <row r="278" ht="12.75" customHeight="1">
+      <c r="E277" s="6" t="n"/>
+    </row>
+    <row r="278" ht="12.75" customHeight="1" s="5">
       <c r="A278" t="inlineStr">
         <is>
           <t>1FK603A-6</t>
@@ -7785,9 +7895,9 @@
           <t>ERN</t>
         </is>
       </c>
-      <c r="E278" s="5" t="n"/>
-    </row>
-    <row r="279" ht="12.75" customHeight="1">
+      <c r="E278" s="6" t="n"/>
+    </row>
+    <row r="279" ht="12.75" customHeight="1" s="5">
       <c r="A279" t="inlineStr">
         <is>
           <t>1FK603E-6</t>
@@ -7798,9 +7908,9 @@
           <t>EQN</t>
         </is>
       </c>
-      <c r="E279" s="5" t="n"/>
-    </row>
-    <row r="280" ht="12.75" customHeight="1">
+      <c r="E279" s="6" t="n"/>
+    </row>
+    <row r="280" ht="12.75" customHeight="1" s="5">
       <c r="A280" t="inlineStr">
         <is>
           <t>1FK603Q-6</t>
@@ -7811,9 +7921,9 @@
           <t>EQI</t>
         </is>
       </c>
-      <c r="E280" s="5" t="n"/>
-    </row>
-    <row r="281" ht="12.75" customHeight="1">
+      <c r="E280" s="6" t="n"/>
+    </row>
+    <row r="281" ht="12.75" customHeight="1" s="5">
       <c r="A281" t="inlineStr">
         <is>
           <t>1FK603M-6</t>
@@ -7824,9 +7934,9 @@
           <t>Roml</t>
         </is>
       </c>
-      <c r="E281" s="5" t="n"/>
-    </row>
-    <row r="282" ht="12.75" customHeight="1">
+      <c r="E281" s="6" t="n"/>
+    </row>
+    <row r="282" ht="12.75" customHeight="1" s="5">
       <c r="A282" t="inlineStr">
         <is>
           <t>1FK603N-6</t>
@@ -7837,9 +7947,9 @@
           <t>Roml repl.</t>
         </is>
       </c>
-      <c r="E282" s="5" t="n"/>
-    </row>
-    <row r="283" ht="12.75" customHeight="1">
+      <c r="E282" s="6" t="n"/>
+    </row>
+    <row r="283" ht="12.75" customHeight="1" s="5">
       <c r="A283" t="inlineStr">
         <is>
           <t>1FK603S-6</t>
@@ -7850,9 +7960,9 @@
           <t>res 6/8</t>
         </is>
       </c>
-      <c r="E283" s="5" t="n"/>
-    </row>
-    <row r="284" ht="12.75" customHeight="1">
+      <c r="E283" s="6" t="n"/>
+    </row>
+    <row r="284" ht="12.75" customHeight="1" s="5">
       <c r="A284" t="inlineStr">
         <is>
           <t>1FK603T-6</t>
@@ -7863,9 +7973,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E284" s="5" t="n"/>
-    </row>
-    <row r="285" ht="12.75" customHeight="1">
+      <c r="E284" s="6" t="n"/>
+    </row>
+    <row r="285" ht="12.75" customHeight="1" s="5">
       <c r="A285" t="inlineStr">
         <is>
           <t>1FK603A-7</t>
@@ -7876,9 +7986,9 @@
           <t>ERN</t>
         </is>
       </c>
-      <c r="E285" s="5" t="n"/>
-    </row>
-    <row r="286" ht="12.75" customHeight="1">
+      <c r="E285" s="6" t="n"/>
+    </row>
+    <row r="286" ht="12.75" customHeight="1" s="5">
       <c r="A286" t="inlineStr">
         <is>
           <t>1FK603E-7</t>
@@ -7889,9 +7999,9 @@
           <t>EQN</t>
         </is>
       </c>
-      <c r="E286" s="5" t="n"/>
-    </row>
-    <row r="287" ht="12.75" customHeight="1">
+      <c r="E286" s="6" t="n"/>
+    </row>
+    <row r="287" ht="12.75" customHeight="1" s="5">
       <c r="A287" t="inlineStr">
         <is>
           <t>1FK603Q-7</t>
@@ -7902,9 +8012,9 @@
           <t>EQI</t>
         </is>
       </c>
-      <c r="E287" s="5" t="n"/>
-    </row>
-    <row r="288" ht="12.75" customHeight="1">
+      <c r="E287" s="6" t="n"/>
+    </row>
+    <row r="288" ht="12.75" customHeight="1" s="5">
       <c r="A288" t="inlineStr">
         <is>
           <t>1FK603M-7</t>
@@ -7915,9 +8025,9 @@
           <t>Roml</t>
         </is>
       </c>
-      <c r="E288" s="5" t="n"/>
-    </row>
-    <row r="289" ht="12.75" customHeight="1">
+      <c r="E288" s="6" t="n"/>
+    </row>
+    <row r="289" ht="12.75" customHeight="1" s="5">
       <c r="A289" t="inlineStr">
         <is>
           <t>1FK603N-7</t>
@@ -7928,9 +8038,9 @@
           <t>Roml repl.</t>
         </is>
       </c>
-      <c r="E289" s="5" t="n"/>
-    </row>
-    <row r="290" ht="12.75" customHeight="1">
+      <c r="E289" s="6" t="n"/>
+    </row>
+    <row r="290" ht="12.75" customHeight="1" s="5">
       <c r="A290" t="inlineStr">
         <is>
           <t>1FK603S-7</t>
@@ -7941,9 +8051,9 @@
           <t>res 6/8</t>
         </is>
       </c>
-      <c r="E290" s="5" t="n"/>
-    </row>
-    <row r="291" ht="12.75" customHeight="1">
+      <c r="E290" s="6" t="n"/>
+    </row>
+    <row r="291" ht="12.75" customHeight="1" s="5">
       <c r="A291" t="inlineStr">
         <is>
           <t>1FK603T-7</t>
@@ -7954,9 +8064,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E291" s="5" t="n"/>
-    </row>
-    <row r="292" ht="12.75" customHeight="1">
+      <c r="E291" s="6" t="n"/>
+    </row>
+    <row r="292" ht="12.75" customHeight="1" s="5">
       <c r="A292" t="inlineStr">
         <is>
           <t>1FK603A-8</t>
@@ -7967,9 +8077,9 @@
           <t>ERN</t>
         </is>
       </c>
-      <c r="E292" s="5" t="n"/>
-    </row>
-    <row r="293" ht="12.75" customHeight="1">
+      <c r="E292" s="6" t="n"/>
+    </row>
+    <row r="293" ht="12.75" customHeight="1" s="5">
       <c r="A293" t="inlineStr">
         <is>
           <t>1FK603E-8</t>
@@ -7980,9 +8090,9 @@
           <t>EQN</t>
         </is>
       </c>
-      <c r="E293" s="5" t="n"/>
-    </row>
-    <row r="294" ht="12.75" customHeight="1">
+      <c r="E293" s="6" t="n"/>
+    </row>
+    <row r="294" ht="12.75" customHeight="1" s="5">
       <c r="A294" t="inlineStr">
         <is>
           <t>1FK603Q-8</t>
@@ -7993,9 +8103,9 @@
           <t>EQI</t>
         </is>
       </c>
-      <c r="E294" s="5" t="n"/>
-    </row>
-    <row r="295" ht="12.75" customHeight="1">
+      <c r="E294" s="6" t="n"/>
+    </row>
+    <row r="295" ht="12.75" customHeight="1" s="5">
       <c r="A295" t="inlineStr">
         <is>
           <t>1FK603M-8</t>
@@ -8006,9 +8116,9 @@
           <t>Roml</t>
         </is>
       </c>
-      <c r="E295" s="5" t="n"/>
-    </row>
-    <row r="296" ht="12.75" customHeight="1">
+      <c r="E295" s="6" t="n"/>
+    </row>
+    <row r="296" ht="12.75" customHeight="1" s="5">
       <c r="A296" t="inlineStr">
         <is>
           <t>1FK603N-8</t>
@@ -8019,9 +8129,9 @@
           <t>Roml repl.</t>
         </is>
       </c>
-      <c r="E296" s="5" t="n"/>
-    </row>
-    <row r="297" ht="12.75" customHeight="1">
+      <c r="E296" s="6" t="n"/>
+    </row>
+    <row r="297" ht="12.75" customHeight="1" s="5">
       <c r="A297" t="inlineStr">
         <is>
           <t>1FK603S-8</t>
@@ -8032,9 +8142,9 @@
           <t>res 6/8</t>
         </is>
       </c>
-      <c r="E297" s="5" t="n"/>
-    </row>
-    <row r="298" ht="12.75" customHeight="1">
+      <c r="E297" s="6" t="n"/>
+    </row>
+    <row r="298" ht="12.75" customHeight="1" s="5">
       <c r="A298" t="inlineStr">
         <is>
           <t>1FK603T-8</t>
@@ -8045,9 +8155,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E298" s="5" t="n"/>
-    </row>
-    <row r="299" ht="12.75" customHeight="1">
+      <c r="E298" s="6" t="n"/>
+    </row>
+    <row r="299" ht="12.75" customHeight="1" s="5">
       <c r="A299" t="inlineStr">
         <is>
           <t>1FK604A-6</t>
@@ -8058,9 +8168,9 @@
           <t>ERN</t>
         </is>
       </c>
-      <c r="E299" s="5" t="n"/>
-    </row>
-    <row r="300" ht="12.75" customHeight="1">
+      <c r="E299" s="6" t="n"/>
+    </row>
+    <row r="300" ht="12.75" customHeight="1" s="5">
       <c r="A300" t="inlineStr">
         <is>
           <t>1FK604E-6</t>
@@ -8071,9 +8181,9 @@
           <t>EQN</t>
         </is>
       </c>
-      <c r="E300" s="5" t="n"/>
-    </row>
-    <row r="301" ht="12.75" customHeight="1">
+      <c r="E300" s="6" t="n"/>
+    </row>
+    <row r="301" ht="12.75" customHeight="1" s="5">
       <c r="A301" t="inlineStr">
         <is>
           <t>1FK604Q-6</t>
@@ -8084,9 +8194,9 @@
           <t>EQI</t>
         </is>
       </c>
-      <c r="E301" s="5" t="n"/>
-    </row>
-    <row r="302" ht="12.75" customHeight="1">
+      <c r="E301" s="6" t="n"/>
+    </row>
+    <row r="302" ht="12.75" customHeight="1" s="5">
       <c r="A302" t="inlineStr">
         <is>
           <t>1FK604M-6</t>
@@ -8097,9 +8207,9 @@
           <t>Roml</t>
         </is>
       </c>
-      <c r="E302" s="5" t="n"/>
-    </row>
-    <row r="303" ht="12.75" customHeight="1">
+      <c r="E302" s="6" t="n"/>
+    </row>
+    <row r="303" ht="12.75" customHeight="1" s="5">
       <c r="A303" t="inlineStr">
         <is>
           <t>1FK604N-6</t>
@@ -8110,9 +8220,9 @@
           <t>Roml repl.</t>
         </is>
       </c>
-      <c r="E303" s="5" t="n"/>
-    </row>
-    <row r="304" ht="12.75" customHeight="1">
+      <c r="E303" s="6" t="n"/>
+    </row>
+    <row r="304" ht="12.75" customHeight="1" s="5">
       <c r="A304" t="inlineStr">
         <is>
           <t>1FK604S-6</t>
@@ -8123,9 +8233,9 @@
           <t>res 6/8</t>
         </is>
       </c>
-      <c r="E304" s="5" t="n"/>
-    </row>
-    <row r="305" ht="12.75" customHeight="1">
+      <c r="E304" s="6" t="n"/>
+    </row>
+    <row r="305" ht="12.75" customHeight="1" s="5">
       <c r="A305" t="inlineStr">
         <is>
           <t>1FK604T-6</t>
@@ -8136,9 +8246,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E305" s="5" t="n"/>
-    </row>
-    <row r="306" ht="12.75" customHeight="1">
+      <c r="E305" s="6" t="n"/>
+    </row>
+    <row r="306" ht="12.75" customHeight="1" s="5">
       <c r="A306" t="inlineStr">
         <is>
           <t>1FK604A-7</t>
@@ -8149,9 +8259,9 @@
           <t>ERN</t>
         </is>
       </c>
-      <c r="E306" s="5" t="n"/>
-    </row>
-    <row r="307" ht="12.75" customHeight="1">
+      <c r="E306" s="6" t="n"/>
+    </row>
+    <row r="307" ht="12.75" customHeight="1" s="5">
       <c r="A307" t="inlineStr">
         <is>
           <t>1FK604E-7</t>
@@ -8162,9 +8272,9 @@
           <t>EQN</t>
         </is>
       </c>
-      <c r="E307" s="5" t="n"/>
-    </row>
-    <row r="308" ht="12.75" customHeight="1">
+      <c r="E307" s="6" t="n"/>
+    </row>
+    <row r="308" ht="12.75" customHeight="1" s="5">
       <c r="A308" t="inlineStr">
         <is>
           <t>1FK604Q-7</t>
@@ -8175,9 +8285,9 @@
           <t>EQI</t>
         </is>
       </c>
-      <c r="E308" s="5" t="n"/>
-    </row>
-    <row r="309" ht="12.75" customHeight="1">
+      <c r="E308" s="6" t="n"/>
+    </row>
+    <row r="309" ht="12.75" customHeight="1" s="5">
       <c r="A309" t="inlineStr">
         <is>
           <t>1FK604M-7</t>
@@ -8188,9 +8298,9 @@
           <t>Roml</t>
         </is>
       </c>
-      <c r="E309" s="5" t="n"/>
-    </row>
-    <row r="310" ht="12.75" customHeight="1">
+      <c r="E309" s="6" t="n"/>
+    </row>
+    <row r="310" ht="12.75" customHeight="1" s="5">
       <c r="A310" t="inlineStr">
         <is>
           <t>1FK604N-7</t>
@@ -8201,9 +8311,9 @@
           <t>Roml repl.</t>
         </is>
       </c>
-      <c r="E310" s="5" t="n"/>
-    </row>
-    <row r="311" ht="12.75" customHeight="1">
+      <c r="E310" s="6" t="n"/>
+    </row>
+    <row r="311" ht="12.75" customHeight="1" s="5">
       <c r="A311" t="inlineStr">
         <is>
           <t>1FK604S-7</t>
@@ -8214,9 +8324,9 @@
           <t>res 6/8</t>
         </is>
       </c>
-      <c r="E311" s="5" t="n"/>
-    </row>
-    <row r="312" ht="12.75" customHeight="1">
+      <c r="E311" s="6" t="n"/>
+    </row>
+    <row r="312" ht="12.75" customHeight="1" s="5">
       <c r="A312" t="inlineStr">
         <is>
           <t>1FK604T-7</t>
@@ -8227,9 +8337,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E312" s="5" t="n"/>
-    </row>
-    <row r="313" ht="12.75" customHeight="1">
+      <c r="E312" s="6" t="n"/>
+    </row>
+    <row r="313" ht="12.75" customHeight="1" s="5">
       <c r="A313" t="inlineStr">
         <is>
           <t>1FK604A-8</t>
@@ -8240,9 +8350,9 @@
           <t>ERN</t>
         </is>
       </c>
-      <c r="E313" s="5" t="n"/>
-    </row>
-    <row r="314" ht="12.75" customHeight="1">
+      <c r="E313" s="6" t="n"/>
+    </row>
+    <row r="314" ht="12.75" customHeight="1" s="5">
       <c r="A314" t="inlineStr">
         <is>
           <t>1FK604E-8</t>
@@ -8253,9 +8363,9 @@
           <t>EQN</t>
         </is>
       </c>
-      <c r="E314" s="5" t="n"/>
-    </row>
-    <row r="315" ht="12.75" customHeight="1">
+      <c r="E314" s="6" t="n"/>
+    </row>
+    <row r="315" ht="12.75" customHeight="1" s="5">
       <c r="A315" t="inlineStr">
         <is>
           <t>1FK604Q-8</t>
@@ -8266,9 +8376,9 @@
           <t>EQI</t>
         </is>
       </c>
-      <c r="E315" s="5" t="n"/>
-    </row>
-    <row r="316" ht="12.75" customHeight="1">
+      <c r="E315" s="6" t="n"/>
+    </row>
+    <row r="316" ht="12.75" customHeight="1" s="5">
       <c r="A316" t="inlineStr">
         <is>
           <t>1FK604M-8</t>
@@ -8279,9 +8389,9 @@
           <t>Roml</t>
         </is>
       </c>
-      <c r="E316" s="5" t="n"/>
-    </row>
-    <row r="317" ht="12.75" customHeight="1">
+      <c r="E316" s="6" t="n"/>
+    </row>
+    <row r="317" ht="12.75" customHeight="1" s="5">
       <c r="A317" t="inlineStr">
         <is>
           <t>1FK604N-8</t>
@@ -8292,9 +8402,9 @@
           <t>Roml repl.</t>
         </is>
       </c>
-      <c r="E317" s="5" t="n"/>
-    </row>
-    <row r="318" ht="12.75" customHeight="1">
+      <c r="E317" s="6" t="n"/>
+    </row>
+    <row r="318" ht="12.75" customHeight="1" s="5">
       <c r="A318" t="inlineStr">
         <is>
           <t>1FK604S-8</t>
@@ -8305,9 +8415,9 @@
           <t>res 6/8</t>
         </is>
       </c>
-      <c r="E318" s="5" t="n"/>
-    </row>
-    <row r="319" ht="12.75" customHeight="1">
+      <c r="E318" s="6" t="n"/>
+    </row>
+    <row r="319" ht="12.75" customHeight="1" s="5">
       <c r="A319" t="inlineStr">
         <is>
           <t>1FK604T-8</t>
@@ -8318,9 +8428,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E319" s="5" t="n"/>
-    </row>
-    <row r="320" ht="12.75" customHeight="1">
+      <c r="E319" s="6" t="n"/>
+    </row>
+    <row r="320" ht="12.75" customHeight="1" s="5">
       <c r="A320" t="inlineStr">
         <is>
           <t>1FK606A-6</t>
@@ -8331,9 +8441,9 @@
           <t>ERN</t>
         </is>
       </c>
-      <c r="E320" s="5" t="n"/>
-    </row>
-    <row r="321" ht="12.75" customHeight="1">
+      <c r="E320" s="6" t="n"/>
+    </row>
+    <row r="321" ht="12.75" customHeight="1" s="5">
       <c r="A321" t="inlineStr">
         <is>
           <t>1FK606E-6</t>
@@ -8344,9 +8454,9 @@
           <t>EQN</t>
         </is>
       </c>
-      <c r="E321" s="5" t="n"/>
-    </row>
-    <row r="322" ht="12.75" customHeight="1">
+      <c r="E321" s="6" t="n"/>
+    </row>
+    <row r="322" ht="12.75" customHeight="1" s="5">
       <c r="A322" t="inlineStr">
         <is>
           <t>1FK606Q-6</t>
@@ -8357,9 +8467,9 @@
           <t>EQI</t>
         </is>
       </c>
-      <c r="E322" s="5" t="n"/>
-    </row>
-    <row r="323" ht="12.75" customHeight="1">
+      <c r="E322" s="6" t="n"/>
+    </row>
+    <row r="323" ht="12.75" customHeight="1" s="5">
       <c r="A323" t="inlineStr">
         <is>
           <t>1FK606M-6</t>
@@ -8370,9 +8480,9 @@
           <t>Roml</t>
         </is>
       </c>
-      <c r="E323" s="5" t="n"/>
-    </row>
-    <row r="324" ht="12.75" customHeight="1">
+      <c r="E323" s="6" t="n"/>
+    </row>
+    <row r="324" ht="12.75" customHeight="1" s="5">
       <c r="A324" t="inlineStr">
         <is>
           <t>1FK606N-6</t>
@@ -8383,9 +8493,9 @@
           <t>Roml repl.</t>
         </is>
       </c>
-      <c r="E324" s="5" t="n"/>
-    </row>
-    <row r="325" ht="12.75" customHeight="1">
+      <c r="E324" s="6" t="n"/>
+    </row>
+    <row r="325" ht="12.75" customHeight="1" s="5">
       <c r="A325" t="inlineStr">
         <is>
           <t>1FK606S-6</t>
@@ -8396,9 +8506,9 @@
           <t>res 6/8</t>
         </is>
       </c>
-      <c r="E325" s="5" t="n"/>
-    </row>
-    <row r="326" ht="12.75" customHeight="1">
+      <c r="E325" s="6" t="n"/>
+    </row>
+    <row r="326" ht="12.75" customHeight="1" s="5">
       <c r="A326" t="inlineStr">
         <is>
           <t>1FK606T-6</t>
@@ -8409,9 +8519,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E326" s="5" t="n"/>
-    </row>
-    <row r="327" ht="12.75" customHeight="1">
+      <c r="E326" s="6" t="n"/>
+    </row>
+    <row r="327" ht="12.75" customHeight="1" s="5">
       <c r="A327" t="inlineStr">
         <is>
           <t>1FK606A-7</t>
@@ -8422,9 +8532,9 @@
           <t>ERN</t>
         </is>
       </c>
-      <c r="E327" s="5" t="n"/>
-    </row>
-    <row r="328" ht="12.75" customHeight="1">
+      <c r="E327" s="6" t="n"/>
+    </row>
+    <row r="328" ht="12.75" customHeight="1" s="5">
       <c r="A328" t="inlineStr">
         <is>
           <t>1FK606E-7</t>
@@ -8435,9 +8545,9 @@
           <t>EQN</t>
         </is>
       </c>
-      <c r="E328" s="5" t="n"/>
-    </row>
-    <row r="329" ht="12.75" customHeight="1">
+      <c r="E328" s="6" t="n"/>
+    </row>
+    <row r="329" ht="12.75" customHeight="1" s="5">
       <c r="A329" t="inlineStr">
         <is>
           <t>1FK606Q-7</t>
@@ -8448,9 +8558,9 @@
           <t>EQI</t>
         </is>
       </c>
-      <c r="E329" s="5" t="n"/>
-    </row>
-    <row r="330" ht="12.75" customHeight="1">
+      <c r="E329" s="6" t="n"/>
+    </row>
+    <row r="330" ht="12.75" customHeight="1" s="5">
       <c r="A330" t="inlineStr">
         <is>
           <t>1FK606M-7</t>
@@ -8461,9 +8571,9 @@
           <t>Roml</t>
         </is>
       </c>
-      <c r="E330" s="5" t="n"/>
-    </row>
-    <row r="331" ht="12.75" customHeight="1">
+      <c r="E330" s="6" t="n"/>
+    </row>
+    <row r="331" ht="12.75" customHeight="1" s="5">
       <c r="A331" t="inlineStr">
         <is>
           <t>1FK606N-7</t>
@@ -8474,9 +8584,9 @@
           <t>Roml repl.</t>
         </is>
       </c>
-      <c r="E331" s="5" t="n"/>
-    </row>
-    <row r="332" ht="12.75" customHeight="1">
+      <c r="E331" s="6" t="n"/>
+    </row>
+    <row r="332" ht="12.75" customHeight="1" s="5">
       <c r="A332" t="inlineStr">
         <is>
           <t>1FK606S-7</t>
@@ -8487,9 +8597,9 @@
           <t>res 6/8</t>
         </is>
       </c>
-      <c r="E332" s="5" t="n"/>
-    </row>
-    <row r="333" ht="12.75" customHeight="1">
+      <c r="E332" s="6" t="n"/>
+    </row>
+    <row r="333" ht="12.75" customHeight="1" s="5">
       <c r="A333" t="inlineStr">
         <is>
           <t>1FK606T-7</t>
@@ -8500,9 +8610,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E333" s="5" t="n"/>
-    </row>
-    <row r="334" ht="12.75" customHeight="1">
+      <c r="E333" s="6" t="n"/>
+    </row>
+    <row r="334" ht="12.75" customHeight="1" s="5">
       <c r="A334" t="inlineStr">
         <is>
           <t>1FK606A-8</t>
@@ -8513,9 +8623,9 @@
           <t>ERN</t>
         </is>
       </c>
-      <c r="E334" s="5" t="n"/>
-    </row>
-    <row r="335" ht="12.75" customHeight="1">
+      <c r="E334" s="6" t="n"/>
+    </row>
+    <row r="335" ht="12.75" customHeight="1" s="5">
       <c r="A335" t="inlineStr">
         <is>
           <t>1FK606E-8</t>
@@ -8526,9 +8636,9 @@
           <t>EQN</t>
         </is>
       </c>
-      <c r="E335" s="5" t="n"/>
-    </row>
-    <row r="336" ht="12.75" customHeight="1">
+      <c r="E335" s="6" t="n"/>
+    </row>
+    <row r="336" ht="12.75" customHeight="1" s="5">
       <c r="A336" t="inlineStr">
         <is>
           <t>1FK606Q-8</t>
@@ -8539,9 +8649,9 @@
           <t>EQI</t>
         </is>
       </c>
-      <c r="E336" s="5" t="n"/>
-    </row>
-    <row r="337" ht="12.75" customHeight="1">
+      <c r="E336" s="6" t="n"/>
+    </row>
+    <row r="337" ht="12.75" customHeight="1" s="5">
       <c r="A337" t="inlineStr">
         <is>
           <t>1FK606M-8</t>
@@ -8552,9 +8662,9 @@
           <t>Roml</t>
         </is>
       </c>
-      <c r="E337" s="5" t="n"/>
-    </row>
-    <row r="338" ht="12.75" customHeight="1">
+      <c r="E337" s="6" t="n"/>
+    </row>
+    <row r="338" ht="12.75" customHeight="1" s="5">
       <c r="A338" t="inlineStr">
         <is>
           <t>1FK606N-8</t>
@@ -8565,9 +8675,9 @@
           <t>Roml repl.</t>
         </is>
       </c>
-      <c r="E338" s="5" t="n"/>
-    </row>
-    <row r="339" ht="12.75" customHeight="1">
+      <c r="E338" s="6" t="n"/>
+    </row>
+    <row r="339" ht="12.75" customHeight="1" s="5">
       <c r="A339" t="inlineStr">
         <is>
           <t>1FK606S-8</t>
@@ -8578,9 +8688,9 @@
           <t>res 6/8</t>
         </is>
       </c>
-      <c r="E339" s="5" t="n"/>
-    </row>
-    <row r="340" ht="12.75" customHeight="1">
+      <c r="E339" s="6" t="n"/>
+    </row>
+    <row r="340" ht="12.75" customHeight="1" s="5">
       <c r="A340" t="inlineStr">
         <is>
           <t>1FK606T-8</t>
@@ -8591,9 +8701,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E340" s="5" t="n"/>
-    </row>
-    <row r="341" ht="12.75" customHeight="1">
+      <c r="E340" s="6" t="n"/>
+    </row>
+    <row r="341" ht="12.75" customHeight="1" s="5">
       <c r="A341" t="inlineStr">
         <is>
           <t>1FK608A-6</t>
@@ -8604,9 +8714,9 @@
           <t>ERN</t>
         </is>
       </c>
-      <c r="E341" s="5" t="n"/>
-    </row>
-    <row r="342" ht="12.75" customHeight="1">
+      <c r="E341" s="6" t="n"/>
+    </row>
+    <row r="342" ht="12.75" customHeight="1" s="5">
       <c r="A342" t="inlineStr">
         <is>
           <t>1FK608E-6</t>
@@ -8617,9 +8727,9 @@
           <t>EQN</t>
         </is>
       </c>
-      <c r="E342" s="5" t="n"/>
-    </row>
-    <row r="343" ht="12.75" customHeight="1">
+      <c r="E342" s="6" t="n"/>
+    </row>
+    <row r="343" ht="12.75" customHeight="1" s="5">
       <c r="A343" t="inlineStr">
         <is>
           <t>1FK608Q-6</t>
@@ -8630,9 +8740,9 @@
           <t>EQI</t>
         </is>
       </c>
-      <c r="E343" s="5" t="n"/>
-    </row>
-    <row r="344" ht="12.75" customHeight="1">
+      <c r="E343" s="6" t="n"/>
+    </row>
+    <row r="344" ht="12.75" customHeight="1" s="5">
       <c r="A344" t="inlineStr">
         <is>
           <t>1FK608M-6</t>
@@ -8643,9 +8753,9 @@
           <t>Roml</t>
         </is>
       </c>
-      <c r="E344" s="5" t="n"/>
-    </row>
-    <row r="345" ht="12.75" customHeight="1">
+      <c r="E344" s="6" t="n"/>
+    </row>
+    <row r="345" ht="12.75" customHeight="1" s="5">
       <c r="A345" t="inlineStr">
         <is>
           <t>1FK608N-6</t>
@@ -8656,9 +8766,9 @@
           <t>Roml repl.</t>
         </is>
       </c>
-      <c r="E345" s="5" t="n"/>
-    </row>
-    <row r="346" ht="12.75" customHeight="1">
+      <c r="E345" s="6" t="n"/>
+    </row>
+    <row r="346" ht="12.75" customHeight="1" s="5">
       <c r="A346" t="inlineStr">
         <is>
           <t>1FK608S-6</t>
@@ -8669,9 +8779,9 @@
           <t>res 6/8</t>
         </is>
       </c>
-      <c r="E346" s="5" t="n"/>
-    </row>
-    <row r="347" ht="12.75" customHeight="1">
+      <c r="E346" s="6" t="n"/>
+    </row>
+    <row r="347" ht="12.75" customHeight="1" s="5">
       <c r="A347" t="inlineStr">
         <is>
           <t>1FK608T-6</t>
@@ -8682,9 +8792,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E347" s="5" t="n"/>
-    </row>
-    <row r="348" ht="12.75" customHeight="1">
+      <c r="E347" s="6" t="n"/>
+    </row>
+    <row r="348" ht="12.75" customHeight="1" s="5">
       <c r="A348" t="inlineStr">
         <is>
           <t>1FK608A-7</t>
@@ -8695,9 +8805,9 @@
           <t>ERN</t>
         </is>
       </c>
-      <c r="E348" s="5" t="n"/>
-    </row>
-    <row r="349" ht="12.75" customHeight="1">
+      <c r="E348" s="6" t="n"/>
+    </row>
+    <row r="349" ht="12.75" customHeight="1" s="5">
       <c r="A349" t="inlineStr">
         <is>
           <t>1FK608E-7</t>
@@ -8708,9 +8818,9 @@
           <t>EQN</t>
         </is>
       </c>
-      <c r="E349" s="5" t="n"/>
-    </row>
-    <row r="350" ht="12.75" customHeight="1">
+      <c r="E349" s="6" t="n"/>
+    </row>
+    <row r="350" ht="12.75" customHeight="1" s="5">
       <c r="A350" t="inlineStr">
         <is>
           <t>1FK608Q-7</t>
@@ -8721,9 +8831,9 @@
           <t>EQI</t>
         </is>
       </c>
-      <c r="E350" s="5" t="n"/>
-    </row>
-    <row r="351" ht="12.75" customHeight="1">
+      <c r="E350" s="6" t="n"/>
+    </row>
+    <row r="351" ht="12.75" customHeight="1" s="5">
       <c r="A351" t="inlineStr">
         <is>
           <t>1FK608M-7</t>
@@ -8734,9 +8844,9 @@
           <t>Roml</t>
         </is>
       </c>
-      <c r="E351" s="5" t="n"/>
-    </row>
-    <row r="352" ht="12.75" customHeight="1">
+      <c r="E351" s="6" t="n"/>
+    </row>
+    <row r="352" ht="12.75" customHeight="1" s="5">
       <c r="A352" t="inlineStr">
         <is>
           <t>1FK608N-7</t>
@@ -8747,9 +8857,9 @@
           <t>Roml repl.</t>
         </is>
       </c>
-      <c r="E352" s="5" t="n"/>
-    </row>
-    <row r="353" ht="12.75" customHeight="1">
+      <c r="E352" s="6" t="n"/>
+    </row>
+    <row r="353" ht="12.75" customHeight="1" s="5">
       <c r="A353" t="inlineStr">
         <is>
           <t>1FK608S-7</t>
@@ -8760,9 +8870,9 @@
           <t>res 6/8</t>
         </is>
       </c>
-      <c r="E353" s="5" t="n"/>
-    </row>
-    <row r="354" ht="12.75" customHeight="1">
+      <c r="E353" s="6" t="n"/>
+    </row>
+    <row r="354" ht="12.75" customHeight="1" s="5">
       <c r="A354" t="inlineStr">
         <is>
           <t>1FK608T-7</t>
@@ -8773,9 +8883,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E354" s="5" t="n"/>
-    </row>
-    <row r="355" ht="12.75" customHeight="1">
+      <c r="E354" s="6" t="n"/>
+    </row>
+    <row r="355" ht="12.75" customHeight="1" s="5">
       <c r="A355" t="inlineStr">
         <is>
           <t>1FK608A-8</t>
@@ -8786,9 +8896,9 @@
           <t>ERN</t>
         </is>
       </c>
-      <c r="E355" s="5" t="n"/>
-    </row>
-    <row r="356" ht="12.75" customHeight="1">
+      <c r="E355" s="6" t="n"/>
+    </row>
+    <row r="356" ht="12.75" customHeight="1" s="5">
       <c r="A356" t="inlineStr">
         <is>
           <t>1FK608E-8</t>
@@ -8799,9 +8909,9 @@
           <t>EQN</t>
         </is>
       </c>
-      <c r="E356" s="5" t="n"/>
-    </row>
-    <row r="357" ht="12.75" customHeight="1">
+      <c r="E356" s="6" t="n"/>
+    </row>
+    <row r="357" ht="12.75" customHeight="1" s="5">
       <c r="A357" t="inlineStr">
         <is>
           <t>1FK608Q-8</t>
@@ -8812,9 +8922,9 @@
           <t>EQI</t>
         </is>
       </c>
-      <c r="E357" s="5" t="n"/>
-    </row>
-    <row r="358" ht="12.75" customHeight="1">
+      <c r="E357" s="6" t="n"/>
+    </row>
+    <row r="358" ht="12.75" customHeight="1" s="5">
       <c r="A358" t="inlineStr">
         <is>
           <t>1FK608M-8</t>
@@ -8825,9 +8935,9 @@
           <t>Roml</t>
         </is>
       </c>
-      <c r="E358" s="5" t="n"/>
-    </row>
-    <row r="359" ht="12.75" customHeight="1">
+      <c r="E358" s="6" t="n"/>
+    </row>
+    <row r="359" ht="12.75" customHeight="1" s="5">
       <c r="A359" t="inlineStr">
         <is>
           <t>1FK608N-8</t>
@@ -8838,9 +8948,9 @@
           <t>Roml repl.</t>
         </is>
       </c>
-      <c r="E359" s="5" t="n"/>
-    </row>
-    <row r="360" ht="12.75" customHeight="1">
+      <c r="E359" s="6" t="n"/>
+    </row>
+    <row r="360" ht="12.75" customHeight="1" s="5">
       <c r="A360" t="inlineStr">
         <is>
           <t>1FK608S-8</t>
@@ -8851,9 +8961,9 @@
           <t>res 6/8</t>
         </is>
       </c>
-      <c r="E360" s="5" t="n"/>
-    </row>
-    <row r="361" ht="12.75" customHeight="1">
+      <c r="E360" s="6" t="n"/>
+    </row>
+    <row r="361" ht="12.75" customHeight="1" s="5">
       <c r="A361" t="inlineStr">
         <is>
           <t>1FK608T-8</t>
@@ -8864,9 +8974,9 @@
           <t>res 2</t>
         </is>
       </c>
-      <c r="E361" s="5" t="n"/>
-    </row>
-    <row r="362" ht="12.75" customHeight="1">
+      <c r="E361" s="6" t="n"/>
+    </row>
+    <row r="362" ht="12.75" customHeight="1" s="5">
       <c r="A362" t="inlineStr">
         <is>
           <t>1FK610A-6</t>
@@ -8878,7 +8988,7 @@
         </is>
       </c>
     </row>
-    <row r="363" ht="12.75" customHeight="1">
+    <row r="363" ht="12.75" customHeight="1" s="5">
       <c r="A363" t="inlineStr">
         <is>
           <t>1FK610E-6</t>
@@ -8890,7 +9000,7 @@
         </is>
       </c>
     </row>
-    <row r="364" ht="12.75" customHeight="1">
+    <row r="364" ht="12.75" customHeight="1" s="5">
       <c r="A364" t="inlineStr">
         <is>
           <t>1FK610Q-6</t>
@@ -8902,7 +9012,7 @@
         </is>
       </c>
     </row>
-    <row r="365" ht="12.75" customHeight="1">
+    <row r="365" ht="12.75" customHeight="1" s="5">
       <c r="A365" t="inlineStr">
         <is>
           <t>1FK610M-6</t>
@@ -8914,7 +9024,7 @@
         </is>
       </c>
     </row>
-    <row r="366" ht="12.75" customHeight="1">
+    <row r="366" ht="12.75" customHeight="1" s="5">
       <c r="A366" t="inlineStr">
         <is>
           <t>1FK610N-6</t>
@@ -8926,7 +9036,7 @@
         </is>
       </c>
     </row>
-    <row r="367" ht="12.75" customHeight="1">
+    <row r="367" ht="12.75" customHeight="1" s="5">
       <c r="A367" t="inlineStr">
         <is>
           <t>1FK610S-6</t>
@@ -8938,7 +9048,7 @@
         </is>
       </c>
     </row>
-    <row r="368" ht="12.75" customHeight="1">
+    <row r="368" ht="12.75" customHeight="1" s="5">
       <c r="A368" t="inlineStr">
         <is>
           <t>1FK610T-6</t>
@@ -8950,7 +9060,7 @@
         </is>
       </c>
     </row>
-    <row r="369" ht="12.75" customHeight="1">
+    <row r="369" ht="12.75" customHeight="1" s="5">
       <c r="A369" t="inlineStr">
         <is>
           <t>1FK610A-7</t>
@@ -8962,7 +9072,7 @@
         </is>
       </c>
     </row>
-    <row r="370" ht="12.75" customHeight="1">
+    <row r="370" ht="12.75" customHeight="1" s="5">
       <c r="A370" t="inlineStr">
         <is>
           <t>1FK610E-7</t>
@@ -8974,7 +9084,7 @@
         </is>
       </c>
     </row>
-    <row r="371" ht="12.75" customHeight="1">
+    <row r="371" ht="12.75" customHeight="1" s="5">
       <c r="A371" t="inlineStr">
         <is>
           <t>1FK610Q-7</t>
@@ -8986,7 +9096,7 @@
         </is>
       </c>
     </row>
-    <row r="372" ht="12.75" customHeight="1">
+    <row r="372" ht="12.75" customHeight="1" s="5">
       <c r="A372" t="inlineStr">
         <is>
           <t>1FK610M-7</t>
@@ -8998,7 +9108,7 @@
         </is>
       </c>
     </row>
-    <row r="373" ht="12.75" customHeight="1">
+    <row r="373" ht="12.75" customHeight="1" s="5">
       <c r="A373" t="inlineStr">
         <is>
           <t>1FK610N-7</t>
@@ -9010,7 +9120,7 @@
         </is>
       </c>
     </row>
-    <row r="374" ht="12.75" customHeight="1">
+    <row r="374" ht="12.75" customHeight="1" s="5">
       <c r="A374" t="inlineStr">
         <is>
           <t>1FK610S-7</t>
@@ -9022,7 +9132,7 @@
         </is>
       </c>
     </row>
-    <row r="375" ht="12.75" customHeight="1">
+    <row r="375" ht="12.75" customHeight="1" s="5">
       <c r="A375" t="inlineStr">
         <is>
           <t>1FK610T-7</t>
@@ -9034,7 +9144,7 @@
         </is>
       </c>
     </row>
-    <row r="376" ht="12.75" customHeight="1">
+    <row r="376" ht="12.75" customHeight="1" s="5">
       <c r="A376" t="inlineStr">
         <is>
           <t>1FK610A-8</t>
@@ -9046,7 +9156,7 @@
         </is>
       </c>
     </row>
-    <row r="377" ht="12.75" customHeight="1">
+    <row r="377" ht="12.75" customHeight="1" s="5">
       <c r="A377" t="inlineStr">
         <is>
           <t>1FK610E-8</t>
@@ -9058,7 +9168,7 @@
         </is>
       </c>
     </row>
-    <row r="378" ht="12.75" customHeight="1">
+    <row r="378" ht="12.75" customHeight="1" s="5">
       <c r="A378" t="inlineStr">
         <is>
           <t>1FK610Q-8</t>
@@ -9070,7 +9180,7 @@
         </is>
       </c>
     </row>
-    <row r="379" ht="12.75" customHeight="1">
+    <row r="379" ht="12.75" customHeight="1" s="5">
       <c r="A379" t="inlineStr">
         <is>
           <t>1FK610M-8</t>
@@ -9082,7 +9192,7 @@
         </is>
       </c>
     </row>
-    <row r="380" ht="12.75" customHeight="1">
+    <row r="380" ht="12.75" customHeight="1" s="5">
       <c r="A380" t="inlineStr">
         <is>
           <t>1FK610N-8</t>
@@ -9094,7 +9204,7 @@
         </is>
       </c>
     </row>
-    <row r="381" ht="12.75" customHeight="1">
+    <row r="381" ht="12.75" customHeight="1" s="5">
       <c r="A381" t="inlineStr">
         <is>
           <t>1FK610S-8</t>
@@ -9106,7 +9216,7 @@
         </is>
       </c>
     </row>
-    <row r="382" ht="12.75" customHeight="1">
+    <row r="382" ht="12.75" customHeight="1" s="5">
       <c r="A382" t="inlineStr">
         <is>
           <t>1FK610T-8</t>
@@ -9118,7 +9228,7 @@
         </is>
       </c>
     </row>
-    <row r="383" ht="12.75" customHeight="1">
+    <row r="383" ht="12.75" customHeight="1" s="5">
       <c r="A383" t="inlineStr">
         <is>
           <t>1FK701A-5</t>
@@ -9130,7 +9240,7 @@
         </is>
       </c>
     </row>
-    <row r="384" ht="12.75" customHeight="1">
+    <row r="384" ht="12.75" customHeight="1" s="5">
       <c r="A384" t="inlineStr">
         <is>
           <t>1FK701D-5</t>
@@ -9142,7 +9252,7 @@
         </is>
       </c>
     </row>
-    <row r="385" ht="12.75" customHeight="1">
+    <row r="385" ht="12.75" customHeight="1" s="5">
       <c r="A385" t="inlineStr">
         <is>
           <t>1FK701E-5</t>
@@ -9154,7 +9264,7 @@
         </is>
       </c>
     </row>
-    <row r="386" ht="12.75" customHeight="1">
+    <row r="386" ht="12.75" customHeight="1" s="5">
       <c r="A386" t="inlineStr">
         <is>
           <t>1FK701F-5</t>
@@ -9166,7 +9276,7 @@
         </is>
       </c>
     </row>
-    <row r="387" ht="12.75" customHeight="1">
+    <row r="387" ht="12.75" customHeight="1" s="5">
       <c r="A387" t="inlineStr">
         <is>
           <t>1FK701G-5</t>
@@ -9178,7 +9288,7 @@
         </is>
       </c>
     </row>
-    <row r="388" ht="12.75" customHeight="1">
+    <row r="388" ht="12.75" customHeight="1" s="5">
       <c r="A388" t="inlineStr">
         <is>
           <t>1FK701K-5</t>
@@ -9190,7 +9300,7 @@
         </is>
       </c>
     </row>
-    <row r="389" ht="12.75" customHeight="1">
+    <row r="389" ht="12.75" customHeight="1" s="5">
       <c r="A389" t="inlineStr">
         <is>
           <t>1FK701H-5</t>
@@ -9202,7 +9312,7 @@
         </is>
       </c>
     </row>
-    <row r="390" ht="12.75" customHeight="1">
+    <row r="390" ht="12.75" customHeight="1" s="5">
       <c r="A390" t="inlineStr">
         <is>
           <t>1FK701L-5</t>
@@ -9214,7 +9324,7 @@
         </is>
       </c>
     </row>
-    <row r="391" ht="12.75" customHeight="1">
+    <row r="391" ht="12.75" customHeight="1" s="5">
       <c r="A391" t="inlineStr">
         <is>
           <t>1FK701J-5</t>
@@ -9226,7 +9336,7 @@
         </is>
       </c>
     </row>
-    <row r="392" ht="12.75" customHeight="1">
+    <row r="392" ht="12.75" customHeight="1" s="5">
       <c r="A392" t="inlineStr">
         <is>
           <t>1FK701V-5</t>
@@ -9238,7 +9348,7 @@
         </is>
       </c>
     </row>
-    <row r="393" ht="12.75" customHeight="1">
+    <row r="393" ht="12.75" customHeight="1" s="5">
       <c r="A393" t="inlineStr">
         <is>
           <t>1FK701S-5</t>
@@ -9250,7 +9360,7 @@
         </is>
       </c>
     </row>
-    <row r="394" ht="12.75" customHeight="1">
+    <row r="394" ht="12.75" customHeight="1" s="5">
       <c r="A394" t="inlineStr">
         <is>
           <t>1FK701U-5</t>
@@ -9262,7 +9372,7 @@
         </is>
       </c>
     </row>
-    <row r="395" ht="12.75" customHeight="1">
+    <row r="395" ht="12.75" customHeight="1" s="5">
       <c r="A395" t="inlineStr">
         <is>
           <t>1FK701T-5</t>
@@ -9274,7 +9384,7 @@
         </is>
       </c>
     </row>
-    <row r="396" ht="12.75" customHeight="1">
+    <row r="396" ht="12.75" customHeight="1" s="5">
       <c r="A396" t="inlineStr">
         <is>
           <t>1FK702A-5</t>
@@ -9286,7 +9396,7 @@
         </is>
       </c>
     </row>
-    <row r="397" ht="12.75" customHeight="1">
+    <row r="397" ht="12.75" customHeight="1" s="5">
       <c r="A397" t="inlineStr">
         <is>
           <t>1FK702D-5</t>
@@ -9298,7 +9408,7 @@
         </is>
       </c>
     </row>
-    <row r="398" ht="12.75" customHeight="1">
+    <row r="398" ht="12.75" customHeight="1" s="5">
       <c r="A398" t="inlineStr">
         <is>
           <t>1FK702E-5</t>
@@ -9310,7 +9420,7 @@
         </is>
       </c>
     </row>
-    <row r="399" ht="12.75" customHeight="1">
+    <row r="399" ht="12.75" customHeight="1" s="5">
       <c r="A399" t="inlineStr">
         <is>
           <t>1FK702F-5</t>
@@ -9322,7 +9432,7 @@
         </is>
       </c>
     </row>
-    <row r="400" ht="12.75" customHeight="1">
+    <row r="400" ht="12.75" customHeight="1" s="5">
       <c r="A400" t="inlineStr">
         <is>
           <t>1FK702G-5</t>
@@ -9334,7 +9444,7 @@
         </is>
       </c>
     </row>
-    <row r="401" ht="12.75" customHeight="1">
+    <row r="401" ht="12.75" customHeight="1" s="5">
       <c r="A401" t="inlineStr">
         <is>
           <t>1FK702K-5</t>
@@ -9346,7 +9456,7 @@
         </is>
       </c>
     </row>
-    <row r="402" ht="12.75" customHeight="1">
+    <row r="402" ht="12.75" customHeight="1" s="5">
       <c r="A402" t="inlineStr">
         <is>
           <t>1FK702H-5</t>
@@ -9358,7 +9468,7 @@
         </is>
       </c>
     </row>
-    <row r="403" ht="12.75" customHeight="1">
+    <row r="403" ht="12.75" customHeight="1" s="5">
       <c r="A403" t="inlineStr">
         <is>
           <t>1FK702L-5</t>
@@ -9370,7 +9480,7 @@
         </is>
       </c>
     </row>
-    <row r="404" ht="12.75" customHeight="1">
+    <row r="404" ht="12.75" customHeight="1" s="5">
       <c r="A404" t="inlineStr">
         <is>
           <t>1FK702J-5</t>
@@ -9382,7 +9492,7 @@
         </is>
       </c>
     </row>
-    <row r="405" ht="12.75" customHeight="1">
+    <row r="405" ht="12.75" customHeight="1" s="5">
       <c r="A405" t="inlineStr">
         <is>
           <t>1FK702V-5</t>
@@ -9394,7 +9504,7 @@
         </is>
       </c>
     </row>
-    <row r="406" ht="12.75" customHeight="1">
+    <row r="406" ht="12.75" customHeight="1" s="5">
       <c r="A406" t="inlineStr">
         <is>
           <t>1FK702S-5</t>
@@ -9406,7 +9516,7 @@
         </is>
       </c>
     </row>
-    <row r="407" ht="12.75" customHeight="1">
+    <row r="407" ht="12.75" customHeight="1" s="5">
       <c r="A407" t="inlineStr">
         <is>
           <t>1FK702U-5</t>
@@ -9418,7 +9528,7 @@
         </is>
       </c>
     </row>
-    <row r="408" ht="12.75" customHeight="1">
+    <row r="408" ht="12.75" customHeight="1" s="5">
       <c r="A408" t="inlineStr">
         <is>
           <t>1FK702T-5</t>
@@ -9430,7 +9540,7 @@
         </is>
       </c>
     </row>
-    <row r="409" ht="12.75" customHeight="1">
+    <row r="409" ht="12.75" customHeight="1" s="5">
       <c r="A409" t="inlineStr">
         <is>
           <t>1FK703B-2</t>
@@ -9442,7 +9552,7 @@
         </is>
       </c>
     </row>
-    <row r="410" ht="12.75" customHeight="1">
+    <row r="410" ht="12.75" customHeight="1" s="5">
       <c r="A410" t="inlineStr">
         <is>
           <t>1FK703C-2</t>
@@ -9454,7 +9564,7 @@
         </is>
       </c>
     </row>
-    <row r="411" ht="12.75" customHeight="1">
+    <row r="411" ht="12.75" customHeight="1" s="5">
       <c r="A411" t="inlineStr">
         <is>
           <t>1FK703D-2</t>
@@ -9466,7 +9576,7 @@
         </is>
       </c>
     </row>
-    <row r="412" ht="12.75" customHeight="1">
+    <row r="412" ht="12.75" customHeight="1" s="5">
       <c r="A412" t="inlineStr">
         <is>
           <t>1FK703F-2</t>
@@ -9478,7 +9588,7 @@
         </is>
       </c>
     </row>
-    <row r="413" ht="12.75" customHeight="1">
+    <row r="413" ht="12.75" customHeight="1" s="5">
       <c r="A413" t="inlineStr">
         <is>
           <t>1FK703G-2</t>
@@ -9490,7 +9600,7 @@
         </is>
       </c>
     </row>
-    <row r="414" ht="12.75" customHeight="1">
+    <row r="414" ht="12.75" customHeight="1" s="5">
       <c r="A414" t="inlineStr">
         <is>
           <t>1FK703H-2</t>
@@ -9502,7 +9612,7 @@
         </is>
       </c>
     </row>
-    <row r="415" ht="12.75" customHeight="1">
+    <row r="415" ht="12.75" customHeight="1" s="5">
       <c r="A415" t="inlineStr">
         <is>
           <t>1FK703K-2</t>
@@ -9514,7 +9624,7 @@
         </is>
       </c>
     </row>
-    <row r="416" ht="12.75" customHeight="1">
+    <row r="416" ht="12.75" customHeight="1" s="5">
       <c r="A416" t="inlineStr">
         <is>
           <t>1FK703L-2</t>
@@ -9526,10 +9636,10 @@
         </is>
       </c>
     </row>
-    <row r="417" ht="12.75" customHeight="1">
+    <row r="417" ht="12.75" customHeight="1" s="5">
       <c r="A417" t="inlineStr">
         <is>
-          <t>1FK703M-2</t>
+          <t>1FK703E-2</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -9538,10 +9648,10 @@
         </is>
       </c>
     </row>
-    <row r="418" ht="12.75" customHeight="1">
+    <row r="418" ht="12.75" customHeight="1" s="5">
       <c r="A418" t="inlineStr">
         <is>
-          <t>1FK703N-2</t>
+          <t>1FK703A-2</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -9550,7 +9660,7 @@
         </is>
       </c>
     </row>
-    <row r="419" ht="12.75" customHeight="1">
+    <row r="419" ht="12.75" customHeight="1" s="5">
       <c r="A419" t="inlineStr">
         <is>
           <t>1FK703P-2</t>
@@ -9562,7 +9672,7 @@
         </is>
       </c>
     </row>
-    <row r="420" ht="12.75" customHeight="1">
+    <row r="420" ht="12.75" customHeight="1" s="5">
       <c r="A420" t="inlineStr">
         <is>
           <t>1FK703Q-2</t>
@@ -9574,7 +9684,7 @@
         </is>
       </c>
     </row>
-    <row r="421" ht="12.75" customHeight="1">
+    <row r="421" ht="12.75" customHeight="1" s="5">
       <c r="A421" t="inlineStr">
         <is>
           <t>1FK703R-2</t>
@@ -9586,7 +9696,7 @@
         </is>
       </c>
     </row>
-    <row r="422" ht="12.75" customHeight="1">
+    <row r="422" ht="12.75" customHeight="1" s="5">
       <c r="A422" t="inlineStr">
         <is>
           <t>1FK703S-2</t>
@@ -9598,7 +9708,7 @@
         </is>
       </c>
     </row>
-    <row r="423" ht="12.75" customHeight="1">
+    <row r="423" ht="12.75" customHeight="1" s="5">
       <c r="A423" t="inlineStr">
         <is>
           <t>1FK703T-2</t>
@@ -9610,7 +9720,7 @@
         </is>
       </c>
     </row>
-    <row r="424" ht="12.75" customHeight="1">
+    <row r="424" ht="12.75" customHeight="1" s="5">
       <c r="A424" t="inlineStr">
         <is>
           <t>1FK703U-2</t>
@@ -9622,7 +9732,7 @@
         </is>
       </c>
     </row>
-    <row r="425" ht="12.75" customHeight="1">
+    <row r="425" ht="12.75" customHeight="1" s="5">
       <c r="A425" t="inlineStr">
         <is>
           <t>1FK703B-3</t>
@@ -9634,7 +9744,7 @@
         </is>
       </c>
     </row>
-    <row r="426" ht="12.75" customHeight="1">
+    <row r="426" ht="12.75" customHeight="1" s="5">
       <c r="A426" t="inlineStr">
         <is>
           <t>1FK703C-3</t>
@@ -9646,7 +9756,7 @@
         </is>
       </c>
     </row>
-    <row r="427" ht="12.75" customHeight="1">
+    <row r="427" ht="12.75" customHeight="1" s="5">
       <c r="A427" t="inlineStr">
         <is>
           <t>1FK703D-3</t>
@@ -9658,7 +9768,7 @@
         </is>
       </c>
     </row>
-    <row r="428" ht="12.75" customHeight="1">
+    <row r="428" ht="12.75" customHeight="1" s="5">
       <c r="A428" t="inlineStr">
         <is>
           <t>1FK703F-3</t>
@@ -9670,7 +9780,7 @@
         </is>
       </c>
     </row>
-    <row r="429" ht="12.75" customHeight="1">
+    <row r="429" ht="12.75" customHeight="1" s="5">
       <c r="A429" t="inlineStr">
         <is>
           <t>1FK703G-3</t>
@@ -9682,7 +9792,7 @@
         </is>
       </c>
     </row>
-    <row r="430" ht="12.75" customHeight="1">
+    <row r="430" ht="12.75" customHeight="1" s="5">
       <c r="A430" t="inlineStr">
         <is>
           <t>1FK703H-3</t>
@@ -9694,7 +9804,7 @@
         </is>
       </c>
     </row>
-    <row r="431" ht="12.75" customHeight="1">
+    <row r="431" ht="12.75" customHeight="1" s="5">
       <c r="A431" t="inlineStr">
         <is>
           <t>1FK703K-3</t>
@@ -9706,7 +9816,7 @@
         </is>
       </c>
     </row>
-    <row r="432" ht="12.75" customHeight="1">
+    <row r="432" ht="12.75" customHeight="1" s="5">
       <c r="A432" t="inlineStr">
         <is>
           <t>1FK703L-3</t>
@@ -9718,10 +9828,10 @@
         </is>
       </c>
     </row>
-    <row r="433" ht="12.75" customHeight="1">
+    <row r="433" ht="12.75" customHeight="1" s="5">
       <c r="A433" t="inlineStr">
         <is>
-          <t>1FK703M-3</t>
+          <t>1FK703E-3</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -9730,10 +9840,10 @@
         </is>
       </c>
     </row>
-    <row r="434" ht="12.75" customHeight="1">
+    <row r="434" ht="12.75" customHeight="1" s="5">
       <c r="A434" t="inlineStr">
         <is>
-          <t>1FK703N-3</t>
+          <t>1FK703A-3</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -9742,7 +9852,7 @@
         </is>
       </c>
     </row>
-    <row r="435" ht="12.75" customHeight="1">
+    <row r="435" ht="12.75" customHeight="1" s="5">
       <c r="A435" t="inlineStr">
         <is>
           <t>1FK703P-3</t>
@@ -9754,7 +9864,7 @@
         </is>
       </c>
     </row>
-    <row r="436" ht="12.75" customHeight="1">
+    <row r="436" ht="12.75" customHeight="1" s="5">
       <c r="A436" t="inlineStr">
         <is>
           <t>1FK703Q-3</t>
@@ -9766,7 +9876,7 @@
         </is>
       </c>
     </row>
-    <row r="437" ht="12.75" customHeight="1">
+    <row r="437" ht="12.75" customHeight="1" s="5">
       <c r="A437" t="inlineStr">
         <is>
           <t>1FK703R-3</t>
@@ -9778,7 +9888,7 @@
         </is>
       </c>
     </row>
-    <row r="438" ht="12.75" customHeight="1">
+    <row r="438" ht="12.75" customHeight="1" s="5">
       <c r="A438" t="inlineStr">
         <is>
           <t>1FK703S-3</t>
@@ -9790,7 +9900,7 @@
         </is>
       </c>
     </row>
-    <row r="439" ht="12.75" customHeight="1">
+    <row r="439" ht="12.75" customHeight="1" s="5">
       <c r="A439" t="inlineStr">
         <is>
           <t>1FK703T-3</t>
@@ -9802,7 +9912,7 @@
         </is>
       </c>
     </row>
-    <row r="440" ht="12.75" customHeight="1">
+    <row r="440" ht="12.75" customHeight="1" s="5">
       <c r="A440" t="inlineStr">
         <is>
           <t>1FK703U-3</t>
@@ -9814,7 +9924,7 @@
         </is>
       </c>
     </row>
-    <row r="441" ht="12.75" customHeight="1">
+    <row r="441" ht="12.75" customHeight="1" s="5">
       <c r="A441" t="inlineStr">
         <is>
           <t>1FK703B-4</t>
@@ -9826,7 +9936,7 @@
         </is>
       </c>
     </row>
-    <row r="442" ht="12.75" customHeight="1">
+    <row r="442" ht="12.75" customHeight="1" s="5">
       <c r="A442" t="inlineStr">
         <is>
           <t>1FK703C-4</t>
@@ -9838,7 +9948,7 @@
         </is>
       </c>
     </row>
-    <row r="443" ht="12.75" customHeight="1">
+    <row r="443" ht="12.75" customHeight="1" s="5">
       <c r="A443" t="inlineStr">
         <is>
           <t>1FK703D-4</t>
@@ -9850,7 +9960,7 @@
         </is>
       </c>
     </row>
-    <row r="444" ht="12.75" customHeight="1">
+    <row r="444" ht="12.75" customHeight="1" s="5">
       <c r="A444" t="inlineStr">
         <is>
           <t>1FK703F-4</t>
@@ -9862,7 +9972,7 @@
         </is>
       </c>
     </row>
-    <row r="445" ht="12.75" customHeight="1">
+    <row r="445" ht="12.75" customHeight="1" s="5">
       <c r="A445" t="inlineStr">
         <is>
           <t>1FK703G-4</t>
@@ -9874,7 +9984,7 @@
         </is>
       </c>
     </row>
-    <row r="446" ht="12.75" customHeight="1">
+    <row r="446" ht="12.75" customHeight="1" s="5">
       <c r="A446" t="inlineStr">
         <is>
           <t>1FK703H-4</t>
@@ -9886,7 +9996,7 @@
         </is>
       </c>
     </row>
-    <row r="447" ht="12.75" customHeight="1">
+    <row r="447" ht="12.75" customHeight="1" s="5">
       <c r="A447" t="inlineStr">
         <is>
           <t>1FK703K-4</t>
@@ -9898,7 +10008,7 @@
         </is>
       </c>
     </row>
-    <row r="448" ht="12.75" customHeight="1">
+    <row r="448" ht="12.75" customHeight="1" s="5">
       <c r="A448" t="inlineStr">
         <is>
           <t>1FK703L-4</t>
@@ -9910,10 +10020,10 @@
         </is>
       </c>
     </row>
-    <row r="449" ht="12.75" customHeight="1">
+    <row r="449" ht="12.75" customHeight="1" s="5">
       <c r="A449" t="inlineStr">
         <is>
-          <t>1FK703M-4</t>
+          <t>1FK703E-4</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -9922,10 +10032,10 @@
         </is>
       </c>
     </row>
-    <row r="450" ht="12.75" customHeight="1">
+    <row r="450" ht="12.75" customHeight="1" s="5">
       <c r="A450" t="inlineStr">
         <is>
-          <t>1FK703N-4</t>
+          <t>1FK703A-4</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -9934,7 +10044,7 @@
         </is>
       </c>
     </row>
-    <row r="451" ht="12.75" customHeight="1">
+    <row r="451" ht="12.75" customHeight="1" s="5">
       <c r="A451" t="inlineStr">
         <is>
           <t>1FK703P-4</t>
@@ -9946,7 +10056,7 @@
         </is>
       </c>
     </row>
-    <row r="452" ht="12.75" customHeight="1">
+    <row r="452" ht="12.75" customHeight="1" s="5">
       <c r="A452" t="inlineStr">
         <is>
           <t>1FK703Q-4</t>
@@ -9958,7 +10068,7 @@
         </is>
       </c>
     </row>
-    <row r="453" ht="12.75" customHeight="1">
+    <row r="453" ht="12.75" customHeight="1" s="5">
       <c r="A453" t="inlineStr">
         <is>
           <t>1FK703R-4</t>
@@ -9970,7 +10080,7 @@
         </is>
       </c>
     </row>
-    <row r="454" ht="12.75" customHeight="1">
+    <row r="454" ht="12.75" customHeight="1" s="5">
       <c r="A454" t="inlineStr">
         <is>
           <t>1FK703S-4</t>
@@ -9982,7 +10092,7 @@
         </is>
       </c>
     </row>
-    <row r="455" ht="12.75" customHeight="1">
+    <row r="455" ht="12.75" customHeight="1" s="5">
       <c r="A455" t="inlineStr">
         <is>
           <t>1FK703T-4</t>
@@ -9994,7 +10104,7 @@
         </is>
       </c>
     </row>
-    <row r="456" ht="12.75" customHeight="1">
+    <row r="456" ht="12.75" customHeight="1" s="5">
       <c r="A456" t="inlineStr">
         <is>
           <t>1FK703U-4</t>
@@ -10006,7 +10116,7 @@
         </is>
       </c>
     </row>
-    <row r="457" ht="12.75" customHeight="1">
+    <row r="457" ht="12.75" customHeight="1" s="5">
       <c r="A457" t="inlineStr">
         <is>
           <t>1FK703A-5</t>
@@ -10018,7 +10128,7 @@
         </is>
       </c>
     </row>
-    <row r="458" ht="12.75" customHeight="1">
+    <row r="458" ht="12.75" customHeight="1" s="5">
       <c r="A458" t="inlineStr">
         <is>
           <t>1FK703D-5</t>
@@ -10030,7 +10140,7 @@
         </is>
       </c>
     </row>
-    <row r="459" ht="12.75" customHeight="1">
+    <row r="459" ht="12.75" customHeight="1" s="5">
       <c r="A459" t="inlineStr">
         <is>
           <t>1FK703E-5</t>
@@ -10042,7 +10152,7 @@
         </is>
       </c>
     </row>
-    <row r="460" ht="12.75" customHeight="1">
+    <row r="460" ht="12.75" customHeight="1" s="5">
       <c r="A460" t="inlineStr">
         <is>
           <t>1FK703F-5</t>
@@ -10054,7 +10164,7 @@
         </is>
       </c>
     </row>
-    <row r="461" ht="12.75" customHeight="1">
+    <row r="461" ht="12.75" customHeight="1" s="5">
       <c r="A461" t="inlineStr">
         <is>
           <t>1FK703G-5</t>
@@ -10066,7 +10176,7 @@
         </is>
       </c>
     </row>
-    <row r="462" ht="12.75" customHeight="1">
+    <row r="462" ht="12.75" customHeight="1" s="5">
       <c r="A462" t="inlineStr">
         <is>
           <t>1FK703K-5</t>
@@ -10078,7 +10188,7 @@
         </is>
       </c>
     </row>
-    <row r="463" ht="12.75" customHeight="1">
+    <row r="463" ht="12.75" customHeight="1" s="5">
       <c r="A463" t="inlineStr">
         <is>
           <t>1FK703H-5</t>
@@ -10090,7 +10200,7 @@
         </is>
       </c>
     </row>
-    <row r="464" ht="12.75" customHeight="1">
+    <row r="464" ht="12.75" customHeight="1" s="5">
       <c r="A464" t="inlineStr">
         <is>
           <t>1FK703L-5</t>
@@ -10102,7 +10212,7 @@
         </is>
       </c>
     </row>
-    <row r="465" ht="12.75" customHeight="1">
+    <row r="465" ht="12.75" customHeight="1" s="5">
       <c r="A465" t="inlineStr">
         <is>
           <t>1FK703J-5</t>
@@ -10114,7 +10224,7 @@
         </is>
       </c>
     </row>
-    <row r="466" ht="12.75" customHeight="1">
+    <row r="466" ht="12.75" customHeight="1" s="5">
       <c r="A466" t="inlineStr">
         <is>
           <t>1FK703V-5</t>
@@ -10126,7 +10236,7 @@
         </is>
       </c>
     </row>
-    <row r="467" ht="12.75" customHeight="1">
+    <row r="467" ht="12.75" customHeight="1" s="5">
       <c r="A467" t="inlineStr">
         <is>
           <t>1FK703S-5</t>
@@ -10138,7 +10248,7 @@
         </is>
       </c>
     </row>
-    <row r="468" ht="12.75" customHeight="1">
+    <row r="468" ht="12.75" customHeight="1" s="5">
       <c r="A468" t="inlineStr">
         <is>
           <t>1FK703U-5</t>
@@ -10150,7 +10260,7 @@
         </is>
       </c>
     </row>
-    <row r="469" ht="12.75" customHeight="1">
+    <row r="469" ht="12.75" customHeight="1" s="5">
       <c r="A469" t="inlineStr">
         <is>
           <t>1FK703T-5</t>
@@ -10162,7 +10272,7 @@
         </is>
       </c>
     </row>
-    <row r="470" ht="12.75" customHeight="1">
+    <row r="470" ht="12.75" customHeight="1" s="5">
       <c r="A470" t="inlineStr">
         <is>
           <t>1FK703P-5</t>
@@ -10174,7 +10284,7 @@
         </is>
       </c>
     </row>
-    <row r="471" ht="12.75" customHeight="1">
+    <row r="471" ht="12.75" customHeight="1" s="5">
       <c r="A471" t="inlineStr">
         <is>
           <t>1FK703A-7</t>
@@ -10186,7 +10296,7 @@
         </is>
       </c>
     </row>
-    <row r="472" ht="12.75" customHeight="1">
+    <row r="472" ht="12.75" customHeight="1" s="5">
       <c r="A472" t="inlineStr">
         <is>
           <t>1FK703D-7</t>
@@ -10198,7 +10308,7 @@
         </is>
       </c>
     </row>
-    <row r="473" ht="12.75" customHeight="1">
+    <row r="473" ht="12.75" customHeight="1" s="5">
       <c r="A473" t="inlineStr">
         <is>
           <t>1FK703E-7</t>
@@ -10210,7 +10320,7 @@
         </is>
       </c>
     </row>
-    <row r="474" ht="12.75" customHeight="1">
+    <row r="474" ht="12.75" customHeight="1" s="5">
       <c r="A474" t="inlineStr">
         <is>
           <t>1FK703F-7</t>
@@ -10222,7 +10332,7 @@
         </is>
       </c>
     </row>
-    <row r="475" ht="12.75" customHeight="1">
+    <row r="475" ht="12.75" customHeight="1" s="5">
       <c r="A475" t="inlineStr">
         <is>
           <t>1FK703G-7</t>
@@ -10234,7 +10344,7 @@
         </is>
       </c>
     </row>
-    <row r="476" ht="12.75" customHeight="1">
+    <row r="476" ht="12.75" customHeight="1" s="5">
       <c r="A476" t="inlineStr">
         <is>
           <t>1FK703K-7</t>
@@ -10246,7 +10356,7 @@
         </is>
       </c>
     </row>
-    <row r="477" ht="12.75" customHeight="1">
+    <row r="477" ht="12.75" customHeight="1" s="5">
       <c r="A477" t="inlineStr">
         <is>
           <t>1FK703H-7</t>
@@ -10258,7 +10368,7 @@
         </is>
       </c>
     </row>
-    <row r="478" ht="12.75" customHeight="1">
+    <row r="478" ht="12.75" customHeight="1" s="5">
       <c r="A478" t="inlineStr">
         <is>
           <t>1FK703L-7</t>
@@ -10270,7 +10380,7 @@
         </is>
       </c>
     </row>
-    <row r="479" ht="12.75" customHeight="1">
+    <row r="479" ht="12.75" customHeight="1" s="5">
       <c r="A479" t="inlineStr">
         <is>
           <t>1FK703J-7</t>
@@ -10282,7 +10392,7 @@
         </is>
       </c>
     </row>
-    <row r="480" ht="12.75" customHeight="1">
+    <row r="480" ht="12.75" customHeight="1" s="5">
       <c r="A480" t="inlineStr">
         <is>
           <t>1FK703V-7</t>
@@ -10294,7 +10404,7 @@
         </is>
       </c>
     </row>
-    <row r="481" ht="12.75" customHeight="1">
+    <row r="481" ht="12.75" customHeight="1" s="5">
       <c r="A481" t="inlineStr">
         <is>
           <t>1FK703S-7</t>
@@ -10306,7 +10416,7 @@
         </is>
       </c>
     </row>
-    <row r="482" ht="12.75" customHeight="1">
+    <row r="482" ht="12.75" customHeight="1" s="5">
       <c r="A482" t="inlineStr">
         <is>
           <t>1FK703U-7</t>
@@ -10318,7 +10428,7 @@
         </is>
       </c>
     </row>
-    <row r="483" ht="12.75" customHeight="1">
+    <row r="483" ht="12.75" customHeight="1" s="5">
       <c r="A483" t="inlineStr">
         <is>
           <t>1FK703T-7</t>
@@ -10330,7 +10440,7 @@
         </is>
       </c>
     </row>
-    <row r="484" ht="12.75" customHeight="1">
+    <row r="484" ht="12.75" customHeight="1" s="5">
       <c r="A484" t="inlineStr">
         <is>
           <t>1FK703P-7</t>
@@ -10342,7 +10452,7 @@
         </is>
       </c>
     </row>
-    <row r="485" ht="12.75" customHeight="1">
+    <row r="485" ht="12.75" customHeight="1" s="5">
       <c r="A485" t="inlineStr">
         <is>
           <t>1FK704B-2</t>
@@ -10354,7 +10464,7 @@
         </is>
       </c>
     </row>
-    <row r="486" ht="12.75" customHeight="1">
+    <row r="486" ht="12.75" customHeight="1" s="5">
       <c r="A486" t="inlineStr">
         <is>
           <t>1FK704C-2</t>
@@ -10366,7 +10476,7 @@
         </is>
       </c>
     </row>
-    <row r="487" ht="12.75" customHeight="1">
+    <row r="487" ht="12.75" customHeight="1" s="5">
       <c r="A487" t="inlineStr">
         <is>
           <t>1FK704D-2</t>
@@ -10378,7 +10488,7 @@
         </is>
       </c>
     </row>
-    <row r="488" ht="12.75" customHeight="1">
+    <row r="488" ht="12.75" customHeight="1" s="5">
       <c r="A488" t="inlineStr">
         <is>
           <t>1FK704F-2</t>
@@ -10390,7 +10500,7 @@
         </is>
       </c>
     </row>
-    <row r="489" ht="12.75" customHeight="1">
+    <row r="489" ht="12.75" customHeight="1" s="5">
       <c r="A489" t="inlineStr">
         <is>
           <t>1FK704G-2</t>
@@ -10402,7 +10512,7 @@
         </is>
       </c>
     </row>
-    <row r="490" ht="12.75" customHeight="1">
+    <row r="490" ht="12.75" customHeight="1" s="5">
       <c r="A490" t="inlineStr">
         <is>
           <t>1FK704H-2</t>
@@ -10414,7 +10524,7 @@
         </is>
       </c>
     </row>
-    <row r="491" ht="12.75" customHeight="1">
+    <row r="491" ht="12.75" customHeight="1" s="5">
       <c r="A491" t="inlineStr">
         <is>
           <t>1FK704K-2</t>
@@ -10426,7 +10536,7 @@
         </is>
       </c>
     </row>
-    <row r="492" ht="12.75" customHeight="1">
+    <row r="492" ht="12.75" customHeight="1" s="5">
       <c r="A492" t="inlineStr">
         <is>
           <t>1FK704L-2</t>
@@ -10438,10 +10548,10 @@
         </is>
       </c>
     </row>
-    <row r="493" ht="12.75" customHeight="1">
+    <row r="493" ht="12.75" customHeight="1" s="5">
       <c r="A493" t="inlineStr">
         <is>
-          <t>1FK704M-2</t>
+          <t>1FK704E-2</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -10450,10 +10560,10 @@
         </is>
       </c>
     </row>
-    <row r="494" ht="12.75" customHeight="1">
+    <row r="494" ht="12.75" customHeight="1" s="5">
       <c r="A494" t="inlineStr">
         <is>
-          <t>1FK704N-2</t>
+          <t>1FK704A-2</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -10462,7 +10572,7 @@
         </is>
       </c>
     </row>
-    <row r="495" ht="12.75" customHeight="1">
+    <row r="495" ht="12.75" customHeight="1" s="5">
       <c r="A495" t="inlineStr">
         <is>
           <t>1FK704P-2</t>
@@ -10474,7 +10584,7 @@
         </is>
       </c>
     </row>
-    <row r="496" ht="12.75" customHeight="1">
+    <row r="496" ht="12.75" customHeight="1" s="5">
       <c r="A496" t="inlineStr">
         <is>
           <t>1FK704Q-2</t>
@@ -10486,7 +10596,7 @@
         </is>
       </c>
     </row>
-    <row r="497" ht="12.75" customHeight="1">
+    <row r="497" ht="12.75" customHeight="1" s="5">
       <c r="A497" t="inlineStr">
         <is>
           <t>1FK704R-2</t>
@@ -10498,7 +10608,7 @@
         </is>
       </c>
     </row>
-    <row r="498" ht="12.75" customHeight="1">
+    <row r="498" ht="12.75" customHeight="1" s="5">
       <c r="A498" t="inlineStr">
         <is>
           <t>1FK704S-2</t>
@@ -10510,7 +10620,7 @@
         </is>
       </c>
     </row>
-    <row r="499" ht="12.75" customHeight="1">
+    <row r="499" ht="12.75" customHeight="1" s="5">
       <c r="A499" t="inlineStr">
         <is>
           <t>1FK704T-2</t>
@@ -10522,7 +10632,7 @@
         </is>
       </c>
     </row>
-    <row r="500" ht="12.75" customHeight="1">
+    <row r="500" ht="12.75" customHeight="1" s="5">
       <c r="A500" t="inlineStr">
         <is>
           <t>1FK704U-2</t>
@@ -10534,7 +10644,7 @@
         </is>
       </c>
     </row>
-    <row r="501" ht="12.75" customHeight="1">
+    <row r="501" ht="12.75" customHeight="1" s="5">
       <c r="A501" t="inlineStr">
         <is>
           <t>1FK704B-3</t>
@@ -10546,7 +10656,7 @@
         </is>
       </c>
     </row>
-    <row r="502" ht="12.75" customHeight="1">
+    <row r="502" ht="12.75" customHeight="1" s="5">
       <c r="A502" t="inlineStr">
         <is>
           <t>1FK704C-3</t>
@@ -10558,7 +10668,7 @@
         </is>
       </c>
     </row>
-    <row r="503" ht="12.75" customHeight="1">
+    <row r="503" ht="12.75" customHeight="1" s="5">
       <c r="A503" t="inlineStr">
         <is>
           <t>1FK704D-3</t>
@@ -10570,7 +10680,7 @@
         </is>
       </c>
     </row>
-    <row r="504" ht="12.75" customHeight="1">
+    <row r="504" ht="12.75" customHeight="1" s="5">
       <c r="A504" t="inlineStr">
         <is>
           <t>1FK704F-3</t>
@@ -10582,7 +10692,7 @@
         </is>
       </c>
     </row>
-    <row r="505" ht="12.75" customHeight="1">
+    <row r="505" ht="12.75" customHeight="1" s="5">
       <c r="A505" t="inlineStr">
         <is>
           <t>1FK704G-3</t>
@@ -10594,7 +10704,7 @@
         </is>
       </c>
     </row>
-    <row r="506" ht="12.75" customHeight="1">
+    <row r="506" ht="12.75" customHeight="1" s="5">
       <c r="A506" t="inlineStr">
         <is>
           <t>1FK704H-3</t>
@@ -10606,7 +10716,7 @@
         </is>
       </c>
     </row>
-    <row r="507" ht="12.75" customHeight="1">
+    <row r="507" ht="12.75" customHeight="1" s="5">
       <c r="A507" t="inlineStr">
         <is>
           <t>1FK704K-3</t>
@@ -10618,7 +10728,7 @@
         </is>
       </c>
     </row>
-    <row r="508" ht="12.75" customHeight="1">
+    <row r="508" ht="12.75" customHeight="1" s="5">
       <c r="A508" t="inlineStr">
         <is>
           <t>1FK704L-3</t>
@@ -10630,10 +10740,10 @@
         </is>
       </c>
     </row>
-    <row r="509" ht="12.75" customHeight="1">
+    <row r="509" ht="12.75" customHeight="1" s="5">
       <c r="A509" t="inlineStr">
         <is>
-          <t>1FK704M-3</t>
+          <t>1FK704E-3</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -10642,10 +10752,10 @@
         </is>
       </c>
     </row>
-    <row r="510" ht="12.75" customHeight="1">
+    <row r="510" ht="12.75" customHeight="1" s="5">
       <c r="A510" t="inlineStr">
         <is>
-          <t>1FK704N-3</t>
+          <t>1FK704A-3</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -10654,7 +10764,7 @@
         </is>
       </c>
     </row>
-    <row r="511" ht="12.75" customHeight="1">
+    <row r="511" ht="12.75" customHeight="1" s="5">
       <c r="A511" t="inlineStr">
         <is>
           <t>1FK704P-3</t>
@@ -10666,7 +10776,7 @@
         </is>
       </c>
     </row>
-    <row r="512" ht="12.75" customHeight="1">
+    <row r="512" ht="12.75" customHeight="1" s="5">
       <c r="A512" t="inlineStr">
         <is>
           <t>1FK704Q-3</t>
@@ -10678,7 +10788,7 @@
         </is>
       </c>
     </row>
-    <row r="513" ht="12.75" customHeight="1">
+    <row r="513" ht="12.75" customHeight="1" s="5">
       <c r="A513" t="inlineStr">
         <is>
           <t>1FK704R-3</t>
@@ -10690,7 +10800,7 @@
         </is>
       </c>
     </row>
-    <row r="514" ht="12.75" customHeight="1">
+    <row r="514" ht="12.75" customHeight="1" s="5">
       <c r="A514" t="inlineStr">
         <is>
           <t>1FK704S-3</t>
@@ -10702,7 +10812,7 @@
         </is>
       </c>
     </row>
-    <row r="515" ht="12.75" customHeight="1">
+    <row r="515" ht="12.75" customHeight="1" s="5">
       <c r="A515" t="inlineStr">
         <is>
           <t>1FK704T-3</t>
@@ -10714,7 +10824,7 @@
         </is>
       </c>
     </row>
-    <row r="516" ht="12.75" customHeight="1">
+    <row r="516" ht="12.75" customHeight="1" s="5">
       <c r="A516" t="inlineStr">
         <is>
           <t>1FK704U-3</t>
@@ -10726,7 +10836,7 @@
         </is>
       </c>
     </row>
-    <row r="517" ht="12.75" customHeight="1">
+    <row r="517" ht="12.75" customHeight="1" s="5">
       <c r="A517" t="inlineStr">
         <is>
           <t>1FK704B-4</t>
@@ -10738,7 +10848,7 @@
         </is>
       </c>
     </row>
-    <row r="518" ht="12.75" customHeight="1">
+    <row r="518" ht="12.75" customHeight="1" s="5">
       <c r="A518" t="inlineStr">
         <is>
           <t>1FK704C-4</t>
@@ -10750,7 +10860,7 @@
         </is>
       </c>
     </row>
-    <row r="519" ht="12.75" customHeight="1">
+    <row r="519" ht="12.75" customHeight="1" s="5">
       <c r="A519" t="inlineStr">
         <is>
           <t>1FK704D-4</t>
@@ -10762,7 +10872,7 @@
         </is>
       </c>
     </row>
-    <row r="520" ht="12.75" customHeight="1">
+    <row r="520" ht="12.75" customHeight="1" s="5">
       <c r="A520" t="inlineStr">
         <is>
           <t>1FK704F-4</t>
@@ -10774,7 +10884,7 @@
         </is>
       </c>
     </row>
-    <row r="521" ht="12.75" customHeight="1">
+    <row r="521" ht="12.75" customHeight="1" s="5">
       <c r="A521" t="inlineStr">
         <is>
           <t>1FK704G-4</t>
@@ -10786,7 +10896,7 @@
         </is>
       </c>
     </row>
-    <row r="522" ht="12.75" customHeight="1">
+    <row r="522" ht="12.75" customHeight="1" s="5">
       <c r="A522" t="inlineStr">
         <is>
           <t>1FK704H-4</t>
@@ -10798,7 +10908,7 @@
         </is>
       </c>
     </row>
-    <row r="523" ht="12.75" customHeight="1">
+    <row r="523" ht="12.75" customHeight="1" s="5">
       <c r="A523" t="inlineStr">
         <is>
           <t>1FK704K-4</t>
@@ -10810,7 +10920,7 @@
         </is>
       </c>
     </row>
-    <row r="524" ht="12.75" customHeight="1">
+    <row r="524" ht="12.75" customHeight="1" s="5">
       <c r="A524" t="inlineStr">
         <is>
           <t>1FK704L-4</t>
@@ -10822,10 +10932,10 @@
         </is>
       </c>
     </row>
-    <row r="525" ht="12.75" customHeight="1">
+    <row r="525" ht="12.75" customHeight="1" s="5">
       <c r="A525" t="inlineStr">
         <is>
-          <t>1FK704M-4</t>
+          <t>1FK704E-4</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -10834,10 +10944,10 @@
         </is>
       </c>
     </row>
-    <row r="526" ht="12.75" customHeight="1">
+    <row r="526" ht="12.75" customHeight="1" s="5">
       <c r="A526" t="inlineStr">
         <is>
-          <t>1FK704N-4</t>
+          <t>1FK704A-4</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -10846,7 +10956,7 @@
         </is>
       </c>
     </row>
-    <row r="527" ht="12.75" customHeight="1">
+    <row r="527" ht="12.75" customHeight="1" s="5">
       <c r="A527" t="inlineStr">
         <is>
           <t>1FK704P-4</t>
@@ -10858,7 +10968,7 @@
         </is>
       </c>
     </row>
-    <row r="528" ht="12.75" customHeight="1">
+    <row r="528" ht="12.75" customHeight="1" s="5">
       <c r="A528" t="inlineStr">
         <is>
           <t>1FK704Q-4</t>
@@ -10870,7 +10980,7 @@
         </is>
       </c>
     </row>
-    <row r="529" ht="12.75" customHeight="1">
+    <row r="529" ht="12.75" customHeight="1" s="5">
       <c r="A529" t="inlineStr">
         <is>
           <t>1FK704R-4</t>
@@ -10882,7 +10992,7 @@
         </is>
       </c>
     </row>
-    <row r="530" ht="12.75" customHeight="1">
+    <row r="530" ht="12.75" customHeight="1" s="5">
       <c r="A530" t="inlineStr">
         <is>
           <t>1FK704S-4</t>
@@ -10894,7 +11004,7 @@
         </is>
       </c>
     </row>
-    <row r="531" ht="12.75" customHeight="1">
+    <row r="531" ht="12.75" customHeight="1" s="5">
       <c r="A531" t="inlineStr">
         <is>
           <t>1FK704T-4</t>
@@ -10906,7 +11016,7 @@
         </is>
       </c>
     </row>
-    <row r="532" ht="12.75" customHeight="1">
+    <row r="532" ht="12.75" customHeight="1" s="5">
       <c r="A532" t="inlineStr">
         <is>
           <t>1FK704U-4</t>
@@ -10918,7 +11028,7 @@
         </is>
       </c>
     </row>
-    <row r="533" ht="12.75" customHeight="1">
+    <row r="533" ht="12.75" customHeight="1" s="5">
       <c r="A533" t="inlineStr">
         <is>
           <t>1FK704A-5</t>
@@ -10930,7 +11040,7 @@
         </is>
       </c>
     </row>
-    <row r="534" ht="12.75" customHeight="1">
+    <row r="534" ht="12.75" customHeight="1" s="5">
       <c r="A534" t="inlineStr">
         <is>
           <t>1FK704D-5</t>
@@ -10942,7 +11052,7 @@
         </is>
       </c>
     </row>
-    <row r="535" ht="12.75" customHeight="1">
+    <row r="535" ht="12.75" customHeight="1" s="5">
       <c r="A535" t="inlineStr">
         <is>
           <t>1FK704E-5</t>
@@ -10954,7 +11064,7 @@
         </is>
       </c>
     </row>
-    <row r="536" ht="12.75" customHeight="1">
+    <row r="536" ht="12.75" customHeight="1" s="5">
       <c r="A536" t="inlineStr">
         <is>
           <t>1FK704F-5</t>
@@ -10966,7 +11076,7 @@
         </is>
       </c>
     </row>
-    <row r="537" ht="12.75" customHeight="1">
+    <row r="537" ht="12.75" customHeight="1" s="5">
       <c r="A537" t="inlineStr">
         <is>
           <t>1FK704G-5</t>
@@ -10978,7 +11088,7 @@
         </is>
       </c>
     </row>
-    <row r="538" ht="12.75" customHeight="1">
+    <row r="538" ht="12.75" customHeight="1" s="5">
       <c r="A538" t="inlineStr">
         <is>
           <t>1FK704K-5</t>
@@ -10990,7 +11100,7 @@
         </is>
       </c>
     </row>
-    <row r="539" ht="12.75" customHeight="1">
+    <row r="539" ht="12.75" customHeight="1" s="5">
       <c r="A539" t="inlineStr">
         <is>
           <t>1FK704H-5</t>
@@ -11002,7 +11112,7 @@
         </is>
       </c>
     </row>
-    <row r="540" ht="12.75" customHeight="1">
+    <row r="540" ht="12.75" customHeight="1" s="5">
       <c r="A540" t="inlineStr">
         <is>
           <t>1FK704L-5</t>
@@ -11014,7 +11124,7 @@
         </is>
       </c>
     </row>
-    <row r="541" ht="12.75" customHeight="1">
+    <row r="541" ht="12.75" customHeight="1" s="5">
       <c r="A541" t="inlineStr">
         <is>
           <t>1FK704J-5</t>
@@ -11026,7 +11136,7 @@
         </is>
       </c>
     </row>
-    <row r="542" ht="12.75" customHeight="1">
+    <row r="542" ht="12.75" customHeight="1" s="5">
       <c r="A542" t="inlineStr">
         <is>
           <t>1FK704V-5</t>
@@ -11038,7 +11148,7 @@
         </is>
       </c>
     </row>
-    <row r="543" ht="12.75" customHeight="1">
+    <row r="543" ht="12.75" customHeight="1" s="5">
       <c r="A543" t="inlineStr">
         <is>
           <t>1FK704S-5</t>
@@ -11050,7 +11160,7 @@
         </is>
       </c>
     </row>
-    <row r="544" ht="12.75" customHeight="1">
+    <row r="544" ht="12.75" customHeight="1" s="5">
       <c r="A544" t="inlineStr">
         <is>
           <t>1FK704U-5</t>
@@ -11062,7 +11172,7 @@
         </is>
       </c>
     </row>
-    <row r="545" ht="12.75" customHeight="1">
+    <row r="545" ht="12.75" customHeight="1" s="5">
       <c r="A545" t="inlineStr">
         <is>
           <t>1FK704T-5</t>
@@ -11074,7 +11184,7 @@
         </is>
       </c>
     </row>
-    <row r="546" ht="12.75" customHeight="1">
+    <row r="546" ht="12.75" customHeight="1" s="5">
       <c r="A546" t="inlineStr">
         <is>
           <t>1FK704P-5</t>
@@ -11086,7 +11196,7 @@
         </is>
       </c>
     </row>
-    <row r="547" ht="12.75" customHeight="1">
+    <row r="547" ht="12.75" customHeight="1" s="5">
       <c r="A547" t="inlineStr">
         <is>
           <t>1FK704A-7</t>
@@ -11098,7 +11208,7 @@
         </is>
       </c>
     </row>
-    <row r="548" ht="12.75" customHeight="1">
+    <row r="548" ht="12.75" customHeight="1" s="5">
       <c r="A548" t="inlineStr">
         <is>
           <t>1FK704D-7</t>
@@ -11110,7 +11220,7 @@
         </is>
       </c>
     </row>
-    <row r="549" ht="12.75" customHeight="1">
+    <row r="549" ht="12.75" customHeight="1" s="5">
       <c r="A549" t="inlineStr">
         <is>
           <t>1FK704E-7</t>
@@ -11122,7 +11232,7 @@
         </is>
       </c>
     </row>
-    <row r="550" ht="12.75" customHeight="1">
+    <row r="550" ht="12.75" customHeight="1" s="5">
       <c r="A550" t="inlineStr">
         <is>
           <t>1FK704F-7</t>
@@ -11134,7 +11244,7 @@
         </is>
       </c>
     </row>
-    <row r="551" ht="12.75" customHeight="1">
+    <row r="551" ht="12.75" customHeight="1" s="5">
       <c r="A551" t="inlineStr">
         <is>
           <t>1FK704G-7</t>
@@ -11146,7 +11256,7 @@
         </is>
       </c>
     </row>
-    <row r="552" ht="12.75" customHeight="1">
+    <row r="552" ht="12.75" customHeight="1" s="5">
       <c r="A552" t="inlineStr">
         <is>
           <t>1FK704K-7</t>
@@ -11158,7 +11268,7 @@
         </is>
       </c>
     </row>
-    <row r="553" ht="12.75" customHeight="1">
+    <row r="553" ht="12.75" customHeight="1" s="5">
       <c r="A553" t="inlineStr">
         <is>
           <t>1FK704H-7</t>
@@ -11170,7 +11280,7 @@
         </is>
       </c>
     </row>
-    <row r="554" ht="12.75" customHeight="1">
+    <row r="554" ht="12.75" customHeight="1" s="5">
       <c r="A554" t="inlineStr">
         <is>
           <t>1FK704L-7</t>
@@ -11182,7 +11292,7 @@
         </is>
       </c>
     </row>
-    <row r="555" ht="12.75" customHeight="1">
+    <row r="555" ht="12.75" customHeight="1" s="5">
       <c r="A555" t="inlineStr">
         <is>
           <t>1FK704J-7</t>
@@ -11194,7 +11304,7 @@
         </is>
       </c>
     </row>
-    <row r="556" ht="12.75" customHeight="1">
+    <row r="556" ht="12.75" customHeight="1" s="5">
       <c r="A556" t="inlineStr">
         <is>
           <t>1FK704V-7</t>
@@ -11206,7 +11316,7 @@
         </is>
       </c>
     </row>
-    <row r="557" ht="12.75" customHeight="1">
+    <row r="557" ht="12.75" customHeight="1" s="5">
       <c r="A557" t="inlineStr">
         <is>
           <t>1FK704S-7</t>
@@ -11218,7 +11328,7 @@
         </is>
       </c>
     </row>
-    <row r="558" ht="12.75" customHeight="1">
+    <row r="558" ht="12.75" customHeight="1" s="5">
       <c r="A558" t="inlineStr">
         <is>
           <t>1FK704U-7</t>
@@ -11230,7 +11340,7 @@
         </is>
       </c>
     </row>
-    <row r="559" ht="12.75" customHeight="1">
+    <row r="559" ht="12.75" customHeight="1" s="5">
       <c r="A559" t="inlineStr">
         <is>
           <t>1FK704T-7</t>
@@ -11242,7 +11352,7 @@
         </is>
       </c>
     </row>
-    <row r="560" ht="12.75" customHeight="1">
+    <row r="560" ht="12.75" customHeight="1" s="5">
       <c r="A560" t="inlineStr">
         <is>
           <t>1FK704P-7</t>
@@ -11254,7 +11364,7 @@
         </is>
       </c>
     </row>
-    <row r="561" ht="12.75" customHeight="1">
+    <row r="561" ht="12.75" customHeight="1" s="5">
       <c r="A561" t="inlineStr">
         <is>
           <t>1FK706B-2</t>
@@ -11266,7 +11376,7 @@
         </is>
       </c>
     </row>
-    <row r="562" ht="12.75" customHeight="1">
+    <row r="562" ht="12.75" customHeight="1" s="5">
       <c r="A562" t="inlineStr">
         <is>
           <t>1FK706C-2</t>
@@ -11278,7 +11388,7 @@
         </is>
       </c>
     </row>
-    <row r="563" ht="12.75" customHeight="1">
+    <row r="563" ht="12.75" customHeight="1" s="5">
       <c r="A563" t="inlineStr">
         <is>
           <t>1FK706D-2</t>
@@ -11290,7 +11400,7 @@
         </is>
       </c>
     </row>
-    <row r="564" ht="12.75" customHeight="1">
+    <row r="564" ht="12.75" customHeight="1" s="5">
       <c r="A564" t="inlineStr">
         <is>
           <t>1FK706F-2</t>
@@ -11302,7 +11412,7 @@
         </is>
       </c>
     </row>
-    <row r="565" ht="12.75" customHeight="1">
+    <row r="565" ht="12.75" customHeight="1" s="5">
       <c r="A565" t="inlineStr">
         <is>
           <t>1FK706G-2</t>
@@ -11314,7 +11424,7 @@
         </is>
       </c>
     </row>
-    <row r="566" ht="12.75" customHeight="1">
+    <row r="566" ht="12.75" customHeight="1" s="5">
       <c r="A566" t="inlineStr">
         <is>
           <t>1FK706H-2</t>
@@ -11326,7 +11436,7 @@
         </is>
       </c>
     </row>
-    <row r="567" ht="12.75" customHeight="1">
+    <row r="567" ht="12.75" customHeight="1" s="5">
       <c r="A567" t="inlineStr">
         <is>
           <t>1FK706K-2</t>
@@ -11338,7 +11448,7 @@
         </is>
       </c>
     </row>
-    <row r="568" ht="12.75" customHeight="1">
+    <row r="568" ht="12.75" customHeight="1" s="5">
       <c r="A568" t="inlineStr">
         <is>
           <t>1FK706L-2</t>
@@ -11350,10 +11460,10 @@
         </is>
       </c>
     </row>
-    <row r="569" ht="12.75" customHeight="1">
+    <row r="569" ht="12.75" customHeight="1" s="5">
       <c r="A569" t="inlineStr">
         <is>
-          <t>1FK706M-2</t>
+          <t>1FK706E-2</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -11362,10 +11472,10 @@
         </is>
       </c>
     </row>
-    <row r="570" ht="12.75" customHeight="1">
+    <row r="570" ht="12.75" customHeight="1" s="5">
       <c r="A570" t="inlineStr">
         <is>
-          <t>1FK706N-2</t>
+          <t>1FK706A-2</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -11374,7 +11484,7 @@
         </is>
       </c>
     </row>
-    <row r="571" ht="12.75" customHeight="1">
+    <row r="571" ht="12.75" customHeight="1" s="5">
       <c r="A571" t="inlineStr">
         <is>
           <t>1FK706P-2</t>
@@ -11386,7 +11496,7 @@
         </is>
       </c>
     </row>
-    <row r="572" ht="12.75" customHeight="1">
+    <row r="572" ht="12.75" customHeight="1" s="5">
       <c r="A572" t="inlineStr">
         <is>
           <t>1FK706Q-2</t>
@@ -11398,7 +11508,7 @@
         </is>
       </c>
     </row>
-    <row r="573" ht="12.75" customHeight="1">
+    <row r="573" ht="12.75" customHeight="1" s="5">
       <c r="A573" t="inlineStr">
         <is>
           <t>1FK706R-2</t>
@@ -11410,7 +11520,7 @@
         </is>
       </c>
     </row>
-    <row r="574" ht="12.75" customHeight="1">
+    <row r="574" ht="12.75" customHeight="1" s="5">
       <c r="A574" t="inlineStr">
         <is>
           <t>1FK706S-2</t>
@@ -11422,7 +11532,7 @@
         </is>
       </c>
     </row>
-    <row r="575" ht="12.75" customHeight="1">
+    <row r="575" ht="12.75" customHeight="1" s="5">
       <c r="A575" t="inlineStr">
         <is>
           <t>1FK706T-2</t>
@@ -11434,7 +11544,7 @@
         </is>
       </c>
     </row>
-    <row r="576" ht="12.75" customHeight="1">
+    <row r="576" ht="12.75" customHeight="1" s="5">
       <c r="A576" t="inlineStr">
         <is>
           <t>1FK706U-2</t>
@@ -11446,7 +11556,7 @@
         </is>
       </c>
     </row>
-    <row r="577" ht="12.75" customHeight="1">
+    <row r="577" ht="12.75" customHeight="1" s="5">
       <c r="A577" t="inlineStr">
         <is>
           <t>1FK706B-3</t>
@@ -11458,7 +11568,7 @@
         </is>
       </c>
     </row>
-    <row r="578" ht="12.75" customHeight="1">
+    <row r="578" ht="12.75" customHeight="1" s="5">
       <c r="A578" t="inlineStr">
         <is>
           <t>1FK706C-3</t>
@@ -11470,7 +11580,7 @@
         </is>
       </c>
     </row>
-    <row r="579" ht="12.75" customHeight="1">
+    <row r="579" ht="12.75" customHeight="1" s="5">
       <c r="A579" t="inlineStr">
         <is>
           <t>1FK706D-3</t>
@@ -11482,7 +11592,7 @@
         </is>
       </c>
     </row>
-    <row r="580" ht="12.75" customHeight="1">
+    <row r="580" ht="12.75" customHeight="1" s="5">
       <c r="A580" t="inlineStr">
         <is>
           <t>1FK706F-3</t>
@@ -11494,7 +11604,7 @@
         </is>
       </c>
     </row>
-    <row r="581" ht="12.75" customHeight="1">
+    <row r="581" ht="12.75" customHeight="1" s="5">
       <c r="A581" t="inlineStr">
         <is>
           <t>1FK706G-3</t>
@@ -11506,7 +11616,7 @@
         </is>
       </c>
     </row>
-    <row r="582" ht="12.75" customHeight="1">
+    <row r="582" ht="12.75" customHeight="1" s="5">
       <c r="A582" t="inlineStr">
         <is>
           <t>1FK706H-3</t>
@@ -11518,7 +11628,7 @@
         </is>
       </c>
     </row>
-    <row r="583" ht="12.75" customHeight="1">
+    <row r="583" ht="12.75" customHeight="1" s="5">
       <c r="A583" t="inlineStr">
         <is>
           <t>1FK706K-3</t>
@@ -11530,7 +11640,7 @@
         </is>
       </c>
     </row>
-    <row r="584" ht="12.75" customHeight="1">
+    <row r="584" ht="12.75" customHeight="1" s="5">
       <c r="A584" t="inlineStr">
         <is>
           <t>1FK706L-3</t>
@@ -11542,10 +11652,10 @@
         </is>
       </c>
     </row>
-    <row r="585" ht="12.75" customHeight="1">
+    <row r="585" ht="12.75" customHeight="1" s="5">
       <c r="A585" t="inlineStr">
         <is>
-          <t>1FK706M-3</t>
+          <t>1FK706E-3</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -11554,10 +11664,10 @@
         </is>
       </c>
     </row>
-    <row r="586" ht="12.75" customHeight="1">
+    <row r="586" ht="12.75" customHeight="1" s="5">
       <c r="A586" t="inlineStr">
         <is>
-          <t>1FK706N-3</t>
+          <t>1FK706A-3</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -11566,7 +11676,7 @@
         </is>
       </c>
     </row>
-    <row r="587" ht="12.75" customHeight="1">
+    <row r="587" ht="12.75" customHeight="1" s="5">
       <c r="A587" t="inlineStr">
         <is>
           <t>1FK706P-3</t>
@@ -11578,7 +11688,7 @@
         </is>
       </c>
     </row>
-    <row r="588" ht="12.75" customHeight="1">
+    <row r="588" ht="12.75" customHeight="1" s="5">
       <c r="A588" t="inlineStr">
         <is>
           <t>1FK706Q-3</t>
@@ -11590,7 +11700,7 @@
         </is>
       </c>
     </row>
-    <row r="589" ht="12.75" customHeight="1">
+    <row r="589" ht="12.75" customHeight="1" s="5">
       <c r="A589" t="inlineStr">
         <is>
           <t>1FK706R-3</t>
@@ -11602,7 +11712,7 @@
         </is>
       </c>
     </row>
-    <row r="590" ht="12.75" customHeight="1">
+    <row r="590" ht="12.75" customHeight="1" s="5">
       <c r="A590" t="inlineStr">
         <is>
           <t>1FK706S-3</t>
@@ -11614,7 +11724,7 @@
         </is>
       </c>
     </row>
-    <row r="591" ht="12.75" customHeight="1">
+    <row r="591" ht="12.75" customHeight="1" s="5">
       <c r="A591" t="inlineStr">
         <is>
           <t>1FK706T-3</t>
@@ -11626,7 +11736,7 @@
         </is>
       </c>
     </row>
-    <row r="592" ht="12.75" customHeight="1">
+    <row r="592" ht="12.75" customHeight="1" s="5">
       <c r="A592" t="inlineStr">
         <is>
           <t>1FK706U-3</t>
@@ -11638,7 +11748,7 @@
         </is>
       </c>
     </row>
-    <row r="593" ht="12.75" customHeight="1">
+    <row r="593" ht="12.75" customHeight="1" s="5">
       <c r="A593" t="inlineStr">
         <is>
           <t>1FK706B-4</t>
@@ -11650,7 +11760,7 @@
         </is>
       </c>
     </row>
-    <row r="594" ht="12.75" customHeight="1">
+    <row r="594" ht="12.75" customHeight="1" s="5">
       <c r="A594" t="inlineStr">
         <is>
           <t>1FK706C-4</t>
@@ -11662,7 +11772,7 @@
         </is>
       </c>
     </row>
-    <row r="595" ht="12.75" customHeight="1">
+    <row r="595" ht="12.75" customHeight="1" s="5">
       <c r="A595" t="inlineStr">
         <is>
           <t>1FK706D-4</t>
@@ -11674,7 +11784,7 @@
         </is>
       </c>
     </row>
-    <row r="596" ht="12.75" customHeight="1">
+    <row r="596" ht="12.75" customHeight="1" s="5">
       <c r="A596" t="inlineStr">
         <is>
           <t>1FK706F-4</t>
@@ -11686,7 +11796,7 @@
         </is>
       </c>
     </row>
-    <row r="597" ht="12.75" customHeight="1">
+    <row r="597" ht="12.75" customHeight="1" s="5">
       <c r="A597" t="inlineStr">
         <is>
           <t>1FK706G-4</t>
@@ -11698,7 +11808,7 @@
         </is>
       </c>
     </row>
-    <row r="598" ht="12.75" customHeight="1">
+    <row r="598" ht="12.75" customHeight="1" s="5">
       <c r="A598" t="inlineStr">
         <is>
           <t>1FK706H-4</t>
@@ -11710,7 +11820,7 @@
         </is>
       </c>
     </row>
-    <row r="599" ht="12.75" customHeight="1">
+    <row r="599" ht="12.75" customHeight="1" s="5">
       <c r="A599" t="inlineStr">
         <is>
           <t>1FK706K-4</t>
@@ -11722,7 +11832,7 @@
         </is>
       </c>
     </row>
-    <row r="600" ht="12.75" customHeight="1">
+    <row r="600" ht="12.75" customHeight="1" s="5">
       <c r="A600" t="inlineStr">
         <is>
           <t>1FK706L-4</t>
@@ -11734,10 +11844,10 @@
         </is>
       </c>
     </row>
-    <row r="601" ht="12.75" customHeight="1">
+    <row r="601" ht="12.75" customHeight="1" s="5">
       <c r="A601" t="inlineStr">
         <is>
-          <t>1FK706M-4</t>
+          <t>1FK706E-4</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -11746,10 +11856,10 @@
         </is>
       </c>
     </row>
-    <row r="602" ht="12.75" customHeight="1">
+    <row r="602" ht="12.75" customHeight="1" s="5">
       <c r="A602" t="inlineStr">
         <is>
-          <t>1FK706N-4</t>
+          <t>1FK706A-4</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -11758,7 +11868,7 @@
         </is>
       </c>
     </row>
-    <row r="603" ht="12.75" customHeight="1">
+    <row r="603" ht="12.75" customHeight="1" s="5">
       <c r="A603" t="inlineStr">
         <is>
           <t>1FK706P-4</t>
@@ -11770,7 +11880,7 @@
         </is>
       </c>
     </row>
-    <row r="604" ht="12.75" customHeight="1">
+    <row r="604" ht="12.75" customHeight="1" s="5">
       <c r="A604" t="inlineStr">
         <is>
           <t>1FK706Q-4</t>
@@ -11782,7 +11892,7 @@
         </is>
       </c>
     </row>
-    <row r="605" ht="12.75" customHeight="1">
+    <row r="605" ht="12.75" customHeight="1" s="5">
       <c r="A605" t="inlineStr">
         <is>
           <t>1FK706R-4</t>
@@ -11794,7 +11904,7 @@
         </is>
       </c>
     </row>
-    <row r="606" ht="12.75" customHeight="1">
+    <row r="606" ht="12.75" customHeight="1" s="5">
       <c r="A606" t="inlineStr">
         <is>
           <t>1FK706S-4</t>
@@ -11806,7 +11916,7 @@
         </is>
       </c>
     </row>
-    <row r="607" ht="12.75" customHeight="1">
+    <row r="607" ht="12.75" customHeight="1" s="5">
       <c r="A607" t="inlineStr">
         <is>
           <t>1FK706T-4</t>
@@ -11818,7 +11928,7 @@
         </is>
       </c>
     </row>
-    <row r="608" ht="12.75" customHeight="1">
+    <row r="608" ht="12.75" customHeight="1" s="5">
       <c r="A608" t="inlineStr">
         <is>
           <t>1FK706U-4</t>
@@ -11830,7 +11940,7 @@
         </is>
       </c>
     </row>
-    <row r="609" ht="12.75" customHeight="1">
+    <row r="609" ht="12.75" customHeight="1" s="5">
       <c r="A609" t="inlineStr">
         <is>
           <t>1FK706A-5</t>
@@ -11842,7 +11952,7 @@
         </is>
       </c>
     </row>
-    <row r="610" ht="12.75" customHeight="1">
+    <row r="610" ht="12.75" customHeight="1" s="5">
       <c r="A610" t="inlineStr">
         <is>
           <t>1FK706D-5</t>
@@ -11854,7 +11964,7 @@
         </is>
       </c>
     </row>
-    <row r="611" ht="12.75" customHeight="1">
+    <row r="611" ht="12.75" customHeight="1" s="5">
       <c r="A611" t="inlineStr">
         <is>
           <t>1FK706E-5</t>
@@ -11866,7 +11976,7 @@
         </is>
       </c>
     </row>
-    <row r="612" ht="12.75" customHeight="1">
+    <row r="612" ht="12.75" customHeight="1" s="5">
       <c r="A612" t="inlineStr">
         <is>
           <t>1FK706F-5</t>
@@ -11878,7 +11988,7 @@
         </is>
       </c>
     </row>
-    <row r="613" ht="12.75" customHeight="1">
+    <row r="613" ht="12.75" customHeight="1" s="5">
       <c r="A613" t="inlineStr">
         <is>
           <t>1FK706G-5</t>
@@ -11890,7 +12000,7 @@
         </is>
       </c>
     </row>
-    <row r="614" ht="12.75" customHeight="1">
+    <row r="614" ht="12.75" customHeight="1" s="5">
       <c r="A614" t="inlineStr">
         <is>
           <t>1FK706K-5</t>
@@ -11902,7 +12012,7 @@
         </is>
       </c>
     </row>
-    <row r="615" ht="12.75" customHeight="1">
+    <row r="615" ht="12.75" customHeight="1" s="5">
       <c r="A615" t="inlineStr">
         <is>
           <t>1FK706H-5</t>
@@ -11914,7 +12024,7 @@
         </is>
       </c>
     </row>
-    <row r="616" ht="12.75" customHeight="1">
+    <row r="616" ht="12.75" customHeight="1" s="5">
       <c r="A616" t="inlineStr">
         <is>
           <t>1FK706L-5</t>
@@ -11926,7 +12036,7 @@
         </is>
       </c>
     </row>
-    <row r="617" ht="12.75" customHeight="1">
+    <row r="617" ht="12.75" customHeight="1" s="5">
       <c r="A617" t="inlineStr">
         <is>
           <t>1FK706J-5</t>
@@ -11938,7 +12048,7 @@
         </is>
       </c>
     </row>
-    <row r="618" ht="12.75" customHeight="1">
+    <row r="618" ht="12.75" customHeight="1" s="5">
       <c r="A618" t="inlineStr">
         <is>
           <t>1FK706V-5</t>
@@ -11950,7 +12060,7 @@
         </is>
       </c>
     </row>
-    <row r="619" ht="12.75" customHeight="1">
+    <row r="619" ht="12.75" customHeight="1" s="5">
       <c r="A619" t="inlineStr">
         <is>
           <t>1FK706S-5</t>
@@ -11962,7 +12072,7 @@
         </is>
       </c>
     </row>
-    <row r="620" ht="12.75" customHeight="1">
+    <row r="620" ht="12.75" customHeight="1" s="5">
       <c r="A620" t="inlineStr">
         <is>
           <t>1FK706U-5</t>
@@ -11974,7 +12084,7 @@
         </is>
       </c>
     </row>
-    <row r="621" ht="12.75" customHeight="1">
+    <row r="621" ht="12.75" customHeight="1" s="5">
       <c r="A621" t="inlineStr">
         <is>
           <t>1FK706T-5</t>
@@ -11986,7 +12096,7 @@
         </is>
       </c>
     </row>
-    <row r="622" ht="12.75" customHeight="1">
+    <row r="622" ht="12.75" customHeight="1" s="5">
       <c r="A622" t="inlineStr">
         <is>
           <t>1FK706P-5</t>
@@ -11998,7 +12108,7 @@
         </is>
       </c>
     </row>
-    <row r="623" ht="12.75" customHeight="1">
+    <row r="623" ht="12.75" customHeight="1" s="5">
       <c r="A623" t="inlineStr">
         <is>
           <t>1FK706A-7</t>
@@ -12010,7 +12120,7 @@
         </is>
       </c>
     </row>
-    <row r="624" ht="12.75" customHeight="1">
+    <row r="624" ht="12.75" customHeight="1" s="5">
       <c r="A624" t="inlineStr">
         <is>
           <t>1FK706D-7</t>
@@ -12022,7 +12132,7 @@
         </is>
       </c>
     </row>
-    <row r="625" ht="12.75" customHeight="1">
+    <row r="625" ht="12.75" customHeight="1" s="5">
       <c r="A625" t="inlineStr">
         <is>
           <t>1FK706E-7</t>
@@ -12034,7 +12144,7 @@
         </is>
       </c>
     </row>
-    <row r="626" ht="12.75" customHeight="1">
+    <row r="626" ht="12.75" customHeight="1" s="5">
       <c r="A626" t="inlineStr">
         <is>
           <t>1FK706F-7</t>
@@ -12046,7 +12156,7 @@
         </is>
       </c>
     </row>
-    <row r="627" ht="12.75" customHeight="1">
+    <row r="627" ht="12.75" customHeight="1" s="5">
       <c r="A627" t="inlineStr">
         <is>
           <t>1FK706G-7</t>
@@ -12058,7 +12168,7 @@
         </is>
       </c>
     </row>
-    <row r="628" ht="12.75" customHeight="1">
+    <row r="628" ht="12.75" customHeight="1" s="5">
       <c r="A628" t="inlineStr">
         <is>
           <t>1FK706K-7</t>
@@ -12070,7 +12180,7 @@
         </is>
       </c>
     </row>
-    <row r="629" ht="12.75" customHeight="1">
+    <row r="629" ht="12.75" customHeight="1" s="5">
       <c r="A629" t="inlineStr">
         <is>
           <t>1FK706H-7</t>
@@ -12082,7 +12192,7 @@
         </is>
       </c>
     </row>
-    <row r="630" ht="12.75" customHeight="1">
+    <row r="630" ht="12.75" customHeight="1" s="5">
       <c r="A630" t="inlineStr">
         <is>
           <t>1FK706L-7</t>
@@ -12094,7 +12204,7 @@
         </is>
       </c>
     </row>
-    <row r="631" ht="12.75" customHeight="1">
+    <row r="631" ht="12.75" customHeight="1" s="5">
       <c r="A631" t="inlineStr">
         <is>
           <t>1FK706J-7</t>
@@ -12106,7 +12216,7 @@
         </is>
       </c>
     </row>
-    <row r="632" ht="12.75" customHeight="1">
+    <row r="632" ht="12.75" customHeight="1" s="5">
       <c r="A632" t="inlineStr">
         <is>
           <t>1FK706V-7</t>
@@ -12118,7 +12228,7 @@
         </is>
       </c>
     </row>
-    <row r="633" ht="12.75" customHeight="1">
+    <row r="633" ht="12.75" customHeight="1" s="5">
       <c r="A633" t="inlineStr">
         <is>
           <t>1FK706S-7</t>
@@ -12130,7 +12240,7 @@
         </is>
       </c>
     </row>
-    <row r="634" ht="12.75" customHeight="1">
+    <row r="634" ht="12.75" customHeight="1" s="5">
       <c r="A634" t="inlineStr">
         <is>
           <t>1FK706U-7</t>
@@ -12142,7 +12252,7 @@
         </is>
       </c>
     </row>
-    <row r="635" ht="12.75" customHeight="1">
+    <row r="635" ht="12.75" customHeight="1" s="5">
       <c r="A635" t="inlineStr">
         <is>
           <t>1FK706T-7</t>
@@ -12154,7 +12264,7 @@
         </is>
       </c>
     </row>
-    <row r="636" ht="12.75" customHeight="1">
+    <row r="636" ht="12.75" customHeight="1" s="5">
       <c r="A636" t="inlineStr">
         <is>
           <t>1FK706P-7</t>
@@ -12166,7 +12276,7 @@
         </is>
       </c>
     </row>
-    <row r="637" ht="12.75" customHeight="1">
+    <row r="637" ht="12.75" customHeight="1" s="5">
       <c r="A637" t="inlineStr">
         <is>
           <t>1FK708B-2</t>
@@ -12178,7 +12288,7 @@
         </is>
       </c>
     </row>
-    <row r="638" ht="12.75" customHeight="1">
+    <row r="638" ht="12.75" customHeight="1" s="5">
       <c r="A638" t="inlineStr">
         <is>
           <t>1FK708C-2</t>
@@ -12190,7 +12300,7 @@
         </is>
       </c>
     </row>
-    <row r="639" ht="12.75" customHeight="1">
+    <row r="639" ht="12.75" customHeight="1" s="5">
       <c r="A639" t="inlineStr">
         <is>
           <t>1FK708D-2</t>
@@ -12202,7 +12312,7 @@
         </is>
       </c>
     </row>
-    <row r="640" ht="12.75" customHeight="1">
+    <row r="640" ht="12.75" customHeight="1" s="5">
       <c r="A640" t="inlineStr">
         <is>
           <t>1FK708F-2</t>
@@ -12214,7 +12324,7 @@
         </is>
       </c>
     </row>
-    <row r="641" ht="12.75" customHeight="1">
+    <row r="641" ht="12.75" customHeight="1" s="5">
       <c r="A641" t="inlineStr">
         <is>
           <t>1FK708G-2</t>
@@ -12226,7 +12336,7 @@
         </is>
       </c>
     </row>
-    <row r="642" ht="12.75" customHeight="1">
+    <row r="642" ht="12.75" customHeight="1" s="5">
       <c r="A642" t="inlineStr">
         <is>
           <t>1FK708H-2</t>
@@ -12238,7 +12348,7 @@
         </is>
       </c>
     </row>
-    <row r="643" ht="12.75" customHeight="1">
+    <row r="643" ht="12.75" customHeight="1" s="5">
       <c r="A643" t="inlineStr">
         <is>
           <t>1FK708K-2</t>
@@ -12250,7 +12360,7 @@
         </is>
       </c>
     </row>
-    <row r="644" ht="12.75" customHeight="1">
+    <row r="644" ht="12.75" customHeight="1" s="5">
       <c r="A644" t="inlineStr">
         <is>
           <t>1FK708L-2</t>
@@ -12262,10 +12372,10 @@
         </is>
       </c>
     </row>
-    <row r="645" ht="12.75" customHeight="1">
+    <row r="645" ht="12.75" customHeight="1" s="5">
       <c r="A645" t="inlineStr">
         <is>
-          <t>1FK708M-2</t>
+          <t>1FK708E-2</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -12274,10 +12384,10 @@
         </is>
       </c>
     </row>
-    <row r="646" ht="12.75" customHeight="1">
+    <row r="646" ht="12.75" customHeight="1" s="5">
       <c r="A646" t="inlineStr">
         <is>
-          <t>1FK708N-2</t>
+          <t>1FK708A-2</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -12286,7 +12396,7 @@
         </is>
       </c>
     </row>
-    <row r="647" ht="12.75" customHeight="1">
+    <row r="647" ht="12.75" customHeight="1" s="5">
       <c r="A647" t="inlineStr">
         <is>
           <t>1FK708P-2</t>
@@ -12298,7 +12408,7 @@
         </is>
       </c>
     </row>
-    <row r="648" ht="12.75" customHeight="1">
+    <row r="648" ht="12.75" customHeight="1" s="5">
       <c r="A648" t="inlineStr">
         <is>
           <t>1FK708Q-2</t>
@@ -12310,7 +12420,7 @@
         </is>
       </c>
     </row>
-    <row r="649" ht="12.75" customHeight="1">
+    <row r="649" ht="12.75" customHeight="1" s="5">
       <c r="A649" t="inlineStr">
         <is>
           <t>1FK708R-2</t>
@@ -12322,7 +12432,7 @@
         </is>
       </c>
     </row>
-    <row r="650" ht="12.75" customHeight="1">
+    <row r="650" ht="12.75" customHeight="1" s="5">
       <c r="A650" t="inlineStr">
         <is>
           <t>1FK708S-2</t>
@@ -12334,7 +12444,7 @@
         </is>
       </c>
     </row>
-    <row r="651" ht="12.75" customHeight="1">
+    <row r="651" ht="12.75" customHeight="1" s="5">
       <c r="A651" t="inlineStr">
         <is>
           <t>1FK708T-2</t>
@@ -12346,7 +12456,7 @@
         </is>
       </c>
     </row>
-    <row r="652" ht="12.75" customHeight="1">
+    <row r="652" ht="12.75" customHeight="1" s="5">
       <c r="A652" t="inlineStr">
         <is>
           <t>1FK708U-2</t>
@@ -12358,7 +12468,7 @@
         </is>
       </c>
     </row>
-    <row r="653" ht="12.75" customHeight="1">
+    <row r="653" ht="12.75" customHeight="1" s="5">
       <c r="A653" t="inlineStr">
         <is>
           <t>1FK708B-3</t>
@@ -12370,7 +12480,7 @@
         </is>
       </c>
     </row>
-    <row r="654" ht="12.75" customHeight="1">
+    <row r="654" ht="12.75" customHeight="1" s="5">
       <c r="A654" t="inlineStr">
         <is>
           <t>1FK708C-3</t>
@@ -12382,7 +12492,7 @@
         </is>
       </c>
     </row>
-    <row r="655" ht="12.75" customHeight="1">
+    <row r="655" ht="12.75" customHeight="1" s="5">
       <c r="A655" t="inlineStr">
         <is>
           <t>1FK708D-3</t>
@@ -12394,7 +12504,7 @@
         </is>
       </c>
     </row>
-    <row r="656" ht="12.75" customHeight="1">
+    <row r="656" ht="12.75" customHeight="1" s="5">
       <c r="A656" t="inlineStr">
         <is>
           <t>1FK708F-3</t>
@@ -12406,7 +12516,7 @@
         </is>
       </c>
     </row>
-    <row r="657" ht="12.75" customHeight="1">
+    <row r="657" ht="12.75" customHeight="1" s="5">
       <c r="A657" t="inlineStr">
         <is>
           <t>1FK708G-3</t>
@@ -12418,7 +12528,7 @@
         </is>
       </c>
     </row>
-    <row r="658" ht="12.75" customHeight="1">
+    <row r="658" ht="12.75" customHeight="1" s="5">
       <c r="A658" t="inlineStr">
         <is>
           <t>1FK708H-3</t>
@@ -12430,7 +12540,7 @@
         </is>
       </c>
     </row>
-    <row r="659" ht="12.75" customHeight="1">
+    <row r="659" ht="12.75" customHeight="1" s="5">
       <c r="A659" t="inlineStr">
         <is>
           <t>1FK708K-3</t>
@@ -12442,7 +12552,7 @@
         </is>
       </c>
     </row>
-    <row r="660" ht="12.75" customHeight="1">
+    <row r="660" ht="12.75" customHeight="1" s="5">
       <c r="A660" t="inlineStr">
         <is>
           <t>1FK708L-3</t>
@@ -12454,10 +12564,10 @@
         </is>
       </c>
     </row>
-    <row r="661" ht="12.75" customHeight="1">
+    <row r="661" ht="12.75" customHeight="1" s="5">
       <c r="A661" t="inlineStr">
         <is>
-          <t>1FK708M-3</t>
+          <t>1FK708E-3</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -12466,10 +12576,10 @@
         </is>
       </c>
     </row>
-    <row r="662" ht="12.75" customHeight="1">
+    <row r="662" ht="12.75" customHeight="1" s="5">
       <c r="A662" t="inlineStr">
         <is>
-          <t>1FK708N-3</t>
+          <t>1FK708A-3</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -12478,7 +12588,7 @@
         </is>
       </c>
     </row>
-    <row r="663" ht="12.75" customHeight="1">
+    <row r="663" ht="12.75" customHeight="1" s="5">
       <c r="A663" t="inlineStr">
         <is>
           <t>1FK708P-3</t>
@@ -12490,7 +12600,7 @@
         </is>
       </c>
     </row>
-    <row r="664" ht="12.75" customHeight="1">
+    <row r="664" ht="12.75" customHeight="1" s="5">
       <c r="A664" t="inlineStr">
         <is>
           <t>1FK708Q-3</t>
@@ -12502,7 +12612,7 @@
         </is>
       </c>
     </row>
-    <row r="665" ht="12.75" customHeight="1">
+    <row r="665" ht="12.75" customHeight="1" s="5">
       <c r="A665" t="inlineStr">
         <is>
           <t>1FK708R-3</t>
@@ -12514,7 +12624,7 @@
         </is>
       </c>
     </row>
-    <row r="666" ht="12.75" customHeight="1">
+    <row r="666" ht="12.75" customHeight="1" s="5">
       <c r="A666" t="inlineStr">
         <is>
           <t>1FK708S-3</t>
@@ -12526,7 +12636,7 @@
         </is>
       </c>
     </row>
-    <row r="667" ht="12.75" customHeight="1">
+    <row r="667" ht="12.75" customHeight="1" s="5">
       <c r="A667" t="inlineStr">
         <is>
           <t>1FK708T-3</t>
@@ -12538,7 +12648,7 @@
         </is>
       </c>
     </row>
-    <row r="668" ht="12.75" customHeight="1">
+    <row r="668" ht="12.75" customHeight="1" s="5">
       <c r="A668" t="inlineStr">
         <is>
           <t>1FK708U-3</t>
@@ -12550,7 +12660,7 @@
         </is>
       </c>
     </row>
-    <row r="669" ht="12.75" customHeight="1">
+    <row r="669" ht="12.75" customHeight="1" s="5">
       <c r="A669" t="inlineStr">
         <is>
           <t>1FK708B-4</t>
@@ -12562,7 +12672,7 @@
         </is>
       </c>
     </row>
-    <row r="670" ht="12.75" customHeight="1">
+    <row r="670" ht="12.75" customHeight="1" s="5">
       <c r="A670" t="inlineStr">
         <is>
           <t>1FK708C-4</t>
@@ -12574,7 +12684,7 @@
         </is>
       </c>
     </row>
-    <row r="671" ht="12.75" customHeight="1">
+    <row r="671" ht="12.75" customHeight="1" s="5">
       <c r="A671" t="inlineStr">
         <is>
           <t>1FK708D-4</t>
@@ -12586,7 +12696,7 @@
         </is>
       </c>
     </row>
-    <row r="672" ht="12.75" customHeight="1">
+    <row r="672" ht="12.75" customHeight="1" s="5">
       <c r="A672" t="inlineStr">
         <is>
           <t>1FK708F-4</t>
@@ -12598,7 +12708,7 @@
         </is>
       </c>
     </row>
-    <row r="673" ht="12.75" customHeight="1">
+    <row r="673" ht="12.75" customHeight="1" s="5">
       <c r="A673" t="inlineStr">
         <is>
           <t>1FK708G-4</t>
@@ -12610,7 +12720,7 @@
         </is>
       </c>
     </row>
-    <row r="674" ht="12.75" customHeight="1">
+    <row r="674" ht="12.75" customHeight="1" s="5">
       <c r="A674" t="inlineStr">
         <is>
           <t>1FK708H-4</t>
@@ -12622,7 +12732,7 @@
         </is>
       </c>
     </row>
-    <row r="675" ht="12.75" customHeight="1">
+    <row r="675" ht="12.75" customHeight="1" s="5">
       <c r="A675" t="inlineStr">
         <is>
           <t>1FK708K-4</t>
@@ -12634,7 +12744,7 @@
         </is>
       </c>
     </row>
-    <row r="676" ht="12.75" customHeight="1">
+    <row r="676" ht="12.75" customHeight="1" s="5">
       <c r="A676" t="inlineStr">
         <is>
           <t>1FK708L-4</t>
@@ -12646,10 +12756,10 @@
         </is>
       </c>
     </row>
-    <row r="677" ht="12.75" customHeight="1">
+    <row r="677" ht="12.75" customHeight="1" s="5">
       <c r="A677" t="inlineStr">
         <is>
-          <t>1FK708M-4</t>
+          <t>1FK708E-4</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -12658,10 +12768,10 @@
         </is>
       </c>
     </row>
-    <row r="678" ht="12.75" customHeight="1">
+    <row r="678" ht="12.75" customHeight="1" s="5">
       <c r="A678" t="inlineStr">
         <is>
-          <t>1FK708N-4</t>
+          <t>1FK708A-4</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -12670,7 +12780,7 @@
         </is>
       </c>
     </row>
-    <row r="679" ht="12.75" customHeight="1">
+    <row r="679" ht="12.75" customHeight="1" s="5">
       <c r="A679" t="inlineStr">
         <is>
           <t>1FK708P-4</t>
@@ -12682,7 +12792,7 @@
         </is>
       </c>
     </row>
-    <row r="680" ht="12.75" customHeight="1">
+    <row r="680" ht="12.75" customHeight="1" s="5">
       <c r="A680" t="inlineStr">
         <is>
           <t>1FK708Q-4</t>
@@ -12694,7 +12804,7 @@
         </is>
       </c>
     </row>
-    <row r="681" ht="12.75" customHeight="1">
+    <row r="681" ht="12.75" customHeight="1" s="5">
       <c r="A681" t="inlineStr">
         <is>
           <t>1FK708R-4</t>
@@ -12706,7 +12816,7 @@
         </is>
       </c>
     </row>
-    <row r="682" ht="12.75" customHeight="1">
+    <row r="682" ht="12.75" customHeight="1" s="5">
       <c r="A682" t="inlineStr">
         <is>
           <t>1FK708S-4</t>
@@ -12718,7 +12828,7 @@
         </is>
       </c>
     </row>
-    <row r="683" ht="12.75" customHeight="1">
+    <row r="683" ht="12.75" customHeight="1" s="5">
       <c r="A683" t="inlineStr">
         <is>
           <t>1FK708T-4</t>
@@ -12730,7 +12840,7 @@
         </is>
       </c>
     </row>
-    <row r="684" ht="12.75" customHeight="1">
+    <row r="684" ht="12.75" customHeight="1" s="5">
       <c r="A684" t="inlineStr">
         <is>
           <t>1FK708U-4</t>
@@ -12742,7 +12852,7 @@
         </is>
       </c>
     </row>
-    <row r="685" ht="12.75" customHeight="1">
+    <row r="685" ht="12.75" customHeight="1" s="5">
       <c r="A685" t="inlineStr">
         <is>
           <t>1FK708A-5</t>
@@ -12754,7 +12864,7 @@
         </is>
       </c>
     </row>
-    <row r="686" ht="12.75" customHeight="1">
+    <row r="686" ht="12.75" customHeight="1" s="5">
       <c r="A686" t="inlineStr">
         <is>
           <t>1FK708D-5</t>
@@ -12766,7 +12876,7 @@
         </is>
       </c>
     </row>
-    <row r="687" ht="12.75" customHeight="1">
+    <row r="687" ht="12.75" customHeight="1" s="5">
       <c r="A687" t="inlineStr">
         <is>
           <t>1FK708E-5</t>
@@ -12778,7 +12888,7 @@
         </is>
       </c>
     </row>
-    <row r="688" ht="12.75" customHeight="1">
+    <row r="688" ht="12.75" customHeight="1" s="5">
       <c r="A688" t="inlineStr">
         <is>
           <t>1FK708F-5</t>
@@ -12790,7 +12900,7 @@
         </is>
       </c>
     </row>
-    <row r="689" ht="12.75" customHeight="1">
+    <row r="689" ht="12.75" customHeight="1" s="5">
       <c r="A689" t="inlineStr">
         <is>
           <t>1FK708G-5</t>
@@ -12802,7 +12912,7 @@
         </is>
       </c>
     </row>
-    <row r="690" ht="12.75" customHeight="1">
+    <row r="690" ht="12.75" customHeight="1" s="5">
       <c r="A690" t="inlineStr">
         <is>
           <t>1FK708K-5</t>
@@ -12814,7 +12924,7 @@
         </is>
       </c>
     </row>
-    <row r="691" ht="12.75" customHeight="1">
+    <row r="691" ht="12.75" customHeight="1" s="5">
       <c r="A691" t="inlineStr">
         <is>
           <t>1FK708H-5</t>
@@ -12826,7 +12936,7 @@
         </is>
       </c>
     </row>
-    <row r="692" ht="12.75" customHeight="1">
+    <row r="692" ht="12.75" customHeight="1" s="5">
       <c r="A692" t="inlineStr">
         <is>
           <t>1FK708L-5</t>
@@ -12838,7 +12948,7 @@
         </is>
       </c>
     </row>
-    <row r="693" ht="12.75" customHeight="1">
+    <row r="693" ht="12.75" customHeight="1" s="5">
       <c r="A693" t="inlineStr">
         <is>
           <t>1FK708J-5</t>
@@ -12850,7 +12960,7 @@
         </is>
       </c>
     </row>
-    <row r="694" ht="12.75" customHeight="1">
+    <row r="694" ht="12.75" customHeight="1" s="5">
       <c r="A694" t="inlineStr">
         <is>
           <t>1FK708V-5</t>
@@ -12862,7 +12972,7 @@
         </is>
       </c>
     </row>
-    <row r="695" ht="12.75" customHeight="1">
+    <row r="695" ht="12.75" customHeight="1" s="5">
       <c r="A695" t="inlineStr">
         <is>
           <t>1FK708S-5</t>
@@ -12874,7 +12984,7 @@
         </is>
       </c>
     </row>
-    <row r="696" ht="12.75" customHeight="1">
+    <row r="696" ht="12.75" customHeight="1" s="5">
       <c r="A696" t="inlineStr">
         <is>
           <t>1FK708U-5</t>
@@ -12886,7 +12996,7 @@
         </is>
       </c>
     </row>
-    <row r="697" ht="12.75" customHeight="1">
+    <row r="697" ht="12.75" customHeight="1" s="5">
       <c r="A697" t="inlineStr">
         <is>
           <t>1FK708T-5</t>
@@ -12898,7 +13008,7 @@
         </is>
       </c>
     </row>
-    <row r="698" ht="12.75" customHeight="1">
+    <row r="698" ht="12.75" customHeight="1" s="5">
       <c r="A698" t="inlineStr">
         <is>
           <t>1FK708P-5</t>
@@ -12910,7 +13020,7 @@
         </is>
       </c>
     </row>
-    <row r="699" ht="12.75" customHeight="1">
+    <row r="699" ht="12.75" customHeight="1" s="5">
       <c r="A699" t="inlineStr">
         <is>
           <t>1FK708A-7</t>
@@ -12922,7 +13032,7 @@
         </is>
       </c>
     </row>
-    <row r="700" ht="12.75" customHeight="1">
+    <row r="700" ht="12.75" customHeight="1" s="5">
       <c r="A700" t="inlineStr">
         <is>
           <t>1FK708D-7</t>
@@ -12934,7 +13044,7 @@
         </is>
       </c>
     </row>
-    <row r="701" ht="12.75" customHeight="1">
+    <row r="701" ht="12.75" customHeight="1" s="5">
       <c r="A701" t="inlineStr">
         <is>
           <t>1FK708E-7</t>
@@ -12946,7 +13056,7 @@
         </is>
       </c>
     </row>
-    <row r="702" ht="12.75" customHeight="1">
+    <row r="702" ht="12.75" customHeight="1" s="5">
       <c r="A702" t="inlineStr">
         <is>
           <t>1FK708F-7</t>
@@ -12958,7 +13068,7 @@
         </is>
       </c>
     </row>
-    <row r="703" ht="12.75" customHeight="1">
+    <row r="703" ht="12.75" customHeight="1" s="5">
       <c r="A703" t="inlineStr">
         <is>
           <t>1FK708G-7</t>
@@ -12970,7 +13080,7 @@
         </is>
       </c>
     </row>
-    <row r="704" ht="12.75" customHeight="1">
+    <row r="704" ht="12.75" customHeight="1" s="5">
       <c r="A704" t="inlineStr">
         <is>
           <t>1FK708K-7</t>
@@ -12982,7 +13092,7 @@
         </is>
       </c>
     </row>
-    <row r="705" ht="12.75" customHeight="1">
+    <row r="705" ht="12.75" customHeight="1" s="5">
       <c r="A705" t="inlineStr">
         <is>
           <t>1FK708H-7</t>
@@ -12994,7 +13104,7 @@
         </is>
       </c>
     </row>
-    <row r="706" ht="12.75" customHeight="1">
+    <row r="706" ht="12.75" customHeight="1" s="5">
       <c r="A706" t="inlineStr">
         <is>
           <t>1FK708L-7</t>
@@ -13006,7 +13116,7 @@
         </is>
       </c>
     </row>
-    <row r="707" ht="12.75" customHeight="1">
+    <row r="707" ht="12.75" customHeight="1" s="5">
       <c r="A707" t="inlineStr">
         <is>
           <t>1FK708J-7</t>
@@ -13018,7 +13128,7 @@
         </is>
       </c>
     </row>
-    <row r="708" ht="12.75" customHeight="1">
+    <row r="708" ht="12.75" customHeight="1" s="5">
       <c r="A708" t="inlineStr">
         <is>
           <t>1FK708V-7</t>
@@ -13030,7 +13140,7 @@
         </is>
       </c>
     </row>
-    <row r="709" ht="12.75" customHeight="1">
+    <row r="709" ht="12.75" customHeight="1" s="5">
       <c r="A709" t="inlineStr">
         <is>
           <t>1FK708S-7</t>
@@ -13042,7 +13152,7 @@
         </is>
       </c>
     </row>
-    <row r="710" ht="12.75" customHeight="1">
+    <row r="710" ht="12.75" customHeight="1" s="5">
       <c r="A710" t="inlineStr">
         <is>
           <t>1FK708U-7</t>
@@ -13054,7 +13164,7 @@
         </is>
       </c>
     </row>
-    <row r="711" ht="12.75" customHeight="1">
+    <row r="711" ht="12.75" customHeight="1" s="5">
       <c r="A711" t="inlineStr">
         <is>
           <t>1FK708T-7</t>
@@ -13066,7 +13176,7 @@
         </is>
       </c>
     </row>
-    <row r="712" ht="12.75" customHeight="1">
+    <row r="712" ht="12.75" customHeight="1" s="5">
       <c r="A712" t="inlineStr">
         <is>
           <t>1FK708P-7</t>
@@ -13078,7 +13188,7 @@
         </is>
       </c>
     </row>
-    <row r="713" ht="12.75" customHeight="1">
+    <row r="713" ht="12.75" customHeight="1" s="5">
       <c r="A713" t="inlineStr">
         <is>
           <t>1FK710B-2</t>
@@ -13090,7 +13200,7 @@
         </is>
       </c>
     </row>
-    <row r="714" ht="12.75" customHeight="1">
+    <row r="714" ht="12.75" customHeight="1" s="5">
       <c r="A714" t="inlineStr">
         <is>
           <t>1FK710C-2</t>
@@ -13102,7 +13212,7 @@
         </is>
       </c>
     </row>
-    <row r="715" ht="12.75" customHeight="1">
+    <row r="715" ht="12.75" customHeight="1" s="5">
       <c r="A715" t="inlineStr">
         <is>
           <t>1FK710D-2</t>
@@ -13114,7 +13224,7 @@
         </is>
       </c>
     </row>
-    <row r="716" ht="12.75" customHeight="1">
+    <row r="716" ht="12.75" customHeight="1" s="5">
       <c r="A716" t="inlineStr">
         <is>
           <t>1FK710F-2</t>
@@ -13126,7 +13236,7 @@
         </is>
       </c>
     </row>
-    <row r="717" ht="12.75" customHeight="1">
+    <row r="717" ht="12.75" customHeight="1" s="5">
       <c r="A717" t="inlineStr">
         <is>
           <t>1FK710G-2</t>
@@ -13138,7 +13248,7 @@
         </is>
       </c>
     </row>
-    <row r="718" ht="12.75" customHeight="1">
+    <row r="718" ht="12.75" customHeight="1" s="5">
       <c r="A718" t="inlineStr">
         <is>
           <t>1FK710H-2</t>
@@ -13150,7 +13260,7 @@
         </is>
       </c>
     </row>
-    <row r="719" ht="12.75" customHeight="1">
+    <row r="719" ht="12.75" customHeight="1" s="5">
       <c r="A719" t="inlineStr">
         <is>
           <t>1FK710K-2</t>
@@ -13162,7 +13272,7 @@
         </is>
       </c>
     </row>
-    <row r="720" ht="12.75" customHeight="1">
+    <row r="720" ht="12.75" customHeight="1" s="5">
       <c r="A720" t="inlineStr">
         <is>
           <t>1FK710L-2</t>
@@ -13174,10 +13284,10 @@
         </is>
       </c>
     </row>
-    <row r="721" ht="12.75" customHeight="1">
+    <row r="721" ht="12.75" customHeight="1" s="5">
       <c r="A721" t="inlineStr">
         <is>
-          <t>1FK710M-2</t>
+          <t>1FK710E-2</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -13186,10 +13296,10 @@
         </is>
       </c>
     </row>
-    <row r="722" ht="12.75" customHeight="1">
+    <row r="722" ht="12.75" customHeight="1" s="5">
       <c r="A722" t="inlineStr">
         <is>
-          <t>1FK710N-2</t>
+          <t>1FK710A-2</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -13198,7 +13308,7 @@
         </is>
       </c>
     </row>
-    <row r="723" ht="12.75" customHeight="1">
+    <row r="723" ht="12.75" customHeight="1" s="5">
       <c r="A723" t="inlineStr">
         <is>
           <t>1FK710P-2</t>
@@ -13210,7 +13320,7 @@
         </is>
       </c>
     </row>
-    <row r="724" ht="12.75" customHeight="1">
+    <row r="724" ht="12.75" customHeight="1" s="5">
       <c r="A724" t="inlineStr">
         <is>
           <t>1FK710Q-2</t>
@@ -13222,7 +13332,7 @@
         </is>
       </c>
     </row>
-    <row r="725" ht="12.75" customHeight="1">
+    <row r="725" ht="12.75" customHeight="1" s="5">
       <c r="A725" t="inlineStr">
         <is>
           <t>1FK710R-2</t>
@@ -13234,7 +13344,7 @@
         </is>
       </c>
     </row>
-    <row r="726" ht="12.75" customHeight="1">
+    <row r="726" ht="12.75" customHeight="1" s="5">
       <c r="A726" t="inlineStr">
         <is>
           <t>1FK710S-2</t>
@@ -13246,7 +13356,7 @@
         </is>
       </c>
     </row>
-    <row r="727" ht="12.75" customHeight="1">
+    <row r="727" ht="12.75" customHeight="1" s="5">
       <c r="A727" t="inlineStr">
         <is>
           <t>1FK710T-2</t>
@@ -13258,7 +13368,7 @@
         </is>
       </c>
     </row>
-    <row r="728" ht="12.75" customHeight="1">
+    <row r="728" ht="12.75" customHeight="1" s="5">
       <c r="A728" t="inlineStr">
         <is>
           <t>1FK710U-2</t>
@@ -13270,7 +13380,7 @@
         </is>
       </c>
     </row>
-    <row r="729" ht="12.75" customHeight="1">
+    <row r="729" ht="12.75" customHeight="1" s="5">
       <c r="A729" t="inlineStr">
         <is>
           <t>1FK710B-3</t>
@@ -13282,7 +13392,7 @@
         </is>
       </c>
     </row>
-    <row r="730" ht="12.75" customHeight="1">
+    <row r="730" ht="12.75" customHeight="1" s="5">
       <c r="A730" t="inlineStr">
         <is>
           <t>1FK710C-3</t>
@@ -13294,7 +13404,7 @@
         </is>
       </c>
     </row>
-    <row r="731" ht="12.75" customHeight="1">
+    <row r="731" ht="12.75" customHeight="1" s="5">
       <c r="A731" t="inlineStr">
         <is>
           <t>1FK710D-3</t>
@@ -13306,7 +13416,7 @@
         </is>
       </c>
     </row>
-    <row r="732" ht="12.75" customHeight="1">
+    <row r="732" ht="12.75" customHeight="1" s="5">
       <c r="A732" t="inlineStr">
         <is>
           <t>1FK710F-3</t>
@@ -13318,7 +13428,7 @@
         </is>
       </c>
     </row>
-    <row r="733" ht="12.75" customHeight="1">
+    <row r="733" ht="12.75" customHeight="1" s="5">
       <c r="A733" t="inlineStr">
         <is>
           <t>1FK710G-3</t>
@@ -13330,7 +13440,7 @@
         </is>
       </c>
     </row>
-    <row r="734" ht="12.75" customHeight="1">
+    <row r="734" ht="12.75" customHeight="1" s="5">
       <c r="A734" t="inlineStr">
         <is>
           <t>1FK710H-3</t>
@@ -13342,7 +13452,7 @@
         </is>
       </c>
     </row>
-    <row r="735" ht="12.75" customHeight="1">
+    <row r="735" ht="12.75" customHeight="1" s="5">
       <c r="A735" t="inlineStr">
         <is>
           <t>1FK710K-3</t>
@@ -13354,7 +13464,7 @@
         </is>
       </c>
     </row>
-    <row r="736" ht="12.75" customHeight="1">
+    <row r="736" ht="12.75" customHeight="1" s="5">
       <c r="A736" t="inlineStr">
         <is>
           <t>1FK710L-3</t>
@@ -13366,10 +13476,10 @@
         </is>
       </c>
     </row>
-    <row r="737" ht="12.75" customHeight="1">
+    <row r="737" ht="12.75" customHeight="1" s="5">
       <c r="A737" t="inlineStr">
         <is>
-          <t>1FK710M-3</t>
+          <t>1FK710E-3</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -13378,10 +13488,10 @@
         </is>
       </c>
     </row>
-    <row r="738" ht="12.75" customHeight="1">
+    <row r="738" ht="12.75" customHeight="1" s="5">
       <c r="A738" t="inlineStr">
         <is>
-          <t>1FK710N-3</t>
+          <t>1FK710A-3</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -13390,7 +13500,7 @@
         </is>
       </c>
     </row>
-    <row r="739" ht="12.75" customHeight="1">
+    <row r="739" ht="12.75" customHeight="1" s="5">
       <c r="A739" t="inlineStr">
         <is>
           <t>1FK710P-3</t>
@@ -13402,7 +13512,7 @@
         </is>
       </c>
     </row>
-    <row r="740" ht="12.75" customHeight="1">
+    <row r="740" ht="12.75" customHeight="1" s="5">
       <c r="A740" t="inlineStr">
         <is>
           <t>1FK710Q-3</t>
@@ -13414,7 +13524,7 @@
         </is>
       </c>
     </row>
-    <row r="741" ht="12.75" customHeight="1">
+    <row r="741" ht="12.75" customHeight="1" s="5">
       <c r="A741" t="inlineStr">
         <is>
           <t>1FK710R-3</t>
@@ -13426,7 +13536,7 @@
         </is>
       </c>
     </row>
-    <row r="742" ht="12.75" customHeight="1">
+    <row r="742" ht="12.75" customHeight="1" s="5">
       <c r="A742" t="inlineStr">
         <is>
           <t>1FK710S-3</t>
@@ -13438,7 +13548,7 @@
         </is>
       </c>
     </row>
-    <row r="743" ht="12.75" customHeight="1">
+    <row r="743" ht="12.75" customHeight="1" s="5">
       <c r="A743" t="inlineStr">
         <is>
           <t>1FK710T-3</t>
@@ -13450,7 +13560,7 @@
         </is>
       </c>
     </row>
-    <row r="744" ht="12.75" customHeight="1">
+    <row r="744" ht="12.75" customHeight="1" s="5">
       <c r="A744" t="inlineStr">
         <is>
           <t>1FK710U-3</t>
@@ -13462,7 +13572,7 @@
         </is>
       </c>
     </row>
-    <row r="745" ht="12.75" customHeight="1">
+    <row r="745" ht="12.75" customHeight="1" s="5">
       <c r="A745" t="inlineStr">
         <is>
           <t>1FK710B-4</t>
@@ -13474,7 +13584,7 @@
         </is>
       </c>
     </row>
-    <row r="746" ht="12.75" customHeight="1">
+    <row r="746" ht="12.75" customHeight="1" s="5">
       <c r="A746" t="inlineStr">
         <is>
           <t>1FK710C-4</t>
@@ -13486,7 +13596,7 @@
         </is>
       </c>
     </row>
-    <row r="747" ht="12.75" customHeight="1">
+    <row r="747" ht="12.75" customHeight="1" s="5">
       <c r="A747" t="inlineStr">
         <is>
           <t>1FK710D-4</t>
@@ -13498,7 +13608,7 @@
         </is>
       </c>
     </row>
-    <row r="748" ht="12.75" customHeight="1">
+    <row r="748" ht="12.75" customHeight="1" s="5">
       <c r="A748" t="inlineStr">
         <is>
           <t>1FK710F-4</t>
@@ -13510,7 +13620,7 @@
         </is>
       </c>
     </row>
-    <row r="749" ht="12.75" customHeight="1">
+    <row r="749" ht="12.75" customHeight="1" s="5">
       <c r="A749" t="inlineStr">
         <is>
           <t>1FK710G-4</t>
@@ -13522,7 +13632,7 @@
         </is>
       </c>
     </row>
-    <row r="750" ht="12.75" customHeight="1">
+    <row r="750" ht="12.75" customHeight="1" s="5">
       <c r="A750" t="inlineStr">
         <is>
           <t>1FK710H-4</t>
@@ -13534,7 +13644,7 @@
         </is>
       </c>
     </row>
-    <row r="751" ht="12.75" customHeight="1">
+    <row r="751" ht="12.75" customHeight="1" s="5">
       <c r="A751" t="inlineStr">
         <is>
           <t>1FK710K-4</t>
@@ -13546,7 +13656,7 @@
         </is>
       </c>
     </row>
-    <row r="752" ht="12.75" customHeight="1">
+    <row r="752" ht="12.75" customHeight="1" s="5">
       <c r="A752" t="inlineStr">
         <is>
           <t>1FK710L-4</t>
@@ -13558,10 +13668,10 @@
         </is>
       </c>
     </row>
-    <row r="753" ht="12.75" customHeight="1">
+    <row r="753" ht="12.75" customHeight="1" s="5">
       <c r="A753" t="inlineStr">
         <is>
-          <t>1FK710M-4</t>
+          <t>1FK710E-4</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -13570,10 +13680,10 @@
         </is>
       </c>
     </row>
-    <row r="754" ht="12.75" customHeight="1">
+    <row r="754" ht="12.75" customHeight="1" s="5">
       <c r="A754" t="inlineStr">
         <is>
-          <t>1FK710N-4</t>
+          <t>1FK710A-4</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -13582,7 +13692,7 @@
         </is>
       </c>
     </row>
-    <row r="755" ht="12.75" customHeight="1">
+    <row r="755" ht="12.75" customHeight="1" s="5">
       <c r="A755" t="inlineStr">
         <is>
           <t>1FK710P-4</t>
@@ -13594,7 +13704,7 @@
         </is>
       </c>
     </row>
-    <row r="756" ht="12.75" customHeight="1">
+    <row r="756" ht="12.75" customHeight="1" s="5">
       <c r="A756" t="inlineStr">
         <is>
           <t>1FK710Q-4</t>
@@ -13606,7 +13716,7 @@
         </is>
       </c>
     </row>
-    <row r="757" ht="12.75" customHeight="1">
+    <row r="757" ht="12.75" customHeight="1" s="5">
       <c r="A757" t="inlineStr">
         <is>
           <t>1FK710R-4</t>
@@ -13618,7 +13728,7 @@
         </is>
       </c>
     </row>
-    <row r="758" ht="12.75" customHeight="1">
+    <row r="758" ht="12.75" customHeight="1" s="5">
       <c r="A758" t="inlineStr">
         <is>
           <t>1FK710S-4</t>
@@ -13630,7 +13740,7 @@
         </is>
       </c>
     </row>
-    <row r="759" ht="12.75" customHeight="1">
+    <row r="759" ht="12.75" customHeight="1" s="5">
       <c r="A759" t="inlineStr">
         <is>
           <t>1FK710T-4</t>
@@ -13642,7 +13752,7 @@
         </is>
       </c>
     </row>
-    <row r="760" ht="12.75" customHeight="1">
+    <row r="760" ht="12.75" customHeight="1" s="5">
       <c r="A760" t="inlineStr">
         <is>
           <t>1FK710U-4</t>
@@ -13654,7 +13764,7 @@
         </is>
       </c>
     </row>
-    <row r="761" ht="12.75" customHeight="1">
+    <row r="761" ht="12.75" customHeight="1" s="5">
       <c r="A761" t="inlineStr">
         <is>
           <t>1FK710A-5</t>
@@ -13666,7 +13776,7 @@
         </is>
       </c>
     </row>
-    <row r="762" ht="12.75" customHeight="1">
+    <row r="762" ht="12.75" customHeight="1" s="5">
       <c r="A762" t="inlineStr">
         <is>
           <t>1FK710D-5</t>
@@ -13678,7 +13788,7 @@
         </is>
       </c>
     </row>
-    <row r="763" ht="12.75" customHeight="1">
+    <row r="763" ht="12.75" customHeight="1" s="5">
       <c r="A763" t="inlineStr">
         <is>
           <t>1FK710E-5</t>
@@ -13690,7 +13800,7 @@
         </is>
       </c>
     </row>
-    <row r="764" ht="12.75" customHeight="1">
+    <row r="764" ht="12.75" customHeight="1" s="5">
       <c r="A764" t="inlineStr">
         <is>
           <t>1FK710F-5</t>
@@ -13702,7 +13812,7 @@
         </is>
       </c>
     </row>
-    <row r="765" ht="12.75" customHeight="1">
+    <row r="765" ht="12.75" customHeight="1" s="5">
       <c r="A765" t="inlineStr">
         <is>
           <t>1FK710G-5</t>
@@ -13714,7 +13824,7 @@
         </is>
       </c>
     </row>
-    <row r="766" ht="12.75" customHeight="1">
+    <row r="766" ht="12.75" customHeight="1" s="5">
       <c r="A766" t="inlineStr">
         <is>
           <t>1FK710K-5</t>
@@ -13726,7 +13836,7 @@
         </is>
       </c>
     </row>
-    <row r="767" ht="12.75" customHeight="1">
+    <row r="767" ht="12.75" customHeight="1" s="5">
       <c r="A767" t="inlineStr">
         <is>
           <t>1FK710H-5</t>
@@ -13738,7 +13848,7 @@
         </is>
       </c>
     </row>
-    <row r="768" ht="12.75" customHeight="1">
+    <row r="768" ht="12.75" customHeight="1" s="5">
       <c r="A768" t="inlineStr">
         <is>
           <t>1FK710L-5</t>
@@ -13750,7 +13860,7 @@
         </is>
       </c>
     </row>
-    <row r="769" ht="12.75" customHeight="1">
+    <row r="769" ht="12.75" customHeight="1" s="5">
       <c r="A769" t="inlineStr">
         <is>
           <t>1FK710J-5</t>
@@ -13762,7 +13872,7 @@
         </is>
       </c>
     </row>
-    <row r="770" ht="12.75" customHeight="1">
+    <row r="770" ht="12.75" customHeight="1" s="5">
       <c r="A770" t="inlineStr">
         <is>
           <t>1FK710V-5</t>
@@ -13774,7 +13884,7 @@
         </is>
       </c>
     </row>
-    <row r="771" ht="12.75" customHeight="1">
+    <row r="771" ht="12.75" customHeight="1" s="5">
       <c r="A771" t="inlineStr">
         <is>
           <t>1FK710S-5</t>
@@ -13786,7 +13896,7 @@
         </is>
       </c>
     </row>
-    <row r="772" ht="12.75" customHeight="1">
+    <row r="772" ht="12.75" customHeight="1" s="5">
       <c r="A772" t="inlineStr">
         <is>
           <t>1FK710U-5</t>
@@ -13798,7 +13908,7 @@
         </is>
       </c>
     </row>
-    <row r="773" ht="12.75" customHeight="1">
+    <row r="773" ht="12.75" customHeight="1" s="5">
       <c r="A773" t="inlineStr">
         <is>
           <t>1FK710T-5</t>
@@ -13810,7 +13920,7 @@
         </is>
       </c>
     </row>
-    <row r="774" ht="12.75" customHeight="1">
+    <row r="774" ht="12.75" customHeight="1" s="5">
       <c r="A774" t="inlineStr">
         <is>
           <t>1FK710P-5</t>
@@ -13822,7 +13932,7 @@
         </is>
       </c>
     </row>
-    <row r="775" ht="12.75" customHeight="1">
+    <row r="775" ht="12.75" customHeight="1" s="5">
       <c r="A775" t="inlineStr">
         <is>
           <t>1FK710A-7</t>
@@ -13834,7 +13944,7 @@
         </is>
       </c>
     </row>
-    <row r="776" ht="12.75" customHeight="1">
+    <row r="776" ht="12.75" customHeight="1" s="5">
       <c r="A776" t="inlineStr">
         <is>
           <t>1FK710D-7</t>
@@ -13846,7 +13956,7 @@
         </is>
       </c>
     </row>
-    <row r="777" ht="12.75" customHeight="1">
+    <row r="777" ht="12.75" customHeight="1" s="5">
       <c r="A777" t="inlineStr">
         <is>
           <t>1FK710E-7</t>
@@ -13858,7 +13968,7 @@
         </is>
       </c>
     </row>
-    <row r="778" ht="12.75" customHeight="1">
+    <row r="778" ht="12.75" customHeight="1" s="5">
       <c r="A778" t="inlineStr">
         <is>
           <t>1FK710F-7</t>
@@ -13870,7 +13980,7 @@
         </is>
       </c>
     </row>
-    <row r="779" ht="12.75" customHeight="1">
+    <row r="779" ht="12.75" customHeight="1" s="5">
       <c r="A779" t="inlineStr">
         <is>
           <t>1FK710G-7</t>
@@ -13882,7 +13992,7 @@
         </is>
       </c>
     </row>
-    <row r="780" ht="12.75" customHeight="1">
+    <row r="780" ht="12.75" customHeight="1" s="5">
       <c r="A780" t="inlineStr">
         <is>
           <t>1FK710K-7</t>
@@ -13894,7 +14004,7 @@
         </is>
       </c>
     </row>
-    <row r="781" ht="12.75" customHeight="1">
+    <row r="781" ht="12.75" customHeight="1" s="5">
       <c r="A781" t="inlineStr">
         <is>
           <t>1FK710H-7</t>
@@ -13906,7 +14016,7 @@
         </is>
       </c>
     </row>
-    <row r="782" ht="12.75" customHeight="1">
+    <row r="782" ht="12.75" customHeight="1" s="5">
       <c r="A782" t="inlineStr">
         <is>
           <t>1FK710L-7</t>
@@ -13918,7 +14028,7 @@
         </is>
       </c>
     </row>
-    <row r="783" ht="12.75" customHeight="1">
+    <row r="783" ht="12.75" customHeight="1" s="5">
       <c r="A783" t="inlineStr">
         <is>
           <t>1FK710J-7</t>
@@ -13930,7 +14040,7 @@
         </is>
       </c>
     </row>
-    <row r="784" ht="12.75" customHeight="1">
+    <row r="784" ht="12.75" customHeight="1" s="5">
       <c r="A784" t="inlineStr">
         <is>
           <t>1FK710V-7</t>
@@ -13942,7 +14052,7 @@
         </is>
       </c>
     </row>
-    <row r="785" ht="12.75" customHeight="1">
+    <row r="785" ht="12.75" customHeight="1" s="5">
       <c r="A785" t="inlineStr">
         <is>
           <t>1FK710S-7</t>
@@ -13954,7 +14064,7 @@
         </is>
       </c>
     </row>
-    <row r="786" ht="12.75" customHeight="1">
+    <row r="786" ht="12.75" customHeight="1" s="5">
       <c r="A786" t="inlineStr">
         <is>
           <t>1FK710U-7</t>
@@ -13966,7 +14076,7 @@
         </is>
       </c>
     </row>
-    <row r="787" ht="12.75" customHeight="1">
+    <row r="787" ht="12.75" customHeight="1" s="5">
       <c r="A787" t="inlineStr">
         <is>
           <t>1FK710T-7</t>
@@ -13978,7 +14088,7 @@
         </is>
       </c>
     </row>
-    <row r="788" ht="12.75" customHeight="1">
+    <row r="788" ht="12.75" customHeight="1" s="5">
       <c r="A788" t="inlineStr">
         <is>
           <t>1FK710P-7</t>
@@ -13990,7 +14100,7 @@
         </is>
       </c>
     </row>
-    <row r="789" ht="12.75" customHeight="1">
+    <row r="789" ht="12.75" customHeight="1" s="5">
       <c r="A789" t="inlineStr">
         <is>
           <t>1FT703B-1</t>
@@ -14002,7 +14112,7 @@
         </is>
       </c>
     </row>
-    <row r="790" ht="12.75" customHeight="1">
+    <row r="790" ht="12.75" customHeight="1" s="5">
       <c r="A790" t="inlineStr">
         <is>
           <t>1FT703C-1</t>
@@ -14014,7 +14124,7 @@
         </is>
       </c>
     </row>
-    <row r="791" ht="12.75" customHeight="1">
+    <row r="791" ht="12.75" customHeight="1" s="5">
       <c r="A791" t="inlineStr">
         <is>
           <t>1FT703D-1</t>
@@ -14026,7 +14136,7 @@
         </is>
       </c>
     </row>
-    <row r="792" ht="12.75" customHeight="1">
+    <row r="792" ht="12.75" customHeight="1" s="5">
       <c r="A792" t="inlineStr">
         <is>
           <t>1FT703F-1</t>
@@ -14038,7 +14148,7 @@
         </is>
       </c>
     </row>
-    <row r="793" ht="12.75" customHeight="1">
+    <row r="793" ht="12.75" customHeight="1" s="5">
       <c r="A793" t="inlineStr">
         <is>
           <t>1FT703N-1</t>
@@ -14050,7 +14160,7 @@
         </is>
       </c>
     </row>
-    <row r="794" ht="12.75" customHeight="1">
+    <row r="794" ht="12.75" customHeight="1" s="5">
       <c r="A794" t="inlineStr">
         <is>
           <t>1FT703M-1</t>
@@ -14062,7 +14172,7 @@
         </is>
       </c>
     </row>
-    <row r="795" ht="12.75" customHeight="1">
+    <row r="795" ht="12.75" customHeight="1" s="5">
       <c r="A795" t="inlineStr">
         <is>
           <t>1FT703B-5</t>
@@ -14074,7 +14184,7 @@
         </is>
       </c>
     </row>
-    <row r="796" ht="12.75" customHeight="1">
+    <row r="796" ht="12.75" customHeight="1" s="5">
       <c r="A796" t="inlineStr">
         <is>
           <t>1FT703C-5</t>
@@ -14086,7 +14196,7 @@
         </is>
       </c>
     </row>
-    <row r="797" ht="12.75" customHeight="1">
+    <row r="797" ht="12.75" customHeight="1" s="5">
       <c r="A797" t="inlineStr">
         <is>
           <t>1FT703D-5</t>
@@ -14098,7 +14208,7 @@
         </is>
       </c>
     </row>
-    <row r="798" ht="12.75" customHeight="1">
+    <row r="798" ht="12.75" customHeight="1" s="5">
       <c r="A798" t="inlineStr">
         <is>
           <t>1FT703F-5</t>
@@ -14110,7 +14220,7 @@
         </is>
       </c>
     </row>
-    <row r="799" ht="12.75" customHeight="1">
+    <row r="799" ht="12.75" customHeight="1" s="5">
       <c r="A799" t="inlineStr">
         <is>
           <t>1FT703N-5</t>
@@ -14122,7 +14232,7 @@
         </is>
       </c>
     </row>
-    <row r="800" ht="12.75" customHeight="1">
+    <row r="800" ht="12.75" customHeight="1" s="5">
       <c r="A800" t="inlineStr">
         <is>
           <t>1FT703M-5</t>
@@ -14134,7 +14244,7 @@
         </is>
       </c>
     </row>
-    <row r="801" ht="12.75" customHeight="1">
+    <row r="801" ht="12.75" customHeight="1" s="5">
       <c r="A801" t="inlineStr">
         <is>
           <t>1FT703B-7</t>
@@ -14146,7 +14256,7 @@
         </is>
       </c>
     </row>
-    <row r="802" ht="12.75" customHeight="1">
+    <row r="802" ht="12.75" customHeight="1" s="5">
       <c r="A802" t="inlineStr">
         <is>
           <t>1FT703C-7</t>
@@ -14158,7 +14268,7 @@
         </is>
       </c>
     </row>
-    <row r="803" ht="12.75" customHeight="1">
+    <row r="803" ht="12.75" customHeight="1" s="5">
       <c r="A803" t="inlineStr">
         <is>
           <t>1FT703D-7</t>
@@ -14170,7 +14280,7 @@
         </is>
       </c>
     </row>
-    <row r="804" ht="12.75" customHeight="1">
+    <row r="804" ht="12.75" customHeight="1" s="5">
       <c r="A804" t="inlineStr">
         <is>
           <t>1FT703F-7</t>
@@ -14182,7 +14292,7 @@
         </is>
       </c>
     </row>
-    <row r="805" ht="12.75" customHeight="1">
+    <row r="805" ht="12.75" customHeight="1" s="5">
       <c r="A805" t="inlineStr">
         <is>
           <t>1FT703N-7</t>
@@ -14194,7 +14304,7 @@
         </is>
       </c>
     </row>
-    <row r="806" ht="12.75" customHeight="1">
+    <row r="806" ht="12.75" customHeight="1" s="5">
       <c r="A806" t="inlineStr">
         <is>
           <t>1FT703M-7</t>
@@ -14206,7 +14316,7 @@
         </is>
       </c>
     </row>
-    <row r="807" ht="12.75" customHeight="1">
+    <row r="807" ht="12.75" customHeight="1" s="5">
       <c r="A807" t="inlineStr">
         <is>
           <t>1FT704B-1</t>
@@ -14218,7 +14328,7 @@
         </is>
       </c>
     </row>
-    <row r="808" ht="12.75" customHeight="1">
+    <row r="808" ht="12.75" customHeight="1" s="5">
       <c r="A808" t="inlineStr">
         <is>
           <t>1FT704C-1</t>
@@ -14230,7 +14340,7 @@
         </is>
       </c>
     </row>
-    <row r="809" ht="12.75" customHeight="1">
+    <row r="809" ht="12.75" customHeight="1" s="5">
       <c r="A809" t="inlineStr">
         <is>
           <t>1FT704D-1</t>
@@ -14242,7 +14352,7 @@
         </is>
       </c>
     </row>
-    <row r="810" ht="12.75" customHeight="1">
+    <row r="810" ht="12.75" customHeight="1" s="5">
       <c r="A810" t="inlineStr">
         <is>
           <t>1FT704F-1</t>
@@ -14254,7 +14364,7 @@
         </is>
       </c>
     </row>
-    <row r="811" ht="12.75" customHeight="1">
+    <row r="811" ht="12.75" customHeight="1" s="5">
       <c r="A811" t="inlineStr">
         <is>
           <t>1FT704N-1</t>
@@ -14266,7 +14376,7 @@
         </is>
       </c>
     </row>
-    <row r="812" ht="12.75" customHeight="1">
+    <row r="812" ht="12.75" customHeight="1" s="5">
       <c r="A812" t="inlineStr">
         <is>
           <t>1FT704M-1</t>
@@ -14278,7 +14388,7 @@
         </is>
       </c>
     </row>
-    <row r="813" ht="12.75" customHeight="1">
+    <row r="813" ht="12.75" customHeight="1" s="5">
       <c r="A813" t="inlineStr">
         <is>
           <t>1FT704B-5</t>
@@ -14290,7 +14400,7 @@
         </is>
       </c>
     </row>
-    <row r="814" ht="12.75" customHeight="1">
+    <row r="814" ht="12.75" customHeight="1" s="5">
       <c r="A814" t="inlineStr">
         <is>
           <t>1FT704C-5</t>
@@ -14302,7 +14412,7 @@
         </is>
       </c>
     </row>
-    <row r="815" ht="12.75" customHeight="1">
+    <row r="815" ht="12.75" customHeight="1" s="5">
       <c r="A815" t="inlineStr">
         <is>
           <t>1FT704D-5</t>
@@ -14314,7 +14424,7 @@
         </is>
       </c>
     </row>
-    <row r="816" ht="12.75" customHeight="1">
+    <row r="816" ht="12.75" customHeight="1" s="5">
       <c r="A816" t="inlineStr">
         <is>
           <t>1FT704F-5</t>
@@ -14326,7 +14436,7 @@
         </is>
       </c>
     </row>
-    <row r="817" ht="12.75" customHeight="1">
+    <row r="817" ht="12.75" customHeight="1" s="5">
       <c r="A817" t="inlineStr">
         <is>
           <t>1FT704N-5</t>
@@ -14338,7 +14448,7 @@
         </is>
       </c>
     </row>
-    <row r="818" ht="12.75" customHeight="1">
+    <row r="818" ht="12.75" customHeight="1" s="5">
       <c r="A818" t="inlineStr">
         <is>
           <t>1FT704M-5</t>
@@ -14350,7 +14460,7 @@
         </is>
       </c>
     </row>
-    <row r="819" ht="12.75" customHeight="1">
+    <row r="819" ht="12.75" customHeight="1" s="5">
       <c r="A819" t="inlineStr">
         <is>
           <t>1FT704B-7</t>
@@ -14362,7 +14472,7 @@
         </is>
       </c>
     </row>
-    <row r="820" ht="12.75" customHeight="1">
+    <row r="820" ht="12.75" customHeight="1" s="5">
       <c r="A820" t="inlineStr">
         <is>
           <t>1FT704C-7</t>
@@ -14374,7 +14484,7 @@
         </is>
       </c>
     </row>
-    <row r="821" ht="12.75" customHeight="1">
+    <row r="821" ht="12.75" customHeight="1" s="5">
       <c r="A821" t="inlineStr">
         <is>
           <t>1FT704D-7</t>
@@ -14386,7 +14496,7 @@
         </is>
       </c>
     </row>
-    <row r="822" ht="12.75" customHeight="1">
+    <row r="822" ht="12.75" customHeight="1" s="5">
       <c r="A822" t="inlineStr">
         <is>
           <t>1FT704F-7</t>
@@ -14398,7 +14508,7 @@
         </is>
       </c>
     </row>
-    <row r="823" ht="12.75" customHeight="1">
+    <row r="823" ht="12.75" customHeight="1" s="5">
       <c r="A823" t="inlineStr">
         <is>
           <t>1FT704N-7</t>
@@ -14410,7 +14520,7 @@
         </is>
       </c>
     </row>
-    <row r="824" ht="12.75" customHeight="1">
+    <row r="824" ht="12.75" customHeight="1" s="5">
       <c r="A824" t="inlineStr">
         <is>
           <t>1FT704M-7</t>
@@ -14422,7 +14532,7 @@
         </is>
       </c>
     </row>
-    <row r="825" ht="12.75" customHeight="1">
+    <row r="825" ht="12.75" customHeight="1" s="5">
       <c r="A825" t="inlineStr">
         <is>
           <t>1FT706B-1</t>
@@ -14434,7 +14544,7 @@
         </is>
       </c>
     </row>
-    <row r="826" ht="12.75" customHeight="1">
+    <row r="826" ht="12.75" customHeight="1" s="5">
       <c r="A826" t="inlineStr">
         <is>
           <t>1FT706C-1</t>
@@ -14446,7 +14556,7 @@
         </is>
       </c>
     </row>
-    <row r="827" ht="12.75" customHeight="1">
+    <row r="827" ht="12.75" customHeight="1" s="5">
       <c r="A827" t="inlineStr">
         <is>
           <t>1FT706D-1</t>
@@ -14458,7 +14568,7 @@
         </is>
       </c>
     </row>
-    <row r="828" ht="12.75" customHeight="1">
+    <row r="828" ht="12.75" customHeight="1" s="5">
       <c r="A828" t="inlineStr">
         <is>
           <t>1FT706F-1</t>
@@ -14470,7 +14580,7 @@
         </is>
       </c>
     </row>
-    <row r="829" ht="12.75" customHeight="1">
+    <row r="829" ht="12.75" customHeight="1" s="5">
       <c r="A829" t="inlineStr">
         <is>
           <t>1FT706N-1</t>
@@ -14482,7 +14592,7 @@
         </is>
       </c>
     </row>
-    <row r="830" ht="12.75" customHeight="1">
+    <row r="830" ht="12.75" customHeight="1" s="5">
       <c r="A830" t="inlineStr">
         <is>
           <t>1FT706M-1</t>
@@ -14494,7 +14604,7 @@
         </is>
       </c>
     </row>
-    <row r="831" ht="12.75" customHeight="1">
+    <row r="831" ht="12.75" customHeight="1" s="5">
       <c r="A831" t="inlineStr">
         <is>
           <t>1FT706B-5</t>
@@ -14506,7 +14616,7 @@
         </is>
       </c>
     </row>
-    <row r="832" ht="12.75" customHeight="1">
+    <row r="832" ht="12.75" customHeight="1" s="5">
       <c r="A832" t="inlineStr">
         <is>
           <t>1FT706C-5</t>
@@ -14518,7 +14628,7 @@
         </is>
       </c>
     </row>
-    <row r="833" ht="12.75" customHeight="1">
+    <row r="833" ht="12.75" customHeight="1" s="5">
       <c r="A833" t="inlineStr">
         <is>
           <t>1FT706D-5</t>
@@ -14530,7 +14640,7 @@
         </is>
       </c>
     </row>
-    <row r="834" ht="12.75" customHeight="1">
+    <row r="834" ht="12.75" customHeight="1" s="5">
       <c r="A834" t="inlineStr">
         <is>
           <t>1FT706F-5</t>
@@ -14542,7 +14652,7 @@
         </is>
       </c>
     </row>
-    <row r="835" ht="12.75" customHeight="1">
+    <row r="835" ht="12.75" customHeight="1" s="5">
       <c r="A835" t="inlineStr">
         <is>
           <t>1FT706N-5</t>
@@ -14554,7 +14664,7 @@
         </is>
       </c>
     </row>
-    <row r="836" ht="12.75" customHeight="1">
+    <row r="836" ht="12.75" customHeight="1" s="5">
       <c r="A836" t="inlineStr">
         <is>
           <t>1FT706M-5</t>
@@ -14566,7 +14676,7 @@
         </is>
       </c>
     </row>
-    <row r="837" ht="12.75" customHeight="1">
+    <row r="837" ht="12.75" customHeight="1" s="5">
       <c r="A837" t="inlineStr">
         <is>
           <t>1FT706B-7</t>
@@ -14578,7 +14688,7 @@
         </is>
       </c>
     </row>
-    <row r="838" ht="12.75" customHeight="1">
+    <row r="838" ht="12.75" customHeight="1" s="5">
       <c r="A838" t="inlineStr">
         <is>
           <t>1FT706C-7</t>
@@ -14590,7 +14700,7 @@
         </is>
       </c>
     </row>
-    <row r="839" ht="12.75" customHeight="1">
+    <row r="839" ht="12.75" customHeight="1" s="5">
       <c r="A839" t="inlineStr">
         <is>
           <t>1FT706D-7</t>
@@ -14602,7 +14712,7 @@
         </is>
       </c>
     </row>
-    <row r="840" ht="12.75" customHeight="1">
+    <row r="840" ht="12.75" customHeight="1" s="5">
       <c r="A840" t="inlineStr">
         <is>
           <t>1FT706F-7</t>
@@ -14614,7 +14724,7 @@
         </is>
       </c>
     </row>
-    <row r="841" ht="12.75" customHeight="1">
+    <row r="841" ht="12.75" customHeight="1" s="5">
       <c r="A841" t="inlineStr">
         <is>
           <t>1FT706N-7</t>
@@ -14626,7 +14736,7 @@
         </is>
       </c>
     </row>
-    <row r="842" ht="12.75" customHeight="1">
+    <row r="842" ht="12.75" customHeight="1" s="5">
       <c r="A842" t="inlineStr">
         <is>
           <t>1FT706M-7</t>
@@ -14638,7 +14748,7 @@
         </is>
       </c>
     </row>
-    <row r="843" ht="12.75" customHeight="1">
+    <row r="843" ht="12.75" customHeight="1" s="5">
       <c r="A843" t="inlineStr">
         <is>
           <t>1FT708B-1</t>
@@ -14650,7 +14760,7 @@
         </is>
       </c>
     </row>
-    <row r="844" ht="12.75" customHeight="1">
+    <row r="844" ht="12.75" customHeight="1" s="5">
       <c r="A844" t="inlineStr">
         <is>
           <t>1FT708C-1</t>
@@ -14662,7 +14772,7 @@
         </is>
       </c>
     </row>
-    <row r="845" ht="12.75" customHeight="1">
+    <row r="845" ht="12.75" customHeight="1" s="5">
       <c r="A845" t="inlineStr">
         <is>
           <t>1FT708D-1</t>
@@ -14674,7 +14784,7 @@
         </is>
       </c>
     </row>
-    <row r="846" ht="12.75" customHeight="1">
+    <row r="846" ht="12.75" customHeight="1" s="5">
       <c r="A846" t="inlineStr">
         <is>
           <t>1FT708F-1</t>
@@ -14686,7 +14796,7 @@
         </is>
       </c>
     </row>
-    <row r="847" ht="12.75" customHeight="1">
+    <row r="847" ht="12.75" customHeight="1" s="5">
       <c r="A847" t="inlineStr">
         <is>
           <t>1FT708N-1</t>
@@ -14698,7 +14808,7 @@
         </is>
       </c>
     </row>
-    <row r="848" ht="12.75" customHeight="1">
+    <row r="848" ht="12.75" customHeight="1" s="5">
       <c r="A848" t="inlineStr">
         <is>
           <t>1FT708M-1</t>
@@ -14710,7 +14820,7 @@
         </is>
       </c>
     </row>
-    <row r="849" ht="12.75" customHeight="1">
+    <row r="849" ht="12.75" customHeight="1" s="5">
       <c r="A849" t="inlineStr">
         <is>
           <t>1FT708B-5</t>
@@ -14722,7 +14832,7 @@
         </is>
       </c>
     </row>
-    <row r="850" ht="12.75" customHeight="1">
+    <row r="850" ht="12.75" customHeight="1" s="5">
       <c r="A850" t="inlineStr">
         <is>
           <t>1FT708C-5</t>
@@ -14734,7 +14844,7 @@
         </is>
       </c>
     </row>
-    <row r="851" ht="12.75" customHeight="1">
+    <row r="851" ht="12.75" customHeight="1" s="5">
       <c r="A851" t="inlineStr">
         <is>
           <t>1FT708D-5</t>
@@ -14746,7 +14856,7 @@
         </is>
       </c>
     </row>
-    <row r="852" ht="12.75" customHeight="1">
+    <row r="852" ht="12.75" customHeight="1" s="5">
       <c r="A852" t="inlineStr">
         <is>
           <t>1FT708F-5</t>
@@ -14758,7 +14868,7 @@
         </is>
       </c>
     </row>
-    <row r="853" ht="12.75" customHeight="1">
+    <row r="853" ht="12.75" customHeight="1" s="5">
       <c r="A853" t="inlineStr">
         <is>
           <t>1FT708N-5</t>
@@ -14770,7 +14880,7 @@
         </is>
       </c>
     </row>
-    <row r="854" ht="12.75" customHeight="1">
+    <row r="854" ht="12.75" customHeight="1" s="5">
       <c r="A854" t="inlineStr">
         <is>
           <t>1FT708M-5</t>
@@ -14782,7 +14892,7 @@
         </is>
       </c>
     </row>
-    <row r="855" ht="12.75" customHeight="1">
+    <row r="855" ht="12.75" customHeight="1" s="5">
       <c r="A855" t="inlineStr">
         <is>
           <t>1FT708B-7</t>
@@ -14794,7 +14904,7 @@
         </is>
       </c>
     </row>
-    <row r="856" ht="12.75" customHeight="1">
+    <row r="856" ht="12.75" customHeight="1" s="5">
       <c r="A856" t="inlineStr">
         <is>
           <t>1FT708C-7</t>
@@ -14806,7 +14916,7 @@
         </is>
       </c>
     </row>
-    <row r="857" ht="12.75" customHeight="1">
+    <row r="857" ht="12.75" customHeight="1" s="5">
       <c r="A857" t="inlineStr">
         <is>
           <t>1FT708D-7</t>
@@ -14818,7 +14928,7 @@
         </is>
       </c>
     </row>
-    <row r="858" ht="12.75" customHeight="1">
+    <row r="858" ht="12.75" customHeight="1" s="5">
       <c r="A858" t="inlineStr">
         <is>
           <t>1FT708F-7</t>
@@ -14830,7 +14940,7 @@
         </is>
       </c>
     </row>
-    <row r="859" ht="12.75" customHeight="1">
+    <row r="859" ht="12.75" customHeight="1" s="5">
       <c r="A859" t="inlineStr">
         <is>
           <t>1FT708N-7</t>
@@ -14842,7 +14952,7 @@
         </is>
       </c>
     </row>
-    <row r="860" ht="12.75" customHeight="1">
+    <row r="860" ht="12.75" customHeight="1" s="5">
       <c r="A860" t="inlineStr">
         <is>
           <t>1FT708M-7</t>
@@ -14854,7 +14964,7 @@
         </is>
       </c>
     </row>
-    <row r="861" ht="12.75" customHeight="1">
+    <row r="861" ht="12.75" customHeight="1" s="5">
       <c r="A861" t="inlineStr">
         <is>
           <t>1FT710B-1</t>
@@ -14866,7 +14976,7 @@
         </is>
       </c>
     </row>
-    <row r="862" ht="12.75" customHeight="1">
+    <row r="862" ht="12.75" customHeight="1" s="5">
       <c r="A862" t="inlineStr">
         <is>
           <t>1FT710C-1</t>
@@ -14878,7 +14988,7 @@
         </is>
       </c>
     </row>
-    <row r="863" ht="12.75" customHeight="1">
+    <row r="863" ht="12.75" customHeight="1" s="5">
       <c r="A863" t="inlineStr">
         <is>
           <t>1FT710D-1</t>
@@ -14890,7 +15000,7 @@
         </is>
       </c>
     </row>
-    <row r="864" ht="12.75" customHeight="1">
+    <row r="864" ht="12.75" customHeight="1" s="5">
       <c r="A864" t="inlineStr">
         <is>
           <t>1FT710F-1</t>
@@ -14902,7 +15012,7 @@
         </is>
       </c>
     </row>
-    <row r="865" ht="12.75" customHeight="1">
+    <row r="865" ht="12.75" customHeight="1" s="5">
       <c r="A865" t="inlineStr">
         <is>
           <t>1FT710N-1</t>
@@ -14914,7 +15024,7 @@
         </is>
       </c>
     </row>
-    <row r="866" ht="12.75" customHeight="1">
+    <row r="866" ht="12.75" customHeight="1" s="5">
       <c r="A866" t="inlineStr">
         <is>
           <t>1FT710M-1</t>
@@ -14926,7 +15036,7 @@
         </is>
       </c>
     </row>
-    <row r="867" ht="12.75" customHeight="1">
+    <row r="867" ht="12.75" customHeight="1" s="5">
       <c r="A867" t="inlineStr">
         <is>
           <t>1FT710B-5</t>
@@ -14938,7 +15048,7 @@
         </is>
       </c>
     </row>
-    <row r="868" ht="12.75" customHeight="1">
+    <row r="868" ht="12.75" customHeight="1" s="5">
       <c r="A868" t="inlineStr">
         <is>
           <t>1FT710C-5</t>
@@ -14950,7 +15060,7 @@
         </is>
       </c>
     </row>
-    <row r="869" ht="12.75" customHeight="1">
+    <row r="869" ht="12.75" customHeight="1" s="5">
       <c r="A869" t="inlineStr">
         <is>
           <t>1FT710D-5</t>
@@ -14962,7 +15072,7 @@
         </is>
       </c>
     </row>
-    <row r="870" ht="12.75" customHeight="1">
+    <row r="870" ht="12.75" customHeight="1" s="5">
       <c r="A870" t="inlineStr">
         <is>
           <t>1FT710F-5</t>
@@ -14974,7 +15084,7 @@
         </is>
       </c>
     </row>
-    <row r="871" ht="12.75" customHeight="1">
+    <row r="871" ht="12.75" customHeight="1" s="5">
       <c r="A871" t="inlineStr">
         <is>
           <t>1FT710N-5</t>
@@ -14986,7 +15096,7 @@
         </is>
       </c>
     </row>
-    <row r="872" ht="12.75" customHeight="1">
+    <row r="872" ht="12.75" customHeight="1" s="5">
       <c r="A872" t="inlineStr">
         <is>
           <t>1FT710M-5</t>
@@ -14998,7 +15108,7 @@
         </is>
       </c>
     </row>
-    <row r="873" ht="12.75" customHeight="1">
+    <row r="873" ht="12.75" customHeight="1" s="5">
       <c r="A873" t="inlineStr">
         <is>
           <t>1FT710B-7</t>
@@ -15010,7 +15120,7 @@
         </is>
       </c>
     </row>
-    <row r="874" ht="12.75" customHeight="1">
+    <row r="874" ht="12.75" customHeight="1" s="5">
       <c r="A874" t="inlineStr">
         <is>
           <t>1FT710C-7</t>
@@ -15022,7 +15132,7 @@
         </is>
       </c>
     </row>
-    <row r="875" ht="12.75" customHeight="1">
+    <row r="875" ht="12.75" customHeight="1" s="5">
       <c r="A875" t="inlineStr">
         <is>
           <t>1FT710D-7</t>
@@ -15034,7 +15144,7 @@
         </is>
       </c>
     </row>
-    <row r="876" ht="12.75" customHeight="1">
+    <row r="876" ht="12.75" customHeight="1" s="5">
       <c r="A876" t="inlineStr">
         <is>
           <t>1FT710F-7</t>
@@ -15046,7 +15156,7 @@
         </is>
       </c>
     </row>
-    <row r="877" ht="12.75" customHeight="1">
+    <row r="877" ht="12.75" customHeight="1" s="5">
       <c r="A877" t="inlineStr">
         <is>
           <t>1FT710N-7</t>
@@ -15058,7 +15168,7 @@
         </is>
       </c>
     </row>
-    <row r="878" ht="12.75" customHeight="1">
+    <row r="878" ht="12.75" customHeight="1" s="5">
       <c r="A878" t="inlineStr">
         <is>
           <t>1FT710M-7</t>
@@ -15070,7 +15180,7 @@
         </is>
       </c>
     </row>
-    <row r="879" ht="12.75" customHeight="1">
+    <row r="879" ht="12.75" customHeight="1" s="5">
       <c r="A879" t="inlineStr">
         <is>
           <t>1FT703R-1</t>
@@ -15082,7 +15192,7 @@
         </is>
       </c>
     </row>
-    <row r="880" ht="12.75" customHeight="1">
+    <row r="880" ht="12.75" customHeight="1" s="5">
       <c r="A880" t="inlineStr">
         <is>
           <t>1FT704R-1</t>
@@ -15094,7 +15204,7 @@
         </is>
       </c>
     </row>
-    <row r="881" ht="12.75" customHeight="1">
+    <row r="881" ht="12.75" customHeight="1" s="5">
       <c r="A881" t="inlineStr">
         <is>
           <t>1FT706R-1</t>
@@ -15106,7 +15216,7 @@
         </is>
       </c>
     </row>
-    <row r="882" ht="12.75" customHeight="1">
+    <row r="882" ht="12.75" customHeight="1" s="5">
       <c r="A882" t="inlineStr">
         <is>
           <t>1FT708R-1</t>
@@ -15118,7 +15228,7 @@
         </is>
       </c>
     </row>
-    <row r="883" ht="12.75" customHeight="1">
+    <row r="883" ht="12.75" customHeight="1" s="5">
       <c r="A883" t="inlineStr">
         <is>
           <t>1FT710R-1</t>
@@ -15130,7 +15240,7 @@
         </is>
       </c>
     </row>
-    <row r="884" ht="12.75" customHeight="1">
+    <row r="884" ht="12.75" customHeight="1" s="5">
       <c r="A884" t="inlineStr">
         <is>
           <t>1FT703R-5</t>
@@ -15142,7 +15252,7 @@
         </is>
       </c>
     </row>
-    <row r="885" ht="12.75" customHeight="1">
+    <row r="885" ht="12.75" customHeight="1" s="5">
       <c r="A885" t="inlineStr">
         <is>
           <t>1FT704R-5</t>
@@ -15154,7 +15264,7 @@
         </is>
       </c>
     </row>
-    <row r="886" ht="12.75" customHeight="1">
+    <row r="886" ht="12.75" customHeight="1" s="5">
       <c r="A886" t="inlineStr">
         <is>
           <t>1FT706R-5</t>
@@ -15166,7 +15276,7 @@
         </is>
       </c>
     </row>
-    <row r="887" ht="12.75" customHeight="1">
+    <row r="887" ht="12.75" customHeight="1" s="5">
       <c r="A887" t="inlineStr">
         <is>
           <t>1FT708R-5</t>
@@ -15178,7 +15288,7 @@
         </is>
       </c>
     </row>
-    <row r="888" ht="12.75" customHeight="1">
+    <row r="888" ht="12.75" customHeight="1" s="5">
       <c r="A888" t="inlineStr">
         <is>
           <t>1FT710R-5</t>
@@ -15190,7 +15300,7 @@
         </is>
       </c>
     </row>
-    <row r="889" ht="12.75" customHeight="1">
+    <row r="889" ht="12.75" customHeight="1" s="5">
       <c r="A889" t="inlineStr">
         <is>
           <t>1FT703R-7</t>
@@ -15202,7 +15312,7 @@
         </is>
       </c>
     </row>
-    <row r="890" ht="12.75" customHeight="1">
+    <row r="890" ht="12.75" customHeight="1" s="5">
       <c r="A890" t="inlineStr">
         <is>
           <t>1FT704R-7</t>
@@ -15214,7 +15324,7 @@
         </is>
       </c>
     </row>
-    <row r="891" ht="12.75" customHeight="1">
+    <row r="891" ht="12.75" customHeight="1" s="5">
       <c r="A891" t="inlineStr">
         <is>
           <t>1FT706R-7</t>
@@ -15226,7 +15336,7 @@
         </is>
       </c>
     </row>
-    <row r="892" ht="12.75" customHeight="1">
+    <row r="892" ht="12.75" customHeight="1" s="5">
       <c r="A892" t="inlineStr">
         <is>
           <t>1FT708R-7</t>
@@ -15238,7 +15348,7 @@
         </is>
       </c>
     </row>
-    <row r="893" ht="12.75" customHeight="1">
+    <row r="893" ht="12.75" customHeight="1" s="5">
       <c r="A893" t="inlineStr">
         <is>
           <t>1FT710R-7</t>
@@ -15250,7 +15360,7 @@
         </is>
       </c>
     </row>
-    <row r="894" ht="12.75" customHeight="1">
+    <row r="894" ht="12.75" customHeight="1" s="5">
       <c r="A894" t="inlineStr">
         <is>
           <t>1FT703Q-1</t>
@@ -15262,7 +15372,7 @@
         </is>
       </c>
     </row>
-    <row r="895" ht="12.75" customHeight="1">
+    <row r="895" ht="12.75" customHeight="1" s="5">
       <c r="A895" t="inlineStr">
         <is>
           <t>1FT704Q-1</t>
@@ -15274,7 +15384,7 @@
         </is>
       </c>
     </row>
-    <row r="896" ht="12.75" customHeight="1">
+    <row r="896" ht="12.75" customHeight="1" s="5">
       <c r="A896" t="inlineStr">
         <is>
           <t>1FT706Q-1</t>
@@ -15286,7 +15396,7 @@
         </is>
       </c>
     </row>
-    <row r="897" ht="12.75" customHeight="1">
+    <row r="897" ht="12.75" customHeight="1" s="5">
       <c r="A897" t="inlineStr">
         <is>
           <t>1FT708Q-1</t>
@@ -15298,7 +15408,7 @@
         </is>
       </c>
     </row>
-    <row r="898" ht="12.75" customHeight="1">
+    <row r="898" ht="12.75" customHeight="1" s="5">
       <c r="A898" t="inlineStr">
         <is>
           <t>1FT710Q-1</t>
@@ -15310,7 +15420,7 @@
         </is>
       </c>
     </row>
-    <row r="899" ht="12.75" customHeight="1">
+    <row r="899" ht="12.75" customHeight="1" s="5">
       <c r="A899" t="inlineStr">
         <is>
           <t>1FT703Q-5</t>
@@ -15322,7 +15432,7 @@
         </is>
       </c>
     </row>
-    <row r="900" ht="12.75" customHeight="1">
+    <row r="900" ht="12.75" customHeight="1" s="5">
       <c r="A900" t="inlineStr">
         <is>
           <t>1FT704Q-5</t>
@@ -15334,7 +15444,7 @@
         </is>
       </c>
     </row>
-    <row r="901" ht="12.75" customHeight="1">
+    <row r="901" ht="12.75" customHeight="1" s="5">
       <c r="A901" t="inlineStr">
         <is>
           <t>1FT706Q-5</t>
@@ -15346,7 +15456,7 @@
         </is>
       </c>
     </row>
-    <row r="902" ht="12.75" customHeight="1">
+    <row r="902" ht="12.75" customHeight="1" s="5">
       <c r="A902" t="inlineStr">
         <is>
           <t>1FT708Q-5</t>
@@ -15358,7 +15468,7 @@
         </is>
       </c>
     </row>
-    <row r="903" ht="12.75" customHeight="1">
+    <row r="903" ht="12.75" customHeight="1" s="5">
       <c r="A903" t="inlineStr">
         <is>
           <t>1FT710Q-5</t>
@@ -15370,7 +15480,7 @@
         </is>
       </c>
     </row>
-    <row r="904" ht="12.75" customHeight="1">
+    <row r="904" ht="12.75" customHeight="1" s="5">
       <c r="A904" t="inlineStr">
         <is>
           <t>1FT703Q-7</t>
@@ -15382,7 +15492,7 @@
         </is>
       </c>
     </row>
-    <row r="905" ht="12.75" customHeight="1">
+    <row r="905" ht="12.75" customHeight="1" s="5">
       <c r="A905" t="inlineStr">
         <is>
           <t>1FT704Q-7</t>
@@ -15394,7 +15504,7 @@
         </is>
       </c>
     </row>
-    <row r="906" ht="12.75" customHeight="1">
+    <row r="906" ht="12.75" customHeight="1" s="5">
       <c r="A906" t="inlineStr">
         <is>
           <t>1FT706Q-7</t>
@@ -15406,7 +15516,7 @@
         </is>
       </c>
     </row>
-    <row r="907" ht="12.75" customHeight="1">
+    <row r="907" ht="12.75" customHeight="1" s="5">
       <c r="A907" t="inlineStr">
         <is>
           <t>1FT708Q-7</t>
@@ -15418,7 +15528,7 @@
         </is>
       </c>
     </row>
-    <row r="908" ht="12.75" customHeight="1">
+    <row r="908" ht="12.75" customHeight="1" s="5">
       <c r="A908" t="inlineStr">
         <is>
           <t>1FT710Q-7</t>
@@ -15430,7 +15540,7 @@
         </is>
       </c>
     </row>
-    <row r="909" ht="12.75" customHeight="1">
+    <row r="909" ht="12.75" customHeight="1" s="5">
       <c r="A909" t="inlineStr">
         <is>
           <t>1FK704A-4</t>
@@ -15442,7 +15552,7 @@
         </is>
       </c>
     </row>
-    <row r="910" ht="12.75" customHeight="1">
+    <row r="910" ht="12.75" customHeight="1" s="5">
       <c r="A910" t="inlineStr">
         <is>
           <t>1FT713C-5</t>
@@ -15454,7 +15564,7 @@
         </is>
       </c>
     </row>
-    <row r="911" ht="12.75" customHeight="1">
+    <row r="911" ht="12.75" customHeight="1" s="5">
       <c r="A911" t="inlineStr">
         <is>
           <t>1FT504--0</t>
@@ -15466,7 +15576,7 @@
         </is>
       </c>
     </row>
-    <row r="912" ht="12.75" customHeight="1">
+    <row r="912" ht="12.75" customHeight="1" s="5">
       <c r="A912" t="inlineStr">
         <is>
           <t>1FT506-0</t>
@@ -15478,8 +15588,7 @@
         </is>
       </c>
     </row>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1" s="5"/>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -15500,74 +15609,102 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" activeCellId="1" sqref="E147:F158 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
           <t>1FK7062-2AC71-1RH0+SYFND637458311002</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1" s="5">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1FT7044-1AF71-1CG1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
+          <t>1FK7033-4CK74-1EG0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="5">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LN620-8084-01-001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
+          <t>M2622-1412-07-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="5">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AM-24 DQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>listopad 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
+          <t>AM2048S/R</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>únor 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="5">
       <c r="A6" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" s="5">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022.4.25_1FT7044-1AF71-1CG1_LN620-8084-01-001_16,67Hz_OK_VIB12</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
+          <t>2022.5.4_1FK7033-4CK74-1EG0_M2622-1412-07-001_16,67Hz_OK_VIB12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="5">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022.4.25_1FT7044-1AF71-1CG1_LN620-8084-01-001_16,67Hz_NOK_VIB12</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
+          <t>2022.5.4_1FK7033-4CK74-1EG0_M2622-1412-07-001_16,67Hz_NOK_VIB12</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="5">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1FT704C-1</t>
+          <t>1FK703E-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>#dddddd</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>#dddddd</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>#fefefe</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1P1FK7033-4CK74-1EG0+SYFM2622141207001</t>
         </is>
       </c>
     </row>
